--- a/BackTest/2019-11-01 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-01 BackTest LAMB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>55.43999999999998</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.899999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-4.761904761904826</v>
+      </c>
       <c r="L13" t="n">
         <v>55.44999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.899999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>55.43999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>22.22222222222209</v>
+      </c>
       <c r="L15" t="n">
         <v>55.44999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.399999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>76.47058823529382</v>
+      </c>
       <c r="L16" t="n">
         <v>55.52999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.699999999999996</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>66.66666666666693</v>
+      </c>
       <c r="L17" t="n">
         <v>55.62999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.799999999999997</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>55.55555555555565</v>
+      </c>
       <c r="L18" t="n">
         <v>55.73999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>4.299999999999997</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>65.2173913043479</v>
+      </c>
       <c r="L19" t="n">
         <v>55.88999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.599999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>39.13043478260899</v>
+      </c>
       <c r="L20" t="n">
         <v>56.00999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>5.599999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-21.42857142857125</v>
+      </c>
       <c r="L21" t="n">
         <v>56</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5.599999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-25.92592592592581</v>
+      </c>
       <c r="L22" t="n">
         <v>55.94000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5.899999999999991</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.660377358490516</v>
+        <v>-13.33333333333332</v>
       </c>
       <c r="L23" t="n">
         <v>55.90000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.818181818181846</v>
+        <v>-3.030303030303082</v>
       </c>
       <c r="L24" t="n">
         <v>55.90000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>6.399999999999991</v>
       </c>
       <c r="K25" t="n">
-        <v>1.818181818181846</v>
+        <v>-13.33333333333332</v>
       </c>
       <c r="L25" t="n">
         <v>55.90000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>6.999999999999993</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.448275862069016</v>
+        <v>-21.21212121212131</v>
       </c>
       <c r="L26" t="n">
         <v>55.80000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>7.399999999999991</v>
       </c>
       <c r="K27" t="n">
-        <v>12.2807017543859</v>
+        <v>-5.555555555555643</v>
       </c>
       <c r="L27" t="n">
         <v>55.77</v>
@@ -1662,7 +1684,7 @@
         <v>7.699999999999989</v>
       </c>
       <c r="K28" t="n">
-        <v>10.34482758620694</v>
+        <v>-29.41176470588243</v>
       </c>
       <c r="L28" t="n">
         <v>55.72000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>8.29999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>17.46031746031751</v>
+        <v>-2.702702702702744</v>
       </c>
       <c r="L29" t="n">
         <v>55.68000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K30" t="n">
-        <v>18.75000000000007</v>
+        <v>35.71428571428575</v>
       </c>
       <c r="L30" t="n">
         <v>55.68000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>8.79999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>20.00000000000009</v>
+        <v>43.75000000000001</v>
       </c>
       <c r="L31" t="n">
         <v>55.82000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>8.999999999999986</v>
       </c>
       <c r="K32" t="n">
-        <v>16.12903225806455</v>
+        <v>41.93548387096773</v>
       </c>
       <c r="L32" t="n">
         <v>55.98</v>
@@ -1911,7 +1933,7 @@
         <v>9.299999999999983</v>
       </c>
       <c r="K33" t="n">
-        <v>9.375000000000046</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L33" t="n">
         <v>56.08</v>
@@ -1962,7 +1984,7 @@
         <v>9.799999999999983</v>
       </c>
       <c r="K34" t="n">
-        <v>1.449275362318865</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>56.09</v>
@@ -2013,7 +2035,7 @@
         <v>9.799999999999983</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>21.42857142857155</v>
       </c>
       <c r="L35" t="n">
         <v>56.09</v>
@@ -2064,7 +2086,7 @@
         <v>9.899999999999984</v>
       </c>
       <c r="K36" t="n">
-        <v>-4.615384615384581</v>
+        <v>12.0000000000002</v>
       </c>
       <c r="L36" t="n">
         <v>56.16</v>
@@ -2115,7 +2137,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.125000000000048</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L37" t="n">
         <v>56.17</v>
@@ -2166,7 +2188,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>3.030303030303076</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L38" t="n">
         <v>56.24000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-6.451612903225788</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L39" t="n">
         <v>56.24000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>-7.93650793650794</v>
+        <v>-42.85714285714276</v>
       </c>
       <c r="L40" t="n">
         <v>56.19000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>7.407407407407383</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L41" t="n">
         <v>56.09000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>15.25423728813557</v>
+        <v>-18.18181818181803</v>
       </c>
       <c r="L42" t="n">
         <v>56.02000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>11.99999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>1.639344262295105</v>
+        <v>-18.18181818181803</v>
       </c>
       <c r="L43" t="n">
         <v>55.93000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>12.3</v>
       </c>
       <c r="K44" t="n">
-        <v>-10.00000000000001</v>
+        <v>-27.99999999999995</v>
       </c>
       <c r="L44" t="n">
         <v>55.86000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>12.3</v>
       </c>
       <c r="K45" t="n">
-        <v>-11.86440677966105</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>55.79000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>12.3</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.886792452830214</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L46" t="n">
         <v>55.71</v>
@@ -2625,7 +2647,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-13.72549019607834</v>
+        <v>-52.38095238095242</v>
       </c>
       <c r="L47" t="n">
         <v>55.63000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>-10.20408163265305</v>
+        <v>-52.38095238095242</v>
       </c>
       <c r="L48" t="n">
         <v>55.51000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>12.8</v>
       </c>
       <c r="K49" t="n">
-        <v>-28.88888888888894</v>
+        <v>-47.36842105263174</v>
       </c>
       <c r="L49" t="n">
         <v>55.38</v>
@@ -2778,7 +2800,7 @@
         <v>13.4</v>
       </c>
       <c r="K50" t="n">
-        <v>-16.00000000000006</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L50" t="n">
         <v>55.34999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>13.8</v>
       </c>
       <c r="K51" t="n">
-        <v>-31.99999999999999</v>
+        <v>-47.82608695652171</v>
       </c>
       <c r="L51" t="n">
         <v>55.28999999999998</v>
@@ -2880,7 +2902,7 @@
         <v>14</v>
       </c>
       <c r="K52" t="n">
-        <v>-39.99999999999989</v>
+        <v>-40.00000000000007</v>
       </c>
       <c r="L52" t="n">
         <v>55.15999999999998</v>
@@ -2931,7 +2953,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>-37.49999999999985</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L53" t="n">
         <v>55.06999999999998</v>
@@ -2982,7 +3004,7 @@
         <v>14.3</v>
       </c>
       <c r="K54" t="n">
-        <v>-33.33333333333323</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L54" t="n">
         <v>54.98999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>14.4</v>
       </c>
       <c r="K55" t="n">
-        <v>-30.43478260869551</v>
+        <v>-33.33333333333311</v>
       </c>
       <c r="L55" t="n">
         <v>54.91999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>14.4</v>
       </c>
       <c r="K56" t="n">
-        <v>-33.33333333333323</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L56" t="n">
         <v>54.85</v>
@@ -3135,7 +3157,7 @@
         <v>14.9</v>
       </c>
       <c r="K57" t="n">
-        <v>-16.66666666666657</v>
+        <v>4.347826086956576</v>
       </c>
       <c r="L57" t="n">
         <v>54.85</v>
@@ -3186,7 +3208,7 @@
         <v>15.2</v>
       </c>
       <c r="K58" t="n">
-        <v>-16.66666666666674</v>
+        <v>25.00000000000007</v>
       </c>
       <c r="L58" t="n">
         <v>54.89</v>
@@ -3237,7 +3259,7 @@
         <v>16.3</v>
       </c>
       <c r="K59" t="n">
-        <v>-31.03448275862074</v>
+        <v>-37.93103448275869</v>
       </c>
       <c r="L59" t="n">
         <v>54.84</v>
@@ -3288,7 +3310,7 @@
         <v>16.8</v>
       </c>
       <c r="K60" t="n">
-        <v>-15.25423728813568</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L60" t="n">
         <v>54.77999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>16.9</v>
       </c>
       <c r="K61" t="n">
-        <v>-11.86440677966105</v>
+        <v>3.448275862069016</v>
       </c>
       <c r="L61" t="n">
         <v>54.77</v>
@@ -3390,7 +3412,7 @@
         <v>17.1</v>
       </c>
       <c r="K62" t="n">
-        <v>-17.85714285714283</v>
+        <v>13.33333333333326</v>
       </c>
       <c r="L62" t="n">
         <v>54.8</v>
@@ -3441,7 +3463,7 @@
         <v>17.2</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.69230769230765</v>
+        <v>24.13793103448281</v>
       </c>
       <c r="L63" t="n">
         <v>54.85</v>
@@ -3492,7 +3514,7 @@
         <v>17.8</v>
       </c>
       <c r="K64" t="n">
-        <v>-12.72727272727263</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>54.86</v>
@@ -3543,7 +3565,7 @@
         <v>18.10000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>-17.24137931034479</v>
+        <v>-8.108108108108201</v>
       </c>
       <c r="L65" t="n">
         <v>54.83</v>
@@ -3594,7 +3616,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>-6.249999999999965</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L66" t="n">
         <v>54.85999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-11.76470588235297</v>
+        <v>-26.82926829268286</v>
       </c>
       <c r="L67" t="n">
         <v>54.77999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>20.20000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>2.631578947368451</v>
+        <v>23.07692307692311</v>
       </c>
       <c r="L68" t="n">
         <v>54.75999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>11.39240506329118</v>
+        <v>23.07692307692311</v>
       </c>
       <c r="L69" t="n">
         <v>54.9</v>
@@ -3798,7 +3820,7 @@
         <v>22.10000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-12.64367816091952</v>
+        <v>-11.53846153846151</v>
       </c>
       <c r="L70" t="n">
         <v>54.85</v>
@@ -3849,7 +3871,7 @@
         <v>22.20000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.523809523809469</v>
+        <v>-17.64705882352933</v>
       </c>
       <c r="L71" t="n">
         <v>54.78000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>23.70000000000002</v>
       </c>
       <c r="K72" t="n">
-        <v>9.278350515463959</v>
+        <v>7.692307692307676</v>
       </c>
       <c r="L72" t="n">
         <v>54.84000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>23.90000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>12.24489795918361</v>
+        <v>21.31147540983599</v>
       </c>
       <c r="L73" t="n">
         <v>54.91</v>
@@ -4002,7 +4024,7 @@
         <v>24.50000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>7.84313725490192</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="L74" t="n">
         <v>54.98</v>
@@ -4053,7 +4075,7 @@
         <v>24.50000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>6.930693069306877</v>
+        <v>6.896551724137902</v>
       </c>
       <c r="L75" t="n">
         <v>55.08</v>
@@ -4104,7 +4126,7 @@
         <v>24.90000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>2.857142857142826</v>
+        <v>10.71428571428574</v>
       </c>
       <c r="L76" t="n">
         <v>55.08</v>
@@ -4155,7 +4177,7 @@
         <v>25.00000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.9900990099010026</v>
+        <v>-4.166666666666728</v>
       </c>
       <c r="L77" t="n">
         <v>55.15</v>
@@ -4206,7 +4228,7 @@
         <v>25.00000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>-4.081632653061202</v>
+        <v>-16.27906976744194</v>
       </c>
       <c r="L78" t="n">
         <v>55.13</v>
@@ -4257,7 +4279,7 @@
         <v>25.00000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>8.045977011494269</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L79" t="n">
         <v>55.05999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>25.20000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>4.761904761904819</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>55.15</v>
@@ -4359,7 +4381,7 @@
         <v>25.40000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>1.176470588235308</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L81" t="n">
         <v>55.23</v>
@@ -4410,7 +4432,7 @@
         <v>25.50000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>-2.380952380952409</v>
+        <v>-62.49999999999967</v>
       </c>
       <c r="L82" t="n">
         <v>55.14999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>26.50000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>-13.97849462365593</v>
+        <v>-69.99999999999969</v>
       </c>
       <c r="L83" t="n">
         <v>54.94999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>27.40000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>2.083333333333286</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L84" t="n">
         <v>54.89999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>27.90000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>54.79999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>28.00000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>-7.526881720430058</v>
+        <v>-26.66666666666657</v>
       </c>
       <c r="L86" t="n">
         <v>54.73</v>
@@ -4665,7 +4687,7 @@
         <v>28.10000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>-2.272727272727223</v>
+        <v>-29.03225806451607</v>
       </c>
       <c r="L87" t="n">
         <v>54.64</v>
@@ -4716,7 +4738,7 @@
         <v>28.20000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>-15.00000000000004</v>
+        <v>-31.24999999999997</v>
       </c>
       <c r="L88" t="n">
         <v>54.54</v>
@@ -4767,7 +4789,7 @@
         <v>29.00000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>-10.84337349397598</v>
+        <v>-10.52631578947384</v>
       </c>
       <c r="L89" t="n">
         <v>54.52</v>
@@ -4818,7 +4840,7 @@
         <v>29.70000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.63157894736837</v>
+        <v>-20.93023255813955</v>
       </c>
       <c r="L90" t="n">
         <v>54.40999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>29.80000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-2.63157894736846</v>
+        <v>-20.93023255813955</v>
       </c>
       <c r="L91" t="n">
         <v>54.30999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>29.80000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>-27.86885245901646</v>
+        <v>3.030303030303082</v>
       </c>
       <c r="L92" t="n">
         <v>54.21999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>29.90000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-33.33333333333333</v>
+        <v>-36.00000000000004</v>
       </c>
       <c r="L93" t="n">
         <v>54.21999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>30.00000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-23.63636363636359</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L94" t="n">
         <v>54.14</v>
@@ -5073,7 +5095,7 @@
         <v>30.00000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-23.63636363636359</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L95" t="n">
         <v>54.11</v>
@@ -5124,7 +5146,7 @@
         <v>30.20000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>-20.75471698113208</v>
+        <v>-14.28571428571448</v>
       </c>
       <c r="L96" t="n">
         <v>54.06999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>30.20000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>-23.07692307692312</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L97" t="n">
         <v>54.03999999999998</v>
@@ -5226,7 +5248,7 @@
         <v>30.20000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>-23.07692307692312</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L98" t="n">
         <v>54.01999999999998</v>
@@ -5277,7 +5299,7 @@
         <v>30.60000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>-28.57142857142859</v>
+        <v>-77.7777777777776</v>
       </c>
       <c r="L99" t="n">
         <v>53.87999999999998</v>
@@ -5328,7 +5350,7 @@
         <v>30.80000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>-35.71428571428575</v>
+        <v>-79.99999999999972</v>
       </c>
       <c r="L100" t="n">
         <v>53.78999999999998</v>
@@ -5379,7 +5401,7 @@
         <v>31.40000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>-20.0000000000001</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L101" t="n">
         <v>53.76999999999998</v>
@@ -5430,7 +5452,7 @@
         <v>32.2</v>
       </c>
       <c r="K102" t="n">
-        <v>-28.35820895522394</v>
+        <v>-39.1304347826088</v>
       </c>
       <c r="L102" t="n">
         <v>53.66999999999998</v>
@@ -5481,7 +5503,7 @@
         <v>32.6</v>
       </c>
       <c r="K103" t="n">
-        <v>-8.196721311475438</v>
+        <v>-23.07692307692324</v>
       </c>
       <c r="L103" t="n">
         <v>53.61999999999998</v>
@@ -5532,7 +5554,7 @@
         <v>33.4</v>
       </c>
       <c r="K104" t="n">
-        <v>-36.66666666666673</v>
+        <v>-41.17647058823544</v>
       </c>
       <c r="L104" t="n">
         <v>53.47999999999998</v>
@@ -5583,7 +5605,7 @@
         <v>34.2</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.28571428571432</v>
+        <v>-10.00000000000002</v>
       </c>
       <c r="L105" t="n">
         <v>53.41999999999998</v>
@@ -5634,7 +5656,7 @@
         <v>34.7</v>
       </c>
       <c r="K106" t="n">
-        <v>-4.477611940298583</v>
+        <v>2.222222222222264</v>
       </c>
       <c r="L106" t="n">
         <v>53.42999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>35.2</v>
       </c>
       <c r="K107" t="n">
-        <v>-9.859154929577532</v>
+        <v>-8.000000000000005</v>
       </c>
       <c r="L107" t="n">
         <v>53.38999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>35.3</v>
       </c>
       <c r="K108" t="n">
-        <v>-9.859154929577532</v>
+        <v>-2.127659574468124</v>
       </c>
       <c r="L108" t="n">
         <v>53.33999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>35.6</v>
       </c>
       <c r="K109" t="n">
-        <v>-18.18181818181815</v>
+        <v>8.33333333333332</v>
       </c>
       <c r="L109" t="n">
         <v>53.35999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>35.8</v>
       </c>
       <c r="K110" t="n">
-        <v>-4.918032786885326</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>53.41999999999998</v>
@@ -5889,7 +5911,7 @@
         <v>36</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L111" t="n">
         <v>53.43999999999998</v>
@@ -5940,7 +5962,7 @@
         <v>36</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L112" t="n">
         <v>53.53999999999998</v>
@@ -5991,7 +6013,7 @@
         <v>36.5</v>
       </c>
       <c r="K113" t="n">
-        <v>9.090909090909131</v>
+        <v>61.29032258064508</v>
       </c>
       <c r="L113" t="n">
         <v>53.64999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>36.7</v>
       </c>
       <c r="K114" t="n">
-        <v>4.477611940298472</v>
+        <v>35.99999999999984</v>
       </c>
       <c r="L114" t="n">
         <v>53.81999999999998</v>
@@ -6093,7 +6115,7 @@
         <v>37.1</v>
       </c>
       <c r="K115" t="n">
-        <v>-1.408450704225375</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>53.86999999999998</v>
@@ -6144,7 +6166,7 @@
         <v>37.1</v>
       </c>
       <c r="K116" t="n">
-        <v>1.449275362318865</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L116" t="n">
         <v>53.86999999999998</v>
@@ -6195,7 +6217,7 @@
         <v>37.2</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L117" t="n">
         <v>53.90999999999998</v>
@@ -6246,7 +6268,7 @@
         <v>37.40000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>2.777777777777822</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L118" t="n">
         <v>53.97999999999998</v>
@@ -6297,7 +6319,7 @@
         <v>37.50000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>7.246376811594211</v>
+        <v>5.88235294117652</v>
       </c>
       <c r="L119" t="n">
         <v>54.00999999999998</v>
@@ -6348,7 +6370,7 @@
         <v>37.50000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>10.44776119402979</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L120" t="n">
         <v>54.01999999999998</v>
@@ -6399,7 +6421,7 @@
         <v>37.50000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>1.639344262295105</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L121" t="n">
         <v>54.00999999999998</v>
@@ -6450,7 +6472,7 @@
         <v>37.50000000000001</v>
       </c>
       <c r="K122" t="n">
-        <v>16.98113207547166</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L122" t="n">
         <v>53.99999999999998</v>
@@ -6501,7 +6523,7 @@
         <v>38.40000000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>24.13793103448272</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L123" t="n">
         <v>54.02999999999997</v>
@@ -6552,7 +6574,7 @@
         <v>38.60000000000001</v>
       </c>
       <c r="K124" t="n">
-        <v>46.15384615384604</v>
+        <v>73.33333333333309</v>
       </c>
       <c r="L124" t="n">
         <v>54.09999999999998</v>
@@ -6603,7 +6625,7 @@
         <v>38.80000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>30.43478260869551</v>
+        <v>52.94117647058785</v>
       </c>
       <c r="L125" t="n">
         <v>54.18999999999998</v>
@@ -6654,7 +6676,7 @@
         <v>38.90000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>19.0476190476191</v>
+        <v>52.94117647058848</v>
       </c>
       <c r="L126" t="n">
         <v>54.26999999999998</v>
@@ -6705,7 +6727,7 @@
         <v>39</v>
       </c>
       <c r="K127" t="n">
-        <v>36.84210526315781</v>
+        <v>50</v>
       </c>
       <c r="L127" t="n">
         <v>54.36999999999998</v>
@@ -6756,7 +6778,7 @@
         <v>39.2</v>
       </c>
       <c r="K128" t="n">
-        <v>33.33333333333346</v>
+        <v>41.17647058823574</v>
       </c>
       <c r="L128" t="n">
         <v>54.42999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>39.49999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000036</v>
       </c>
       <c r="L129" t="n">
         <v>54.52999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>39.49999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>29.7297297297298</v>
+        <v>50.00000000000036</v>
       </c>
       <c r="L130" t="n">
         <v>54.62999999999998</v>
@@ -6909,7 +6931,7 @@
         <v>39.79999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>15.78947368421061</v>
+        <v>30.434782608696</v>
       </c>
       <c r="L131" t="n">
         <v>54.69999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>39.79999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>15.78947368421061</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L132" t="n">
         <v>54.77</v>
@@ -7011,7 +7033,7 @@
         <v>40.09999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-5.555555555555643</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L133" t="n">
         <v>54.71999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>40.49999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-10.52631578947367</v>
+        <v>-52.94117647058872</v>
       </c>
       <c r="L134" t="n">
         <v>54.60999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>40.49999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>-50.00000000000067</v>
       </c>
       <c r="L135" t="n">
         <v>54.52</v>
@@ -7164,7 +7186,7 @@
         <v>40.59999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-2.857142857142903</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L136" t="n">
         <v>54.42999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>40.59999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>-57.14285714285751</v>
       </c>
       <c r="L137" t="n">
         <v>54.32999999999998</v>
@@ -7266,7 +7288,7 @@
         <v>41.2</v>
       </c>
       <c r="K138" t="n">
-        <v>10.52631578947367</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L138" t="n">
         <v>54.30999999999998</v>
@@ -7317,7 +7339,7 @@
         <v>41.59999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>2.439024390243945</v>
+        <v>-42.85714285714276</v>
       </c>
       <c r="L139" t="n">
         <v>54.21999999999998</v>
@@ -7368,7 +7390,7 @@
         <v>41.59999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>2.439024390243945</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>54.12999999999998</v>
@@ -7419,7 +7441,7 @@
         <v>41.99999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>11.11111111111115</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L141" t="n">
         <v>54.10999999999998</v>
@@ -7470,7 +7492,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>8.695652173913036</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>54.07999999999997</v>
@@ -7521,7 +7543,7 @@
         <v>42.2</v>
       </c>
       <c r="K143" t="n">
-        <v>-10.52631578947367</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L143" t="n">
         <v>54.08999999999997</v>
@@ -7572,7 +7594,7 @@
         <v>42.2</v>
       </c>
       <c r="K144" t="n">
-        <v>-16.66666666666677</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L144" t="n">
         <v>54.13999999999997</v>
@@ -7623,7 +7645,7 @@
         <v>42.3</v>
       </c>
       <c r="K145" t="n">
-        <v>-8.571428571428525</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L145" t="n">
         <v>54.19999999999997</v>
@@ -7674,7 +7696,7 @@
         <v>42.3</v>
       </c>
       <c r="K146" t="n">
-        <v>-5.882352941176569</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L146" t="n">
         <v>54.26999999999998</v>
@@ -7725,7 +7747,7 @@
         <v>42.3</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.090909090909012</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L147" t="n">
         <v>54.33999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>42.8</v>
       </c>
       <c r="K148" t="n">
-        <v>11.11111111111107</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L148" t="n">
         <v>54.39999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>42.8</v>
       </c>
       <c r="K149" t="n">
-        <v>3.03030303030307</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L149" t="n">
         <v>54.49999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>42.8</v>
       </c>
       <c r="K150" t="n">
-        <v>3.03030303030307</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L150" t="n">
         <v>54.59999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>43.09999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>21.21212121212105</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>54.68999999999998</v>
@@ -7980,7 +8002,7 @@
         <v>43.59999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>31.57894736842091</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>54.83999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>44.39999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>16.27906976744194</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L153" t="n">
         <v>54.89999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>45.69999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>46.15384615384616</v>
+        <v>52.94117647058828</v>
       </c>
       <c r="L154" t="n">
         <v>55.08999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>45.79999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>47.16981132075474</v>
+        <v>54.28571428571436</v>
       </c>
       <c r="L155" t="n">
         <v>55.27999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>45.79999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>50.00000000000006</v>
+        <v>54.28571428571436</v>
       </c>
       <c r="L156" t="n">
         <v>55.46999999999998</v>
@@ -8235,7 +8257,7 @@
         <v>45.89999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>50.94339622641517</v>
+        <v>48.38709677419364</v>
       </c>
       <c r="L157" t="n">
         <v>55.66999999999998</v>
@@ -8286,7 +8308,7 @@
         <v>46.29999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>33.33333333333343</v>
+        <v>31.42857142857153</v>
       </c>
       <c r="L158" t="n">
         <v>55.77999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>46.99999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>51.85185185185188</v>
+        <v>42.8571428571429</v>
       </c>
       <c r="L159" t="n">
         <v>55.95999999999998</v>
@@ -8388,7 +8410,7 @@
         <v>47.49999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>38.98305084745763</v>
+        <v>22.72727272727277</v>
       </c>
       <c r="L160" t="n">
         <v>56.08999999999997</v>
@@ -8439,7 +8461,7 @@
         <v>47.69999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>36.84210526315795</v>
+        <v>17.07317073170741</v>
       </c>
       <c r="L161" t="n">
         <v>56.20999999999998</v>
@@ -8490,7 +8512,7 @@
         <v>48.29999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>25.80645161290326</v>
+        <v>23.07692307692305</v>
       </c>
       <c r="L162" t="n">
         <v>56.21999999999998</v>
@@ -8541,7 +8563,7 @@
         <v>48.69999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>29.23076923076924</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>56.34999999999998</v>
@@ -8592,7 +8614,7 @@
         <v>48.89999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>25.37313432835829</v>
+        <v>-9.677419354838635</v>
       </c>
       <c r="L164" t="n">
         <v>56.32999999999998</v>
@@ -8643,7 +8665,7 @@
         <v>49.09999999999998</v>
       </c>
       <c r="K165" t="n">
-        <v>26.47058823529414</v>
+        <v>-3.030303030303082</v>
       </c>
       <c r="L165" t="n">
         <v>56.31999999999998</v>
@@ -8694,7 +8716,7 @@
         <v>49.29999999999998</v>
       </c>
       <c r="K166" t="n">
-        <v>22.85714285714295</v>
+        <v>-11.76470588235295</v>
       </c>
       <c r="L166" t="n">
         <v>56.28999999999998</v>
@@ -8745,7 +8767,7 @@
         <v>49.29999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>22.85714285714295</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>56.24999999999999</v>
@@ -8796,7 +8818,7 @@
         <v>49.69999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>10.14492753623196</v>
+        <v>-40.7407407407407</v>
       </c>
       <c r="L168" t="n">
         <v>56.20999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>49.79999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>8.571428571428617</v>
+        <v>-30.4347826086956</v>
       </c>
       <c r="L169" t="n">
         <v>56.09</v>
@@ -8898,7 +8920,7 @@
         <v>49.89999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>9.859154929577532</v>
+        <v>-36.36363636363642</v>
       </c>
       <c r="L170" t="n">
         <v>56.03000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>49.89999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>5.882352941176569</v>
+        <v>-12.49999999999983</v>
       </c>
       <c r="L171" t="n">
         <v>55.95000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>49.89999999999998</v>
       </c>
       <c r="K172" t="n">
-        <v>-1.587301587301502</v>
+        <v>-50</v>
       </c>
       <c r="L172" t="n">
         <v>55.93000000000002</v>
@@ -9051,7 +9073,7 @@
         <v>50.09999999999998</v>
       </c>
       <c r="K173" t="n">
-        <v>8.771929824561422</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L173" t="n">
         <v>55.85000000000002</v>
@@ -9102,7 +9124,7 @@
         <v>50.09999999999998</v>
       </c>
       <c r="K174" t="n">
-        <v>-18.18181818181815</v>
+        <v>-79.99999999999972</v>
       </c>
       <c r="L174" t="n">
         <v>55.79000000000002</v>
@@ -9157,7 +9179,7 @@
         <v>50.09999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>-20.93023255813955</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L175" t="n">
         <v>55.71000000000002</v>
@@ -9214,7 +9236,7 @@
         <v>50.89999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>-33.33333333333333</v>
+        <v>-87.49999999999983</v>
       </c>
       <c r="L176" t="n">
         <v>55.57000000000003</v>
@@ -9273,7 +9295,7 @@
         <v>51.19999999999997</v>
       </c>
       <c r="K177" t="n">
-        <v>-28.30188679245292</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L177" t="n">
         <v>55.46000000000002</v>
@@ -9334,7 +9356,7 @@
         <v>51.49999999999997</v>
       </c>
       <c r="K178" t="n">
-        <v>-15.38461538461552</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L178" t="n">
         <v>55.42000000000002</v>
@@ -9393,7 +9415,7 @@
         <v>51.59999999999997</v>
       </c>
       <c r="K179" t="n">
-        <v>-30.43478260869571</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L179" t="n">
         <v>55.40000000000001</v>
@@ -9456,7 +9478,7 @@
         <v>51.59999999999997</v>
       </c>
       <c r="K180" t="n">
-        <v>-21.95121951219516</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L180" t="n">
         <v>55.37</v>
@@ -9519,7 +9541,7 @@
         <v>51.59999999999997</v>
       </c>
       <c r="K181" t="n">
-        <v>-28.20512820512835</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L181" t="n">
         <v>55.34</v>
@@ -9582,7 +9604,7 @@
         <v>51.59999999999997</v>
       </c>
       <c r="K182" t="n">
-        <v>-15.15151515151523</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L182" t="n">
         <v>55.30999999999999</v>
@@ -9645,7 +9667,7 @@
         <v>51.59999999999997</v>
       </c>
       <c r="K183" t="n">
-        <v>-31.03448275862081</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L183" t="n">
         <v>55.29999999999999</v>
@@ -9708,7 +9730,7 @@
         <v>51.59999999999997</v>
       </c>
       <c r="K184" t="n">
-        <v>-25.92592592592614</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L184" t="n">
         <v>55.28999999999998</v>
@@ -9771,7 +9793,7 @@
         <v>51.59999999999997</v>
       </c>
       <c r="K185" t="n">
-        <v>-36.00000000000004</v>
+        <v>100</v>
       </c>
       <c r="L185" t="n">
         <v>55.27999999999999</v>
@@ -9834,7 +9856,7 @@
         <v>51.79999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L186" t="n">
         <v>55.36999999999998</v>
@@ -9897,7 +9919,7 @@
         <v>52.09999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>-28.57142857142868</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>55.39999999999998</v>
@@ -9960,7 +9982,7 @@
         <v>52.09999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>-16.66666666666686</v>
+        <v>-20</v>
       </c>
       <c r="L188" t="n">
         <v>55.39999999999998</v>
@@ -10019,7 +10041,7 @@
         <v>52.09999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>-13.04347826086973</v>
+        <v>-20</v>
       </c>
       <c r="L189" t="n">
         <v>55.38999999999997</v>
@@ -10080,7 +10102,7 @@
         <v>52.69999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>7.14285714285698</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L190" t="n">
         <v>55.43999999999998</v>
@@ -10141,7 +10163,7 @@
         <v>52.69999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>7.14285714285698</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L191" t="n">
         <v>55.48999999999997</v>
@@ -10200,7 +10222,7 @@
         <v>52.69999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>7.14285714285698</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L192" t="n">
         <v>55.53999999999998</v>
@@ -10257,7 +10279,7 @@
         <v>52.79999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>18.5185185185185</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L193" t="n">
         <v>55.59999999999998</v>
@@ -10314,7 +10336,7 @@
         <v>52.79999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>18.5185185185185</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L194" t="n">
         <v>55.65999999999998</v>
@@ -10365,7 +10387,7 @@
         <v>53.09999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>6.666666666666761</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L195" t="n">
         <v>55.68999999999998</v>
@@ -10416,7 +10438,7 @@
         <v>53.09999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>45.4545454545454</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L196" t="n">
         <v>55.69999999999999</v>
@@ -10467,7 +10489,7 @@
         <v>53.09999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>36.84210526315793</v>
+        <v>40.00000000000057</v>
       </c>
       <c r="L197" t="n">
         <v>55.73999999999999</v>
@@ -10518,7 +10540,7 @@
         <v>53.39999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>36.84210526315793</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L198" t="n">
         <v>55.81</v>
@@ -10569,7 +10591,7 @@
         <v>53.69999999999997</v>
       </c>
       <c r="K199" t="n">
-        <v>14.28571428571448</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L199" t="n">
         <v>55.85000000000001</v>
@@ -10626,7 +10648,7 @@
         <v>53.79999999999997</v>
       </c>
       <c r="K200" t="n">
-        <v>18.18181818181815</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L200" t="n">
         <v>55.84000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>55.09999999999997</v>
       </c>
       <c r="K201" t="n">
-        <v>-25.71428571428573</v>
+        <v>-58.33333333333366</v>
       </c>
       <c r="L201" t="n">
         <v>55.70000000000001</v>
@@ -10740,7 +10762,7 @@
         <v>56.39999999999996</v>
       </c>
       <c r="K202" t="n">
-        <v>8.33333333333332</v>
+        <v>-5.555555555555665</v>
       </c>
       <c r="L202" t="n">
         <v>55.69000000000001</v>
@@ -10797,7 +10819,7 @@
         <v>56.49999999999996</v>
       </c>
       <c r="K203" t="n">
-        <v>10.20408163265308</v>
+        <v>-2.702702702702755</v>
       </c>
       <c r="L203" t="n">
         <v>55.68000000000001</v>
@@ -10854,7 +10876,7 @@
         <v>56.49999999999996</v>
       </c>
       <c r="K204" t="n">
-        <v>10.20408163265308</v>
+        <v>5.882352941176372</v>
       </c>
       <c r="L204" t="n">
         <v>55.67</v>
@@ -10911,7 +10933,7 @@
         <v>56.69999999999997</v>
       </c>
       <c r="K205" t="n">
-        <v>13.7254901960785</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L205" t="n">
         <v>55.71</v>
@@ -10968,7 +10990,7 @@
         <v>56.69999999999997</v>
       </c>
       <c r="K206" t="n">
-        <v>10.20408163265308</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L206" t="n">
         <v>55.75</v>
@@ -11025,7 +11047,7 @@
         <v>56.69999999999997</v>
       </c>
       <c r="K207" t="n">
-        <v>17.39130434782623</v>
+        <v>3.030303030303082</v>
       </c>
       <c r="L207" t="n">
         <v>55.79</v>
@@ -11082,7 +11104,7 @@
         <v>56.69999999999997</v>
       </c>
       <c r="K208" t="n">
-        <v>17.39130434782623</v>
+        <v>13.33333333333332</v>
       </c>
       <c r="L208" t="n">
         <v>55.8</v>
@@ -11139,7 +11161,7 @@
         <v>56.69999999999997</v>
       </c>
       <c r="K209" t="n">
-        <v>17.39130434782623</v>
+        <v>10.34482758620705</v>
       </c>
       <c r="L209" t="n">
         <v>55.84</v>
@@ -11196,7 +11218,7 @@
         <v>56.99999999999996</v>
       </c>
       <c r="K210" t="n">
-        <v>11.62790697674423</v>
+        <v>100</v>
       </c>
       <c r="L210" t="n">
         <v>55.9</v>
@@ -11253,7 +11275,7 @@
         <v>57.49999999999996</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L211" t="n">
         <v>56.04</v>
@@ -11310,7 +11332,7 @@
         <v>58.09999999999997</v>
       </c>
       <c r="K212" t="n">
-        <v>11.11111111111117</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L212" t="n">
         <v>56.11</v>
@@ -11367,7 +11389,7 @@
         <v>58.29999999999997</v>
       </c>
       <c r="K213" t="n">
-        <v>12.72727272727281</v>
+        <v>44.44444444444458</v>
       </c>
       <c r="L213" t="n">
         <v>56.19000000000001</v>
@@ -11424,7 +11446,7 @@
         <v>58.59999999999997</v>
       </c>
       <c r="K214" t="n">
-        <v>17.24137931034488</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L214" t="n">
         <v>56.30000000000001</v>
@@ -11481,7 +11503,7 @@
         <v>58.79999999999997</v>
       </c>
       <c r="K215" t="n">
-        <v>19.29824561403503</v>
+        <v>33.33333333333311</v>
       </c>
       <c r="L215" t="n">
         <v>56.37</v>
@@ -11538,7 +11560,7 @@
         <v>58.99999999999997</v>
       </c>
       <c r="K216" t="n">
-        <v>22.03389830508473</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L216" t="n">
         <v>56.46</v>
@@ -11595,7 +11617,7 @@
         <v>58.99999999999997</v>
       </c>
       <c r="K217" t="n">
-        <v>22.03389830508473</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L217" t="n">
         <v>56.55</v>
@@ -11652,7 +11674,7 @@
         <v>58.99999999999997</v>
       </c>
       <c r="K218" t="n">
-        <v>17.85714285714288</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L218" t="n">
         <v>56.64</v>
@@ -11703,7 +11725,7 @@
         <v>58.99999999999997</v>
       </c>
       <c r="K219" t="n">
-        <v>24.52830188679241</v>
+        <v>29.99999999999996</v>
       </c>
       <c r="L219" t="n">
         <v>56.73</v>
@@ -11754,7 +11776,7 @@
         <v>59.19999999999997</v>
       </c>
       <c r="K220" t="n">
-        <v>25.925925925926</v>
+        <v>76.47058823529392</v>
       </c>
       <c r="L220" t="n">
         <v>56.81</v>
@@ -11805,7 +11827,7 @@
         <v>59.19999999999997</v>
       </c>
       <c r="K221" t="n">
-        <v>65.8536585365853</v>
+        <v>63.6363636363634</v>
       </c>
       <c r="L221" t="n">
         <v>56.94000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>59.19999999999997</v>
       </c>
       <c r="K222" t="n">
-        <v>50</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L222" t="n">
         <v>57.01000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>59.49999999999997</v>
       </c>
       <c r="K223" t="n">
-        <v>53.33333333333326</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L223" t="n">
         <v>57.09000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>59.99999999999997</v>
       </c>
       <c r="K224" t="n">
-        <v>59.99999999999992</v>
+        <v>100</v>
       </c>
       <c r="L224" t="n">
         <v>57.19000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>59.99999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>57.57575757575746</v>
+        <v>100</v>
       </c>
       <c r="L225" t="n">
         <v>57.31000000000002</v>
@@ -12060,7 +12082,7 @@
         <v>59.99999999999997</v>
       </c>
       <c r="K226" t="n">
-        <v>57.57575757575746</v>
+        <v>100</v>
       </c>
       <c r="L226" t="n">
         <v>57.41000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>60.29999999999997</v>
       </c>
       <c r="K227" t="n">
-        <v>44.44444444444446</v>
+        <v>53.84615384615419</v>
       </c>
       <c r="L227" t="n">
         <v>57.48000000000002</v>
@@ -12162,7 +12184,7 @@
         <v>60.69999999999997</v>
       </c>
       <c r="K228" t="n">
-        <v>29.99999999999984</v>
+        <v>17.64705882352921</v>
       </c>
       <c r="L228" t="n">
         <v>57.51000000000001</v>
@@ -12213,7 +12235,7 @@
         <v>60.69999999999997</v>
       </c>
       <c r="K229" t="n">
-        <v>29.99999999999984</v>
+        <v>6.666666666666288</v>
       </c>
       <c r="L229" t="n">
         <v>57.54000000000001</v>
@@ -12264,7 +12286,7 @@
         <v>61.59999999999997</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L230" t="n">
         <v>57.46</v>
@@ -12315,7 +12337,7 @@
         <v>61.79999999999997</v>
       </c>
       <c r="K231" t="n">
-        <v>6.976744186046605</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L231" t="n">
         <v>57.36</v>
@@ -12366,7 +12388,7 @@
         <v>61.89999999999996</v>
       </c>
       <c r="K232" t="n">
-        <v>-5.263157894736921</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L232" t="n">
         <v>57.27</v>
@@ -12417,7 +12439,7 @@
         <v>61.99999999999996</v>
       </c>
       <c r="K233" t="n">
-        <v>-13.51351351351356</v>
+        <v>-90.0000000000005</v>
       </c>
       <c r="L233" t="n">
         <v>57.14</v>
@@ -12468,7 +12490,7 @@
         <v>62.19999999999996</v>
       </c>
       <c r="K234" t="n">
-        <v>-27.77777777777782</v>
+        <v>-90.90909090909139</v>
       </c>
       <c r="L234" t="n">
         <v>56.94</v>
@@ -12519,7 +12541,7 @@
         <v>62.19999999999996</v>
       </c>
       <c r="K235" t="n">
-        <v>-23.52941176470586</v>
+        <v>-90.90909090909139</v>
       </c>
       <c r="L235" t="n">
         <v>56.73999999999999</v>
@@ -12570,7 +12592,7 @@
         <v>62.19999999999996</v>
       </c>
       <c r="K236" t="n">
-        <v>-31.25000000000011</v>
+        <v>-89.47368421052687</v>
       </c>
       <c r="L236" t="n">
         <v>56.54</v>
@@ -12621,7 +12643,7 @@
         <v>62.89999999999996</v>
       </c>
       <c r="K237" t="n">
-        <v>-43.58974358974375</v>
+        <v>-90.90909090909139</v>
       </c>
       <c r="L237" t="n">
         <v>56.29999999999999</v>
@@ -12672,7 +12694,7 @@
         <v>63.29999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>-30.23255813953484</v>
+        <v>-61.53846153846145</v>
       </c>
       <c r="L238" t="n">
         <v>56.14</v>
@@ -12723,7 +12745,7 @@
         <v>63.89999999999996</v>
       </c>
       <c r="K239" t="n">
-        <v>-14.28571428571437</v>
+        <v>-4.347826086956602</v>
       </c>
       <c r="L239" t="n">
         <v>56.04</v>
@@ -12774,7 +12796,7 @@
         <v>64.19999999999996</v>
       </c>
       <c r="K240" t="n">
-        <v>-24.00000000000012</v>
+        <v>-8.333333333333481</v>
       </c>
       <c r="L240" t="n">
         <v>56</v>
@@ -12825,7 +12847,7 @@
         <v>64.29999999999995</v>
       </c>
       <c r="K241" t="n">
-        <v>-25.49019607843156</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L241" t="n">
         <v>55.96999999999999</v>
@@ -12876,7 +12898,7 @@
         <v>64.49999999999996</v>
       </c>
       <c r="K242" t="n">
-        <v>-20.75471698113217</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="L242" t="n">
         <v>55.95</v>
@@ -12927,7 +12949,7 @@
         <v>64.49999999999996</v>
       </c>
       <c r="K243" t="n">
-        <v>-28.00000000000005</v>
+        <v>4.347826086956589</v>
       </c>
       <c r="L243" t="n">
         <v>55.94</v>
@@ -12978,7 +13000,7 @@
         <v>64.59999999999997</v>
       </c>
       <c r="K244" t="n">
-        <v>-43.47826086956527</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>55.94</v>
@@ -13029,7 +13051,7 @@
         <v>64.99999999999997</v>
       </c>
       <c r="K245" t="n">
-        <v>-47.99999999999997</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L245" t="n">
         <v>55.9</v>
@@ -13080,7 +13102,7 @@
         <v>64.99999999999997</v>
       </c>
       <c r="K246" t="n">
-        <v>-47.99999999999997</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L246" t="n">
         <v>55.86</v>
@@ -13131,7 +13153,7 @@
         <v>65.09999999999997</v>
       </c>
       <c r="K247" t="n">
-        <v>-45.83333333333342</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L247" t="n">
         <v>55.88000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>65.19999999999996</v>
       </c>
       <c r="K248" t="n">
-        <v>-37.77777777777781</v>
+        <v>-53.84615384615363</v>
       </c>
       <c r="L248" t="n">
         <v>55.87</v>
@@ -13233,7 +13255,7 @@
         <v>65.39999999999996</v>
       </c>
       <c r="K249" t="n">
-        <v>-40.42553191489369</v>
+        <v>-50</v>
       </c>
       <c r="L249" t="n">
         <v>55.78000000000001</v>
@@ -13284,7 +13306,7 @@
         <v>65.79999999999995</v>
       </c>
       <c r="K250" t="n">
-        <v>-14.28571428571438</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L250" t="n">
         <v>55.76000000000001</v>
@@ -13335,7 +13357,7 @@
         <v>65.79999999999995</v>
       </c>
       <c r="K251" t="n">
-        <v>-10.00000000000018</v>
+        <v>-23.07692307692346</v>
       </c>
       <c r="L251" t="n">
         <v>55.75</v>
@@ -13386,7 +13408,7 @@
         <v>65.79999999999995</v>
       </c>
       <c r="K252" t="n">
-        <v>-12.82051282051285</v>
+        <v>-23.07692307692346</v>
       </c>
       <c r="L252" t="n">
         <v>55.71999999999999</v>
@@ -13437,7 +13459,7 @@
         <v>66.09999999999997</v>
       </c>
       <c r="K253" t="n">
-        <v>-2.439024390243932</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L253" t="n">
         <v>55.71999999999999</v>
@@ -13488,7 +13510,7 @@
         <v>66.89999999999998</v>
       </c>
       <c r="K254" t="n">
-        <v>-14.8936170212766</v>
+        <v>-15.7894736842107</v>
       </c>
       <c r="L254" t="n">
         <v>55.64999999999999</v>
@@ -13539,7 +13561,7 @@
         <v>67.29999999999998</v>
       </c>
       <c r="K255" t="n">
-        <v>-5.882352941176388</v>
+        <v>4.347826086956561</v>
       </c>
       <c r="L255" t="n">
         <v>55.65999999999999</v>
@@ -13590,7 +13612,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="K256" t="n">
-        <v>-11.11111111111107</v>
+        <v>-4.000000000000012</v>
       </c>
       <c r="L256" t="n">
         <v>55.63999999999999</v>
@@ -13641,7 +13663,7 @@
         <v>67.69999999999999</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-12.00000000000003</v>
       </c>
       <c r="L257" t="n">
         <v>55.61999999999998</v>
@@ -13692,7 +13714,7 @@
         <v>67.79999999999998</v>
       </c>
       <c r="K258" t="n">
-        <v>-6.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>55.59999999999998</v>
@@ -13743,7 +13765,7 @@
         <v>68.09999999999998</v>
       </c>
       <c r="K259" t="n">
-        <v>-28.57142857142835</v>
+        <v>-30.43478260869513</v>
       </c>
       <c r="L259" t="n">
         <v>55.56999999999998</v>
@@ -13794,7 +13816,7 @@
         <v>68.69999999999999</v>
       </c>
       <c r="K260" t="n">
-        <v>-6.666666666666561</v>
+        <v>-3.448275862068729</v>
       </c>
       <c r="L260" t="n">
         <v>55.55999999999999</v>
@@ -13845,7 +13867,7 @@
         <v>68.69999999999999</v>
       </c>
       <c r="K261" t="n">
-        <v>-4.545454545454413</v>
+        <v>-3.448275862068729</v>
       </c>
       <c r="L261" t="n">
         <v>55.55</v>
@@ -13896,7 +13918,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="K262" t="n">
-        <v>-17.39130434782604</v>
+        <v>-26.66666666666655</v>
       </c>
       <c r="L262" t="n">
         <v>55.5</v>
@@ -13947,7 +13969,7 @@
         <v>69.29999999999998</v>
       </c>
       <c r="K263" t="n">
-        <v>-20.83333333333322</v>
+        <v>-8.333333333333135</v>
       </c>
       <c r="L263" t="n">
         <v>55.4</v>
@@ -13998,7 +14020,7 @@
         <v>69.49999999999997</v>
       </c>
       <c r="K264" t="n">
-        <v>-14.28571428571433</v>
+        <v>-18.18181818181854</v>
       </c>
       <c r="L264" t="n">
         <v>55.4</v>
@@ -14049,7 +14071,7 @@
         <v>69.69999999999996</v>
       </c>
       <c r="K265" t="n">
-        <v>-10.63829787234045</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L265" t="n">
         <v>55.34</v>
@@ -14100,7 +14122,7 @@
         <v>69.79999999999995</v>
       </c>
       <c r="K266" t="n">
-        <v>-12.50000000000007</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L266" t="n">
         <v>55.3</v>
@@ -14151,7 +14173,7 @@
         <v>70.09999999999995</v>
       </c>
       <c r="K267" t="n">
-        <v>-4.000000000000068</v>
+        <v>-4.347826086956642</v>
       </c>
       <c r="L267" t="n">
         <v>55.3</v>
@@ -14202,7 +14224,7 @@
         <v>70.09999999999995</v>
       </c>
       <c r="K268" t="n">
-        <v>-6.122448979591934</v>
+        <v>9.999999999999929</v>
       </c>
       <c r="L268" t="n">
         <v>55.29</v>
@@ -14253,7 +14275,7 @@
         <v>70.29999999999995</v>
       </c>
       <c r="K269" t="n">
-        <v>-6.122448979591789</v>
+        <v>-37.50000000000089</v>
       </c>
       <c r="L269" t="n">
         <v>55.29</v>
@@ -14304,7 +14326,7 @@
         <v>70.59999999999997</v>
       </c>
       <c r="K270" t="n">
-        <v>-20.83333333333329</v>
+        <v>-47.36842105263244</v>
       </c>
       <c r="L270" t="n">
         <v>55.19999999999999</v>
@@ -14355,7 +14377,7 @@
         <v>70.59999999999997</v>
       </c>
       <c r="K271" t="n">
-        <v>-20.83333333333329</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L271" t="n">
         <v>55.10999999999998</v>
@@ -14406,7 +14428,7 @@
         <v>70.69999999999996</v>
       </c>
       <c r="K272" t="n">
-        <v>-22.44897959183659</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L272" t="n">
         <v>55.04999999999999</v>
@@ -14457,7 +14479,7 @@
         <v>70.69999999999996</v>
       </c>
       <c r="K273" t="n">
-        <v>-30.43478260869566</v>
+        <v>-50</v>
       </c>
       <c r="L273" t="n">
         <v>55.00999999999999</v>
@@ -14508,7 +14530,7 @@
         <v>70.89999999999996</v>
       </c>
       <c r="K274" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L274" t="n">
         <v>54.92999999999999</v>
@@ -14559,7 +14581,7 @@
         <v>71.19999999999996</v>
       </c>
       <c r="K275" t="n">
-        <v>-23.07692307692336</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L275" t="n">
         <v>54.89999999999999</v>
@@ -14610,7 +14632,7 @@
         <v>71.49999999999996</v>
       </c>
       <c r="K276" t="n">
-        <v>-23.07692307692326</v>
+        <v>-57.14285714285671</v>
       </c>
       <c r="L276" t="n">
         <v>54.84999999999999</v>
@@ -14661,7 +14683,7 @@
         <v>71.59999999999997</v>
       </c>
       <c r="K277" t="n">
-        <v>-23.07692307692318</v>
+        <v>-59.99999999999933</v>
       </c>
       <c r="L277" t="n">
         <v>54.75999999999999</v>
@@ -14712,7 +14734,7 @@
         <v>71.59999999999997</v>
       </c>
       <c r="K278" t="n">
-        <v>-26.31578947368433</v>
+        <v>-53.8461538461536</v>
       </c>
       <c r="L278" t="n">
         <v>54.66999999999999</v>
@@ -14763,7 +14785,7 @@
         <v>71.99999999999997</v>
       </c>
       <c r="K279" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>54.63999999999999</v>
@@ -14814,7 +14836,7 @@
         <v>72.39999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>-13.51351351351356</v>
+        <v>22.2222222222224</v>
       </c>
       <c r="L280" t="n">
         <v>54.67999999999999</v>
@@ -14865,7 +14887,7 @@
         <v>72.49999999999997</v>
       </c>
       <c r="K281" t="n">
-        <v>-10.52631578947388</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L281" t="n">
         <v>54.73</v>
@@ -14916,7 +14938,7 @@
         <v>72.69999999999997</v>
       </c>
       <c r="K282" t="n">
-        <v>5.555555555555665</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L282" t="n">
         <v>54.80999999999999</v>
@@ -14967,7 +14989,7 @@
         <v>72.89999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>16.66666666666673</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L283" t="n">
         <v>54.90999999999999</v>
@@ -15018,7 +15040,7 @@
         <v>73.09999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>5.555555555555621</v>
+        <v>36.84210526315766</v>
       </c>
       <c r="L284" t="n">
         <v>55.00999999999999</v>
@@ -15069,7 +15091,7 @@
         <v>73.19999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>8.57142857142842</v>
+        <v>52.94117647058718</v>
       </c>
       <c r="L285" t="n">
         <v>55.06999999999999</v>
@@ -15120,7 +15142,7 @@
         <v>73.19999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>11.76470588235278</v>
+        <v>62.49999999999911</v>
       </c>
       <c r="L286" t="n">
         <v>55.15999999999999</v>
@@ -15171,7 +15193,7 @@
         <v>73.19999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>3.225806451612911</v>
+        <v>62.49999999999911</v>
       </c>
       <c r="L287" t="n">
         <v>55.25999999999999</v>
@@ -15222,7 +15244,7 @@
         <v>73.39999999999998</v>
       </c>
       <c r="K288" t="n">
-        <v>-3.030303030302835</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L288" t="n">
         <v>55.34</v>
@@ -15273,7 +15295,7 @@
         <v>73.49999999999997</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L289" t="n">
         <v>55.37</v>
@@ -15324,7 +15346,7 @@
         <v>73.49999999999997</v>
       </c>
       <c r="K290" t="n">
-        <v>10.34482758620702</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L290" t="n">
         <v>55.36</v>
@@ -15375,7 +15397,7 @@
         <v>73.79999999999998</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L291" t="n">
         <v>55.31</v>
@@ -15426,7 +15448,7 @@
         <v>73.99999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>9.090909090908934</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L292" t="n">
         <v>55.26000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>73.99999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>9.090909090908934</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L293" t="n">
         <v>55.19</v>
@@ -15528,7 +15550,7 @@
         <v>74.19999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>21.21212121212114</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L294" t="n">
         <v>55.16</v>
@@ -15579,7 +15601,7 @@
         <v>74.29999999999998</v>
       </c>
       <c r="K295" t="n">
-        <v>9.677419354838776</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L295" t="n">
         <v>55.13000000000001</v>
@@ -15630,7 +15652,7 @@
         <v>74.39999999999998</v>
       </c>
       <c r="K296" t="n">
-        <v>24.13793103448269</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L296" t="n">
         <v>55.11000000000001</v>
@@ -15681,7 +15703,7 @@
         <v>74.39999999999998</v>
       </c>
       <c r="K297" t="n">
-        <v>28.57142857142861</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>55.09000000000002</v>
@@ -15732,7 +15754,7 @@
         <v>74.49999999999997</v>
       </c>
       <c r="K298" t="n">
-        <v>31.03448275862058</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L298" t="n">
         <v>55.10000000000001</v>
@@ -15783,7 +15805,7 @@
         <v>74.49999999999997</v>
       </c>
       <c r="K299" t="n">
-        <v>20</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L299" t="n">
         <v>55.12</v>
@@ -15834,7 +15856,7 @@
         <v>75.09999999999997</v>
       </c>
       <c r="K300" t="n">
-        <v>25.92592592592587</v>
+        <v>84.61538461538584</v>
       </c>
       <c r="L300" t="n">
         <v>55.2</v>
@@ -15885,7 +15907,7 @@
         <v>75.19999999999996</v>
       </c>
       <c r="K301" t="n">
-        <v>25.92592592592614</v>
+        <v>83.33333333333512</v>
       </c>
       <c r="L301" t="n">
         <v>55.32000000000001</v>
@@ -15936,7 +15958,7 @@
         <v>75.19999999999996</v>
       </c>
       <c r="K302" t="n">
-        <v>20.00000000000011</v>
+        <v>83.33333333333512</v>
       </c>
       <c r="L302" t="n">
         <v>55.42</v>
@@ -15987,7 +16009,7 @@
         <v>75.49999999999996</v>
       </c>
       <c r="K303" t="n">
-        <v>23.07692307692303</v>
+        <v>84.61538461538622</v>
       </c>
       <c r="L303" t="n">
         <v>55.55</v>
@@ -16038,7 +16060,7 @@
         <v>75.79999999999995</v>
       </c>
       <c r="K304" t="n">
-        <v>18.5185185185187</v>
+        <v>60.00000000000104</v>
       </c>
       <c r="L304" t="n">
         <v>55.63</v>
@@ -16089,7 +16111,7 @@
         <v>75.79999999999995</v>
       </c>
       <c r="K305" t="n">
-        <v>23.07692307692343</v>
+        <v>57.14285714285787</v>
       </c>
       <c r="L305" t="n">
         <v>55.71999999999999</v>
@@ -16140,7 +16162,7 @@
         <v>75.79999999999995</v>
       </c>
       <c r="K306" t="n">
-        <v>23.07692307692343</v>
+        <v>57.14285714285787</v>
       </c>
       <c r="L306" t="n">
         <v>55.79999999999999</v>
@@ -16191,7 +16213,7 @@
         <v>75.89999999999995</v>
       </c>
       <c r="K307" t="n">
-        <v>25.92592592592641</v>
+        <v>57.14285714285838</v>
       </c>
       <c r="L307" t="n">
         <v>55.88999999999999</v>
@@ -16242,7 +16264,7 @@
         <v>76.09999999999994</v>
       </c>
       <c r="K308" t="n">
-        <v>40.74074074074113</v>
+        <v>62.50000000000134</v>
       </c>
       <c r="L308" t="n">
         <v>55.98999999999999</v>
@@ -16293,7 +16315,7 @@
         <v>76.29999999999993</v>
       </c>
       <c r="K309" t="n">
-        <v>35.71428571428629</v>
+        <v>16.66666666666746</v>
       </c>
       <c r="L309" t="n">
         <v>56.06999999999999</v>
@@ -16344,7 +16366,7 @@
         <v>76.69999999999993</v>
       </c>
       <c r="K310" t="n">
-        <v>18.75000000000028</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L310" t="n">
         <v>56.05</v>
@@ -16395,7 +16417,7 @@
         <v>76.99999999999993</v>
       </c>
       <c r="K311" t="n">
-        <v>37.50000000000072</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>56.05</v>
@@ -16446,7 +16468,7 @@
         <v>76.99999999999993</v>
       </c>
       <c r="K312" t="n">
-        <v>33.33333333333396</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L312" t="n">
         <v>56.05</v>
@@ -16497,7 +16519,7 @@
         <v>76.99999999999993</v>
       </c>
       <c r="K313" t="n">
-        <v>33.33333333333396</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>56.02</v>
@@ -16548,7 +16570,7 @@
         <v>77.39999999999992</v>
       </c>
       <c r="K314" t="n">
-        <v>37.50000000000067</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L314" t="n">
         <v>56.06</v>
@@ -16599,7 +16621,7 @@
         <v>78.19999999999992</v>
       </c>
       <c r="K315" t="n">
-        <v>12.82051282051304</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L315" t="n">
         <v>56.02</v>
@@ -16650,7 +16672,7 @@
         <v>78.19999999999992</v>
       </c>
       <c r="K316" t="n">
-        <v>10.52631578947381</v>
+        <v>-21.7391304347829</v>
       </c>
       <c r="L316" t="n">
         <v>55.98</v>
@@ -16701,7 +16723,7 @@
         <v>78.29999999999993</v>
       </c>
       <c r="K317" t="n">
-        <v>12.82051282051299</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L317" t="n">
         <v>55.94000000000001</v>
@@ -16752,7 +16774,7 @@
         <v>78.39999999999992</v>
       </c>
       <c r="K318" t="n">
-        <v>12.82051282051299</v>
+        <v>-14.28571428571453</v>
       </c>
       <c r="L318" t="n">
         <v>55.89000000000001</v>
@@ -16803,7 +16825,7 @@
         <v>78.39999999999992</v>
       </c>
       <c r="K319" t="n">
-        <v>12.82051282051299</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L319" t="n">
         <v>55.86</v>
@@ -16854,7 +16876,7 @@
         <v>78.39999999999992</v>
       </c>
       <c r="K320" t="n">
-        <v>-3.030303030303115</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L320" t="n">
         <v>55.86999999999999</v>
@@ -16905,7 +16927,7 @@
         <v>78.79999999999993</v>
       </c>
       <c r="K321" t="n">
-        <v>5.555555555555687</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L321" t="n">
         <v>55.89</v>
@@ -16956,7 +16978,7 @@
         <v>79.29999999999993</v>
       </c>
       <c r="K322" t="n">
-        <v>-7.317073170731699</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L322" t="n">
         <v>55.86</v>
@@ -17007,7 +17029,7 @@
         <v>79.29999999999993</v>
       </c>
       <c r="K323" t="n">
-        <v>-15.78947368421051</v>
+        <v>-36.84210526315756</v>
       </c>
       <c r="L323" t="n">
         <v>55.83000000000001</v>
@@ -17058,7 +17080,7 @@
         <v>79.29999999999993</v>
       </c>
       <c r="K324" t="n">
-        <v>-8.571428571428561</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L324" t="n">
         <v>55.76000000000001</v>
@@ -17109,7 +17131,7 @@
         <v>79.29999999999993</v>
       </c>
       <c r="K325" t="n">
-        <v>-8.571428571428561</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L325" t="n">
         <v>55.77000000000002</v>
@@ -17160,7 +17182,7 @@
         <v>79.39999999999992</v>
       </c>
       <c r="K326" t="n">
-        <v>-5.555555555555687</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L326" t="n">
         <v>55.79000000000001</v>
@@ -17211,7 +17233,7 @@
         <v>79.39999999999992</v>
       </c>
       <c r="K327" t="n">
-        <v>-8.571428571428763</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>55.8</v>
@@ -17262,7 +17284,7 @@
         <v>79.89999999999992</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>55.85</v>
@@ -17313,7 +17335,7 @@
         <v>80.49999999999991</v>
       </c>
       <c r="K329" t="n">
-        <v>-9.523809523809517</v>
+        <v>-4.761904761904504</v>
       </c>
       <c r="L329" t="n">
         <v>55.84000000000001</v>
@@ -17364,7 +17386,7 @@
         <v>80.59999999999991</v>
       </c>
       <c r="K330" t="n">
-        <v>-2.564102564102615</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L330" t="n">
         <v>55.82000000000001</v>
@@ -17415,7 +17437,7 @@
         <v>80.6999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>-8.108108108108087</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>55.77000000000002</v>
@@ -17466,7 +17488,7 @@
         <v>80.6999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>-8.108108108108087</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>55.77000000000002</v>
@@ -17517,7 +17539,7 @@
         <v>80.7999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>-10.52631578947373</v>
+        <v>-6.666666666666887</v>
       </c>
       <c r="L333" t="n">
         <v>55.76000000000001</v>
@@ -17568,7 +17590,7 @@
         <v>81.09999999999991</v>
       </c>
       <c r="K334" t="n">
-        <v>-29.72972972972986</v>
+        <v>-22.22222222222275</v>
       </c>
       <c r="L334" t="n">
         <v>55.72000000000001</v>
@@ -17619,7 +17641,7 @@
         <v>81.29999999999991</v>
       </c>
       <c r="K335" t="n">
-        <v>-3.225806451612955</v>
+        <v>-15.78947368421045</v>
       </c>
       <c r="L335" t="n">
         <v>55.7</v>
@@ -17670,7 +17692,7 @@
         <v>81.39999999999992</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>-9.999999999999787</v>
       </c>
       <c r="L336" t="n">
         <v>55.68000000000001</v>
@@ -17721,7 +17743,7 @@
         <v>81.39999999999992</v>
       </c>
       <c r="K337" t="n">
-        <v>-3.225806451612955</v>
+        <v>-46.66666666666639</v>
       </c>
       <c r="L337" t="n">
         <v>55.66000000000001</v>
@@ -17772,7 +17794,7 @@
         <v>81.79999999999993</v>
       </c>
       <c r="K338" t="n">
-        <v>5.882352941176544</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L338" t="n">
         <v>55.63000000000002</v>
@@ -17823,7 +17845,7 @@
         <v>81.79999999999993</v>
       </c>
       <c r="K339" t="n">
-        <v>5.882352941176544</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L339" t="n">
         <v>55.66000000000001</v>
@@ -17874,7 +17896,7 @@
         <v>81.89999999999992</v>
       </c>
       <c r="K340" t="n">
-        <v>2.857142857142898</v>
+        <v>16.66666666666607</v>
       </c>
       <c r="L340" t="n">
         <v>55.69000000000001</v>
@@ -17925,7 +17947,7 @@
         <v>81.99999999999991</v>
       </c>
       <c r="K341" t="n">
-        <v>-6.250000000000111</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L341" t="n">
         <v>55.72000000000001</v>
@@ -17976,7 +17998,7 @@
         <v>81.99999999999991</v>
       </c>
       <c r="K342" t="n">
-        <v>11.11111111111105</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L342" t="n">
         <v>55.75</v>
@@ -18027,7 +18049,7 @@
         <v>82.09999999999991</v>
       </c>
       <c r="K343" t="n">
-        <v>7.142857142857034</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L343" t="n">
         <v>55.77999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>82.59999999999991</v>
       </c>
       <c r="K344" t="n">
-        <v>21.21212121212119</v>
+        <v>69.23076923076927</v>
       </c>
       <c r="L344" t="n">
         <v>55.89</v>
@@ -18129,7 +18151,7 @@
         <v>82.59999999999991</v>
       </c>
       <c r="K345" t="n">
-        <v>21.21212121212119</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L345" t="n">
         <v>55.98</v>
@@ -18180,7 +18202,7 @@
         <v>82.59999999999991</v>
       </c>
       <c r="K346" t="n">
-        <v>18.75000000000011</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L346" t="n">
         <v>56.05999999999999</v>
@@ -18231,7 +18253,7 @@
         <v>82.89999999999992</v>
       </c>
       <c r="K347" t="n">
-        <v>25.71428571428588</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L347" t="n">
         <v>56.16999999999999</v>
@@ -18282,7 +18304,7 @@
         <v>82.99999999999991</v>
       </c>
       <c r="K348" t="n">
-        <v>16.12903225806455</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L348" t="n">
         <v>56.24999999999999</v>
@@ -18333,7 +18355,7 @@
         <v>82.99999999999991</v>
       </c>
       <c r="K349" t="n">
-        <v>43.99999999999977</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L349" t="n">
         <v>56.32999999999998</v>
@@ -18384,7 +18406,7 @@
         <v>83.1999999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>38.46153846153855</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L350" t="n">
         <v>56.39999999999999</v>
@@ -18435,7 +18457,7 @@
         <v>83.1999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>35.99999999999994</v>
+        <v>50.00000000000059</v>
       </c>
       <c r="L351" t="n">
         <v>56.45999999999999</v>
@@ -18486,7 +18508,7 @@
         <v>83.2999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>38.46153846153855</v>
+        <v>66.66666666666765</v>
       </c>
       <c r="L352" t="n">
         <v>56.52999999999999</v>
@@ -18537,7 +18559,7 @@
         <v>83.39999999999989</v>
       </c>
       <c r="K353" t="n">
-        <v>38.46153846153855</v>
+        <v>25.00000000000089</v>
       </c>
       <c r="L353" t="n">
         <v>56.6</v>
@@ -18588,7 +18610,7 @@
         <v>83.6999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>38.46153846153855</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L354" t="n">
         <v>56.59</v>
@@ -18639,7 +18661,7 @@
         <v>84.1999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>44.82758620689658</v>
+        <v>25</v>
       </c>
       <c r="L355" t="n">
         <v>56.63</v>
@@ -18690,7 +18712,7 @@
         <v>84.59999999999991</v>
       </c>
       <c r="K356" t="n">
-        <v>25</v>
+        <v>-17.64705882352978</v>
       </c>
       <c r="L356" t="n">
         <v>56.63</v>
@@ -18741,7 +18763,7 @@
         <v>84.59999999999991</v>
       </c>
       <c r="K357" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="L357" t="n">
         <v>56.59999999999999</v>
@@ -18792,7 +18814,7 @@
         <v>84.89999999999992</v>
       </c>
       <c r="K358" t="n">
-        <v>22.58064516129046</v>
+        <v>-5.263157894736527</v>
       </c>
       <c r="L358" t="n">
         <v>56.59</v>
@@ -18843,7 +18865,7 @@
         <v>84.89999999999992</v>
       </c>
       <c r="K359" t="n">
-        <v>22.58064516129046</v>
+        <v>5.882352941176496</v>
       </c>
       <c r="L359" t="n">
         <v>56.58000000000001</v>
@@ -18894,7 +18916,7 @@
         <v>84.99999999999991</v>
       </c>
       <c r="K360" t="n">
-        <v>29.03225806451614</v>
+        <v>11.1111111111108</v>
       </c>
       <c r="L360" t="n">
         <v>56.6</v>
@@ -18945,7 +18967,7 @@
         <v>85.6999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>2.702702702702749</v>
+        <v>-25</v>
       </c>
       <c r="L361" t="n">
         <v>56.55</v>
@@ -18996,7 +19018,7 @@
         <v>85.99999999999991</v>
       </c>
       <c r="K362" t="n">
-        <v>-5.000000000000071</v>
+        <v>-30.76923076923067</v>
       </c>
       <c r="L362" t="n">
         <v>56.45999999999999</v>
@@ -19047,7 +19069,7 @@
         <v>85.99999999999991</v>
       </c>
       <c r="K363" t="n">
-        <v>-2.564102564102597</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L363" t="n">
         <v>56.37999999999998</v>
@@ -19098,7 +19120,7 @@
         <v>86.1999999999999</v>
       </c>
       <c r="K364" t="n">
-        <v>-22.22222222222218</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L364" t="n">
         <v>56.30999999999999</v>
@@ -19149,7 +19171,7 @@
         <v>86.2999999999999</v>
       </c>
       <c r="K365" t="n">
-        <v>-18.91891891891886</v>
+        <v>-41.17647058823532</v>
       </c>
       <c r="L365" t="n">
         <v>56.2</v>
@@ -19200,7 +19222,7 @@
         <v>86.6999999999999</v>
       </c>
       <c r="K366" t="n">
-        <v>-26.829268292683</v>
+        <v>-52.38095238095259</v>
       </c>
       <c r="L366" t="n">
         <v>56.09</v>
@@ -19251,7 +19273,7 @@
         <v>86.6999999999999</v>
       </c>
       <c r="K367" t="n">
-        <v>-36.84210526315821</v>
+        <v>-77.77777777777884</v>
       </c>
       <c r="L367" t="n">
         <v>55.98</v>
@@ -19302,7 +19324,7 @@
         <v>86.99999999999991</v>
       </c>
       <c r="K368" t="n">
-        <v>-29.99999999999989</v>
+        <v>-52.38095238095259</v>
       </c>
       <c r="L368" t="n">
         <v>55.86999999999999</v>
@@ -19353,7 +19375,7 @@
         <v>87.09999999999991</v>
       </c>
       <c r="K369" t="n">
-        <v>-31.7073170731707</v>
+        <v>-61.90476190476194</v>
       </c>
       <c r="L369" t="n">
         <v>55.74999999999999</v>
@@ -19404,7 +19426,7 @@
         <v>87.59999999999991</v>
       </c>
       <c r="K370" t="n">
-        <v>-36.36363636363635</v>
+        <v>-57.89473684210517</v>
       </c>
       <c r="L370" t="n">
         <v>55.56999999999999</v>
@@ -19455,7 +19477,7 @@
         <v>88.09999999999991</v>
       </c>
       <c r="K371" t="n">
-        <v>-22.44897959183674</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L371" t="n">
         <v>55.50999999999999</v>
@@ -19506,7 +19528,7 @@
         <v>88.09999999999991</v>
       </c>
       <c r="K372" t="n">
-        <v>-25</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L372" t="n">
         <v>55.48</v>
@@ -19557,7 +19579,7 @@
         <v>88.09999999999991</v>
       </c>
       <c r="K373" t="n">
-        <v>-23.40425531914888</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L373" t="n">
         <v>55.45</v>
@@ -19608,7 +19630,7 @@
         <v>88.29999999999991</v>
       </c>
       <c r="K374" t="n">
-        <v>-13.04347826086942</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>55.46</v>
@@ -19659,7 +19681,7 @@
         <v>88.49999999999991</v>
       </c>
       <c r="K375" t="n">
-        <v>-30.23255813953474</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L375" t="n">
         <v>55.44</v>
@@ -19710,7 +19732,7 @@
         <v>88.49999999999991</v>
       </c>
       <c r="K376" t="n">
-        <v>-23.07692307692301</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L376" t="n">
         <v>55.46</v>
@@ -19761,7 +19783,7 @@
         <v>88.99999999999991</v>
       </c>
       <c r="K377" t="n">
-        <v>-31.81818181818175</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L377" t="n">
         <v>55.43000000000001</v>
@@ -19812,7 +19834,7 @@
         <v>88.99999999999991</v>
       </c>
       <c r="K378" t="n">
-        <v>-41.46341463414647</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L378" t="n">
         <v>55.37</v>
@@ -19863,7 +19885,7 @@
         <v>89.09999999999991</v>
       </c>
       <c r="K379" t="n">
-        <v>-38.09523809523823</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L379" t="n">
         <v>55.33000000000001</v>
@@ -19914,7 +19936,7 @@
         <v>89.2999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>-34.8837209302327</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L380" t="n">
         <v>55.36</v>
@@ -19965,7 +19987,7 @@
         <v>89.59999999999989</v>
       </c>
       <c r="K381" t="n">
-        <v>-28.2051282051283</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L381" t="n">
         <v>55.31</v>
@@ -20016,7 +20038,7 @@
         <v>90.09999999999989</v>
       </c>
       <c r="K382" t="n">
-        <v>-7.317073170731674</v>
+        <v>0</v>
       </c>
       <c r="L382" t="n">
         <v>55.31</v>
@@ -20067,7 +20089,7 @@
         <v>90.2999999999999</v>
       </c>
       <c r="K383" t="n">
-        <v>-2.325581395348714</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>55.33000000000001</v>
@@ -20118,7 +20140,7 @@
         <v>90.2999999999999</v>
       </c>
       <c r="K384" t="n">
-        <v>2.43902439024394</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L384" t="n">
         <v>55.33000000000001</v>
@@ -20169,7 +20191,7 @@
         <v>90.39999999999989</v>
       </c>
       <c r="K385" t="n">
-        <v>-2.43902439024394</v>
+        <v>5.26315789473698</v>
       </c>
       <c r="L385" t="n">
         <v>55.34000000000001</v>
@@ -20220,7 +20242,7 @@
         <v>90.39999999999989</v>
       </c>
       <c r="K386" t="n">
-        <v>8.108108108108249</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L386" t="n">
         <v>55.35000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>90.39999999999989</v>
       </c>
       <c r="K387" t="n">
-        <v>8.108108108108249</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L387" t="n">
         <v>55.41000000000001</v>
@@ -20322,7 +20344,7 @@
         <v>90.39999999999989</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L388" t="n">
         <v>55.47000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>90.39999999999989</v>
       </c>
       <c r="K389" t="n">
-        <v>3.030303030303089</v>
+        <v>27.2727272727278</v>
       </c>
       <c r="L389" t="n">
         <v>55.52000000000002</v>
@@ -20424,7 +20446,7 @@
         <v>90.7999999999999</v>
       </c>
       <c r="K390" t="n">
-        <v>31.25000000000011</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L390" t="n">
         <v>55.59000000000002</v>
@@ -20475,7 +20497,7 @@
         <v>90.7999999999999</v>
       </c>
       <c r="K391" t="n">
-        <v>18.51851851851859</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L391" t="n">
         <v>55.69000000000002</v>
@@ -20526,7 +20548,7 @@
         <v>90.89999999999989</v>
       </c>
       <c r="K392" t="n">
-        <v>21.42857142857161</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L392" t="n">
         <v>55.75000000000002</v>
@@ -20577,7 +20599,7 @@
         <v>91.2999999999999</v>
       </c>
       <c r="K393" t="n">
-        <v>31.25000000000011</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L393" t="n">
         <v>55.83000000000002</v>
@@ -20628,7 +20650,7 @@
         <v>91.4999999999999</v>
       </c>
       <c r="K394" t="n">
-        <v>31.25000000000011</v>
+        <v>99.99999999999936</v>
       </c>
       <c r="L394" t="n">
         <v>55.93000000000002</v>
@@ -20679,7 +20701,7 @@
         <v>91.59999999999989</v>
       </c>
       <c r="K395" t="n">
-        <v>41.93548387096792</v>
+        <v>99.99999999999942</v>
       </c>
       <c r="L395" t="n">
         <v>56.05000000000001</v>
@@ -20730,7 +20752,7 @@
         <v>92.39999999999989</v>
       </c>
       <c r="K396" t="n">
-        <v>12.82051282051289</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L396" t="n">
         <v>56.09000000000001</v>
@@ -20781,7 +20803,7 @@
         <v>92.49999999999989</v>
       </c>
       <c r="K397" t="n">
-        <v>31.42857142857172</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L397" t="n">
         <v>56.14000000000001</v>
@@ -20832,7 +20854,7 @@
         <v>92.59999999999988</v>
       </c>
       <c r="K398" t="n">
-        <v>27.77777777777804</v>
+        <v>18.18181818181821</v>
       </c>
       <c r="L398" t="n">
         <v>56.18000000000001</v>
@@ -20883,7 +20905,7 @@
         <v>92.59999999999988</v>
       </c>
       <c r="K399" t="n">
-        <v>25.71428571428588</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>56.22000000000001</v>
@@ -20934,7 +20956,7 @@
         <v>92.69999999999987</v>
       </c>
       <c r="K400" t="n">
-        <v>17.64705882352957</v>
+        <v>-5.26315789473698</v>
       </c>
       <c r="L400" t="n">
         <v>56.21</v>
@@ -20985,7 +21007,7 @@
         <v>92.79999999999987</v>
       </c>
       <c r="K401" t="n">
-        <v>25.00000000000011</v>
+        <v>-15.78947368421094</v>
       </c>
       <c r="L401" t="n">
         <v>56.19</v>
@@ -21036,7 +21058,7 @@
         <v>92.89999999999986</v>
       </c>
       <c r="K402" t="n">
-        <v>7.142857142857324</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L402" t="n">
         <v>56.15</v>
@@ -21087,7 +21109,7 @@
         <v>92.89999999999986</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>-71.42857142857332</v>
       </c>
       <c r="L403" t="n">
         <v>56.07000000000001</v>
@@ -21138,7 +21160,7 @@
         <v>92.99999999999986</v>
       </c>
       <c r="K404" t="n">
-        <v>3.703703703703548</v>
+        <v>-71.42857142857332</v>
       </c>
       <c r="L404" t="n">
         <v>55.98</v>
@@ -21189,7 +21211,7 @@
         <v>93.09999999999985</v>
       </c>
       <c r="K405" t="n">
-        <v>3.703703703703811</v>
+        <v>-42.85714285714489</v>
       </c>
       <c r="L405" t="n">
         <v>55.87</v>
@@ -21240,7 +21262,7 @@
         <v>93.09999999999985</v>
       </c>
       <c r="K406" t="n">
-        <v>3.703703703703811</v>
+        <v>-66.66666666667021</v>
       </c>
       <c r="L406" t="n">
         <v>55.84000000000001</v>
@@ -21291,7 +21313,7 @@
         <v>93.09999999999985</v>
       </c>
       <c r="K407" t="n">
-        <v>3.703703703703811</v>
+        <v>-60.00000000000284</v>
       </c>
       <c r="L407" t="n">
         <v>55.80000000000001</v>
@@ -21342,7 +21364,7 @@
         <v>93.39999999999986</v>
       </c>
       <c r="K408" t="n">
-        <v>-6.666666666666825</v>
+        <v>-75.00000000000178</v>
       </c>
       <c r="L408" t="n">
         <v>55.74000000000001</v>
@@ -21393,7 +21415,7 @@
         <v>93.69999999999987</v>
       </c>
       <c r="K409" t="n">
-        <v>3.030303030303089</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L409" t="n">
         <v>55.71000000000002</v>
@@ -21444,7 +21466,7 @@
         <v>94.19999999999987</v>
       </c>
       <c r="K410" t="n">
-        <v>-23.52941176470596</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L410" t="n">
         <v>55.64000000000002</v>
@@ -21495,7 +21517,7 @@
         <v>94.29999999999987</v>
       </c>
       <c r="K411" t="n">
-        <v>-20.00000000000024</v>
+        <v>-28.57142857142886</v>
       </c>
       <c r="L411" t="n">
         <v>55.59000000000002</v>
@@ -21546,7 +21568,7 @@
         <v>94.59999999999988</v>
       </c>
       <c r="K412" t="n">
-        <v>-13.51351351351356</v>
+        <v>-5.882352941176496</v>
       </c>
       <c r="L412" t="n">
         <v>55.58000000000002</v>
@@ -21597,7 +21619,7 @@
         <v>94.69999999999987</v>
       </c>
       <c r="K413" t="n">
-        <v>-23.52941176470596</v>
+        <v>-5.882352941176077</v>
       </c>
       <c r="L413" t="n">
         <v>55.58000000000002</v>
@@ -21648,7 +21670,7 @@
         <v>94.69999999999987</v>
       </c>
       <c r="K414" t="n">
-        <v>-31.25000000000025</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>55.57000000000003</v>
@@ -21699,7 +21721,7 @@
         <v>94.79999999999987</v>
       </c>
       <c r="K415" t="n">
-        <v>-31.25000000000025</v>
+        <v>5.882352941176077</v>
       </c>
       <c r="L415" t="n">
         <v>55.58000000000002</v>
@@ -21750,7 +21772,7 @@
         <v>94.79999999999987</v>
       </c>
       <c r="K416" t="n">
-        <v>-8.333333333333531</v>
+        <v>5.882352941176077</v>
       </c>
       <c r="L416" t="n">
         <v>55.59000000000001</v>
@@ -21801,7 +21823,7 @@
         <v>94.79999999999987</v>
       </c>
       <c r="K417" t="n">
-        <v>-13.04347826086985</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L417" t="n">
         <v>55.6</v>
@@ -21852,7 +21874,7 @@
         <v>94.79999999999987</v>
       </c>
       <c r="K418" t="n">
-        <v>-9.090909090909268</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L418" t="n">
         <v>55.64</v>
@@ -21903,7 +21925,7 @@
         <v>94.89999999999986</v>
       </c>
       <c r="K419" t="n">
-        <v>-13.04347826086954</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L419" t="n">
         <v>55.64</v>
@@ -21954,7 +21976,7 @@
         <v>95.49999999999986</v>
       </c>
       <c r="K420" t="n">
-        <v>-28.57142857142864</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L420" t="n">
         <v>55.63</v>
@@ -22005,7 +22027,7 @@
         <v>95.49999999999986</v>
       </c>
       <c r="K421" t="n">
-        <v>-25.92592592592587</v>
+        <v>-55.55555555555696</v>
       </c>
       <c r="L421" t="n">
         <v>55.61</v>
@@ -22056,7 +22078,7 @@
         <v>95.79999999999986</v>
       </c>
       <c r="K422" t="n">
-        <v>-10.34482758620707</v>
+        <v>-27.27272727272815</v>
       </c>
       <c r="L422" t="n">
         <v>55.59</v>
@@ -22107,7 +22129,7 @@
         <v>95.89999999999986</v>
       </c>
       <c r="K423" t="n">
-        <v>-13.33333333333352</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L423" t="n">
         <v>55.54999999999999</v>
@@ -22158,7 +22180,7 @@
         <v>96.19999999999987</v>
       </c>
       <c r="K424" t="n">
-        <v>-6.249999999999833</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L424" t="n">
         <v>55.53999999999998</v>
@@ -22209,7 +22231,7 @@
         <v>96.39999999999986</v>
       </c>
       <c r="K425" t="n">
-        <v>3.030303030302848</v>
+        <v>0</v>
       </c>
       <c r="L425" t="n">
         <v>55.53999999999998</v>
@@ -22260,7 +22282,7 @@
         <v>97.09999999999985</v>
       </c>
       <c r="K426" t="n">
-        <v>-15.00000000000004</v>
+        <v>-30.43478260869569</v>
       </c>
       <c r="L426" t="n">
         <v>55.46999999999999</v>
@@ -22311,7 +22333,7 @@
         <v>97.39999999999985</v>
       </c>
       <c r="K427" t="n">
-        <v>-6.976744186046616</v>
+        <v>-15.38461538461545</v>
       </c>
       <c r="L427" t="n">
         <v>55.42999999999999</v>
@@ -22362,7 +22384,7 @@
         <v>97.89999999999985</v>
       </c>
       <c r="K428" t="n">
-        <v>-11.11111111111115</v>
+        <v>-26.66666666666693</v>
       </c>
       <c r="L428" t="n">
         <v>55.34</v>
@@ -22413,7 +22435,7 @@
         <v>98.59999999999985</v>
       </c>
       <c r="K429" t="n">
-        <v>-2.04081632653065</v>
+        <v>16.12903225806455</v>
       </c>
       <c r="L429" t="n">
         <v>55.33</v>
@@ -22464,7 +22486,7 @@
         <v>98.79999999999984</v>
       </c>
       <c r="K430" t="n">
-        <v>13.04347826086954</v>
+        <v>21.21212121212119</v>
       </c>
       <c r="L430" t="n">
         <v>55.39999999999999</v>
@@ -22515,7 +22537,7 @@
         <v>98.79999999999984</v>
       </c>
       <c r="K431" t="n">
-        <v>11.11111111111118</v>
+        <v>13.33333333333335</v>
       </c>
       <c r="L431" t="n">
         <v>55.46999999999998</v>
@@ -22566,7 +22588,7 @@
         <v>98.79999999999984</v>
       </c>
       <c r="K432" t="n">
-        <v>4.761904761904705</v>
+        <v>17.24137931034496</v>
       </c>
       <c r="L432" t="n">
         <v>55.50999999999998</v>
@@ -22617,7 +22639,7 @@
         <v>98.79999999999984</v>
       </c>
       <c r="K433" t="n">
-        <v>2.439024390243784</v>
+        <v>7.692307692307629</v>
       </c>
       <c r="L433" t="n">
         <v>55.55999999999998</v>
@@ -22668,7 +22690,7 @@
         <v>98.79999999999984</v>
       </c>
       <c r="K434" t="n">
-        <v>2.439024390243784</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>55.57999999999997</v>
@@ -22719,7 +22741,7 @@
         <v>98.79999999999984</v>
       </c>
       <c r="K435" t="n">
-        <v>0</v>
+        <v>41.17647058823532</v>
       </c>
       <c r="L435" t="n">
         <v>55.57999999999997</v>
@@ -22770,7 +22792,7 @@
         <v>98.79999999999984</v>
       </c>
       <c r="K436" t="n">
-        <v>0</v>
+        <v>28.57142857142864</v>
       </c>
       <c r="L436" t="n">
         <v>55.64999999999996</v>
@@ -22821,7 +22843,7 @@
         <v>98.99999999999984</v>
       </c>
       <c r="K437" t="n">
-        <v>4.761904761904859</v>
+        <v>100.0000000000006</v>
       </c>
       <c r="L437" t="n">
         <v>55.70999999999997</v>
@@ -22872,7 +22894,7 @@
         <v>98.99999999999984</v>
       </c>
       <c r="K438" t="n">
-        <v>4.761904761904859</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L438" t="n">
         <v>55.81999999999997</v>
@@ -22923,7 +22945,7 @@
         <v>99.09999999999985</v>
       </c>
       <c r="K439" t="n">
-        <v>9.523809523809517</v>
+        <v>99.99999999999764</v>
       </c>
       <c r="L439" t="n">
         <v>55.86999999999997</v>
@@ -22974,7 +22996,7 @@
         <v>99.29999999999984</v>
       </c>
       <c r="K440" t="n">
-        <v>31.57894736842108</v>
+        <v>100</v>
       </c>
       <c r="L440" t="n">
         <v>55.91999999999997</v>
@@ -23025,7 +23047,7 @@
         <v>99.29999999999984</v>
       </c>
       <c r="K441" t="n">
-        <v>31.57894736842108</v>
+        <v>100</v>
       </c>
       <c r="L441" t="n">
         <v>55.96999999999997</v>
@@ -23076,7 +23098,7 @@
         <v>99.89999999999984</v>
       </c>
       <c r="K442" t="n">
-        <v>36.58536585365871</v>
+        <v>100.0000000000006</v>
       </c>
       <c r="L442" t="n">
         <v>56.07999999999997</v>
@@ -23127,7 +23149,7 @@
         <v>100.3999999999998</v>
       </c>
       <c r="K443" t="n">
-        <v>24.44444444444463</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L443" t="n">
         <v>56.13999999999997</v>
@@ -23178,7 +23200,7 @@
         <v>100.3999999999998</v>
       </c>
       <c r="K444" t="n">
-        <v>19.04761904761916</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L444" t="n">
         <v>56.19999999999997</v>
@@ -23229,7 +23251,7 @@
         <v>100.4999999999998</v>
       </c>
       <c r="K445" t="n">
-        <v>12.19512195121961</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L445" t="n">
         <v>56.24999999999998</v>
@@ -23280,7 +23302,7 @@
         <v>100.5999999999998</v>
       </c>
       <c r="K446" t="n">
-        <v>31.42857142857172</v>
+        <v>12.50000000000033</v>
       </c>
       <c r="L446" t="n">
         <v>56.28999999999998</v>
@@ -23331,7 +23353,7 @@
         <v>100.7999999999998</v>
       </c>
       <c r="K447" t="n">
-        <v>17.64705882352957</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>56.28999999999998</v>
@@ -23382,7 +23404,7 @@
         <v>100.8999999999998</v>
       </c>
       <c r="K448" t="n">
-        <v>40.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>56.29999999999999</v>
@@ -23433,7 +23455,7 @@
         <v>101.3999999999998</v>
       </c>
       <c r="K449" t="n">
-        <v>35.71428571428593</v>
+        <v>14.28571428571453</v>
       </c>
       <c r="L449" t="n">
         <v>56.34999999999999</v>
@@ -23484,7 +23506,7 @@
         <v>101.4999999999998</v>
       </c>
       <c r="K450" t="n">
-        <v>25.92592592592614</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L450" t="n">
         <v>56.36999999999999</v>
@@ -23535,7 +23557,7 @@
         <v>101.6999999999998</v>
       </c>
       <c r="K451" t="n">
-        <v>17.24137931034488</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L451" t="n">
         <v>56.36999999999999</v>
@@ -23586,7 +23608,7 @@
         <v>101.6999999999998</v>
       </c>
       <c r="K452" t="n">
-        <v>17.24137931034488</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L452" t="n">
         <v>56.30999999999999</v>
@@ -23637,7 +23659,7 @@
         <v>102.1999999999998</v>
       </c>
       <c r="K453" t="n">
-        <v>29.41176470588243</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L453" t="n">
         <v>56.34999999999999</v>
@@ -23688,7 +23710,7 @@
         <v>102.3999999999998</v>
       </c>
       <c r="K454" t="n">
-        <v>33.33333333333346</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L454" t="n">
         <v>56.40999999999999</v>
@@ -23739,7 +23761,7 @@
         <v>102.9999999999998</v>
       </c>
       <c r="K455" t="n">
-        <v>42.85714285714307</v>
+        <v>58.33333333333314</v>
       </c>
       <c r="L455" t="n">
         <v>56.54</v>
@@ -23790,7 +23812,7 @@
         <v>103.5999999999998</v>
       </c>
       <c r="K456" t="n">
-        <v>25.00000000000015</v>
+        <v>35.71428571428575</v>
       </c>
       <c r="L456" t="n">
         <v>56.61999999999999</v>
@@ -23841,7 +23863,7 @@
         <v>103.5999999999998</v>
       </c>
       <c r="K457" t="n">
-        <v>21.7391304347827</v>
+        <v>33.33333333333342</v>
       </c>
       <c r="L457" t="n">
         <v>56.71999999999999</v>
@@ -23892,7 +23914,7 @@
         <v>103.5999999999998</v>
       </c>
       <c r="K458" t="n">
-        <v>21.7391304347827</v>
+        <v>18.18181818181821</v>
       </c>
       <c r="L458" t="n">
         <v>56.80999999999999</v>
@@ -23943,7 +23965,7 @@
         <v>104.1999999999998</v>
       </c>
       <c r="K459" t="n">
-        <v>5.882352941176454</v>
+        <v>-3.703703703703772</v>
       </c>
       <c r="L459" t="n">
         <v>56.78999999999998</v>
@@ -23994,7 +24016,7 @@
         <v>104.4999999999998</v>
       </c>
       <c r="K460" t="n">
-        <v>7.692307692307819</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L460" t="n">
         <v>56.80999999999999</v>
@@ -24045,7 +24067,7 @@
         <v>104.4999999999998</v>
       </c>
       <c r="K461" t="n">
-        <v>7.692307692307819</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L461" t="n">
         <v>56.85</v>
@@ -24096,7 +24118,7 @@
         <v>104.5999999999998</v>
       </c>
       <c r="K462" t="n">
-        <v>-2.127659574468121</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>56.9</v>
@@ -24147,7 +24169,7 @@
         <v>104.7999999999998</v>
       </c>
       <c r="K463" t="n">
-        <v>13.6363636363637</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>56.92</v>
@@ -24198,7 +24220,7 @@
         <v>105.1999999999998</v>
       </c>
       <c r="K464" t="n">
-        <v>20.83333333333341</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L464" t="n">
         <v>56.96</v>
@@ -24249,7 +24271,7 @@
         <v>105.2999999999998</v>
       </c>
       <c r="K465" t="n">
-        <v>25.00000000000015</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L465" t="n">
         <v>56.95</v>
@@ -24300,7 +24322,7 @@
         <v>106.0999999999998</v>
       </c>
       <c r="K466" t="n">
-        <v>38.18181818181818</v>
+        <v>52.00000000000018</v>
       </c>
       <c r="L466" t="n">
         <v>57.08</v>
@@ -24351,7 +24373,7 @@
         <v>106.9999999999998</v>
       </c>
       <c r="K467" t="n">
-        <v>22.58064516129039</v>
+        <v>11.76470588235298</v>
       </c>
       <c r="L467" t="n">
         <v>57.11999999999999</v>
@@ -24402,7 +24424,7 @@
         <v>107.2999999999998</v>
       </c>
       <c r="K468" t="n">
-        <v>25.00000000000011</v>
+        <v>41.93548387096796</v>
       </c>
       <c r="L468" t="n">
         <v>57.19</v>
@@ -24453,7 +24475,7 @@
         <v>107.2999999999998</v>
       </c>
       <c r="K469" t="n">
-        <v>18.64406779661027</v>
+        <v>35.71428571428593</v>
       </c>
       <c r="L469" t="n">
         <v>57.32000000000001</v>
@@ -24504,7 +24526,7 @@
         <v>107.4999999999998</v>
       </c>
       <c r="K470" t="n">
-        <v>23.33333333333342</v>
+        <v>40.00000000000023</v>
       </c>
       <c r="L470" t="n">
         <v>57.44</v>
@@ -24555,7 +24577,7 @@
         <v>107.5999999999998</v>
       </c>
       <c r="K471" t="n">
-        <v>28.81355932203413</v>
+        <v>40.00000000000048</v>
       </c>
       <c r="L471" t="n">
         <v>57.56999999999999</v>
@@ -24606,7 +24628,7 @@
         <v>107.5999999999998</v>
       </c>
       <c r="K472" t="n">
-        <v>28.81355932203413</v>
+        <v>35.71428571428611</v>
       </c>
       <c r="L472" t="n">
         <v>57.69</v>
@@ -24657,7 +24679,7 @@
         <v>107.8999999999998</v>
       </c>
       <c r="K473" t="n">
-        <v>15.78947368421074</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L473" t="n">
         <v>57.76000000000001</v>
@@ -24708,7 +24730,7 @@
         <v>107.8999999999998</v>
       </c>
       <c r="K474" t="n">
-        <v>12.72727272727288</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L474" t="n">
         <v>57.79000000000001</v>
@@ -24759,7 +24781,7 @@
         <v>108.2999999999998</v>
       </c>
       <c r="K475" t="n">
-        <v>-5.66037735849068</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L475" t="n">
         <v>57.77</v>
@@ -24810,7 +24832,7 @@
         <v>108.4999999999998</v>
       </c>
       <c r="K476" t="n">
-        <v>2.04081632653065</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L476" t="n">
         <v>57.65000000000001</v>
@@ -24861,7 +24883,7 @@
         <v>108.4999999999998</v>
       </c>
       <c r="K477" t="n">
-        <v>2.04081632653065</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L477" t="n">
         <v>57.62000000000002</v>
@@ -24912,7 +24934,7 @@
         <v>108.5999999999998</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>-53.84615384615478</v>
       </c>
       <c r="L478" t="n">
         <v>57.55000000000001</v>
@@ -24963,7 +24985,7 @@
         <v>108.6999999999998</v>
       </c>
       <c r="K479" t="n">
-        <v>11.11111111111118</v>
+        <v>-83.33333333333412</v>
       </c>
       <c r="L479" t="n">
         <v>57.47000000000001</v>
@@ -25014,7 +25036,7 @@
         <v>108.6999999999998</v>
       </c>
       <c r="K480" t="n">
-        <v>4.761904761904705</v>
+        <v>-100.0000000000006</v>
       </c>
       <c r="L480" t="n">
         <v>57.37</v>
@@ -25065,7 +25087,7 @@
         <v>108.6999999999998</v>
       </c>
       <c r="K481" t="n">
-        <v>4.761904761904705</v>
+        <v>-100.0000000000006</v>
       </c>
       <c r="L481" t="n">
         <v>57.26000000000001</v>
@@ -25116,7 +25138,7 @@
         <v>108.6999999999998</v>
       </c>
       <c r="K482" t="n">
-        <v>2.439024390243957</v>
+        <v>-100.0000000000009</v>
       </c>
       <c r="L482" t="n">
         <v>57.15</v>
@@ -25167,7 +25189,7 @@
         <v>108.6999999999998</v>
       </c>
       <c r="K483" t="n">
-        <v>-2.564102564102625</v>
+        <v>-100.0000000000009</v>
       </c>
       <c r="L483" t="n">
         <v>57.06999999999999</v>
@@ -25218,7 +25240,7 @@
         <v>108.9999999999998</v>
       </c>
       <c r="K484" t="n">
-        <v>-21.05263157894747</v>
+        <v>-100.000000000001</v>
       </c>
       <c r="L484" t="n">
         <v>56.95999999999999</v>
@@ -25269,7 +25291,7 @@
         <v>109.0999999999998</v>
       </c>
       <c r="K485" t="n">
-        <v>-26.31578947368433</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L485" t="n">
         <v>56.88</v>
@@ -25320,7 +25342,7 @@
         <v>109.1999999999998</v>
       </c>
       <c r="K486" t="n">
-        <v>-54.83870967741957</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L486" t="n">
         <v>56.83</v>
@@ -25371,7 +25393,7 @@
         <v>109.2999999999998</v>
       </c>
       <c r="K487" t="n">
-        <v>-39.13043478260892</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L487" t="n">
         <v>56.77</v>
@@ -25422,7 +25444,7 @@
         <v>109.4999999999998</v>
       </c>
       <c r="K488" t="n">
-        <v>-45.45454545454598</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L488" t="n">
         <v>56.73999999999999</v>
@@ -25473,7 +25495,7 @@
         <v>109.5999999999998</v>
       </c>
       <c r="K489" t="n">
-        <v>-47.82608695652215</v>
+        <v>-33.33333333333281</v>
       </c>
       <c r="L489" t="n">
         <v>56.71</v>
@@ -25524,7 +25546,7 @@
         <v>109.9999999999998</v>
       </c>
       <c r="K490" t="n">
-        <v>-35.99999999999994</v>
+        <v>7.692307692307734</v>
       </c>
       <c r="L490" t="n">
         <v>56.72000000000001</v>
@@ -25575,7 +25597,7 @@
         <v>110.4999999999998</v>
       </c>
       <c r="K491" t="n">
-        <v>-17.24137931034479</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L491" t="n">
         <v>56.78000000000001</v>
@@ -25626,7 +25648,7 @@
         <v>110.5999999999998</v>
       </c>
       <c r="K492" t="n">
-        <v>-13.33333333333329</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L492" t="n">
         <v>56.85000000000001</v>
@@ -25677,7 +25699,7 @@
         <v>111.0999999999998</v>
       </c>
       <c r="K493" t="n">
-        <v>-18.75000000000003</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L493" t="n">
         <v>56.87000000000002</v>
@@ -25728,7 +25750,7 @@
         <v>111.5999999999998</v>
       </c>
       <c r="K494" t="n">
-        <v>-2.702702702702739</v>
+        <v>44.00000000000006</v>
       </c>
       <c r="L494" t="n">
         <v>56.97000000000001</v>
@@ -25779,7 +25801,7 @@
         <v>111.5999999999998</v>
       </c>
       <c r="K495" t="n">
-        <v>9.090909090909228</v>
+        <v>41.66666666666657</v>
       </c>
       <c r="L495" t="n">
         <v>57.08000000000002</v>
@@ -25830,7 +25852,7 @@
         <v>111.7999999999998</v>
       </c>
       <c r="K496" t="n">
-        <v>9.090909090909012</v>
+        <v>35.99999999999974</v>
       </c>
       <c r="L496" t="n">
         <v>57.16000000000001</v>
@@ -25881,7 +25903,7 @@
         <v>112.0999999999998</v>
       </c>
       <c r="K497" t="n">
-        <v>16.66666666666673</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L497" t="n">
         <v>57.28000000000002</v>
@@ -25932,7 +25954,7 @@
         <v>112.0999999999998</v>
       </c>
       <c r="K498" t="n">
-        <v>20.00000000000008</v>
+        <v>44.00000000000006</v>
       </c>
       <c r="L498" t="n">
         <v>57.38000000000002</v>
@@ -25983,7 +26005,7 @@
         <v>112.2999999999998</v>
       </c>
       <c r="K499" t="n">
-        <v>16.66666666666666</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L499" t="n">
         <v>57.47000000000001</v>
@@ -26034,7 +26056,7 @@
         <v>112.7999999999998</v>
       </c>
       <c r="K500" t="n">
-        <v>26.8292682926829</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L500" t="n">
         <v>57.57000000000001</v>
@@ -26085,7 +26107,7 @@
         <v>112.8999999999998</v>
       </c>
       <c r="K501" t="n">
-        <v>23.80952380952371</v>
+        <v>13.04347826086938</v>
       </c>
       <c r="L501" t="n">
         <v>57.61000000000001</v>
@@ -26136,7 +26158,7 @@
         <v>112.9999999999998</v>
       </c>
       <c r="K502" t="n">
-        <v>25.58139534883718</v>
+        <v>47.36842105263136</v>
       </c>
       <c r="L502" t="n">
         <v>57.65000000000001</v>
@@ -26187,7 +26209,7 @@
         <v>113.2999999999998</v>
       </c>
       <c r="K503" t="n">
-        <v>30.43478260869556</v>
+        <v>41.17647058823498</v>
       </c>
       <c r="L503" t="n">
         <v>57.77</v>
@@ -26238,7 +26260,7 @@
         <v>113.3999999999998</v>
       </c>
       <c r="K504" t="n">
-        <v>40.90909090909066</v>
+        <v>44.444444444444</v>
       </c>
       <c r="L504" t="n">
         <v>57.85</v>
@@ -26289,7 +26311,7 @@
         <v>113.4999999999998</v>
       </c>
       <c r="K505" t="n">
-        <v>45.4545454545454</v>
+        <v>64.70588235294115</v>
       </c>
       <c r="L505" t="n">
         <v>57.94</v>
@@ -26340,7 +26362,7 @@
         <v>114.6999999999998</v>
       </c>
       <c r="K506" t="n">
-        <v>56.36363636363625</v>
+        <v>76.92307692307668</v>
       </c>
       <c r="L506" t="n">
         <v>58.17</v>
@@ -26391,7 +26413,7 @@
         <v>114.8999999999998</v>
       </c>
       <c r="K507" t="n">
-        <v>53.57142857142836</v>
+        <v>64.28571428571392</v>
       </c>
       <c r="L507" t="n">
         <v>58.35</v>
@@ -26442,7 +26464,7 @@
         <v>114.8999999999998</v>
       </c>
       <c r="K508" t="n">
-        <v>51.85185185185161</v>
+        <v>76.92307692307668</v>
       </c>
       <c r="L508" t="n">
         <v>58.52999999999999</v>
@@ -26493,7 +26515,7 @@
         <v>115.0999999999998</v>
       </c>
       <c r="K509" t="n">
-        <v>56.36363636363625</v>
+        <v>73.91304347826063</v>
       </c>
       <c r="L509" t="n">
         <v>58.75</v>
@@ -26544,7 +26566,7 @@
         <v>116.1999999999998</v>
       </c>
       <c r="K510" t="n">
-        <v>25.80645161290317</v>
+        <v>21.21212121212123</v>
       </c>
       <c r="L510" t="n">
         <v>58.81</v>
@@ -26595,7 +26617,7 @@
         <v>117.8999999999998</v>
       </c>
       <c r="K511" t="n">
-        <v>37.83783783783777</v>
+        <v>46.93877551020397</v>
       </c>
       <c r="L511" t="n">
         <v>59.05</v>
@@ -26646,7 +26668,7 @@
         <v>118.1999999999998</v>
       </c>
       <c r="K512" t="n">
-        <v>39.4736842105262</v>
+        <v>46.93877551020398</v>
       </c>
       <c r="L512" t="n">
         <v>59.31</v>
@@ -26697,7 +26719,7 @@
         <v>118.1999999999998</v>
       </c>
       <c r="K513" t="n">
-        <v>49.29577464788716</v>
+        <v>45.83333333333328</v>
       </c>
       <c r="L513" t="n">
         <v>59.54000000000001</v>
@@ -26748,7 +26770,7 @@
         <v>118.9999999999998</v>
       </c>
       <c r="K514" t="n">
-        <v>51.35135135135117</v>
+        <v>52.72727272727257</v>
       </c>
       <c r="L514" t="n">
         <v>59.84000000000001</v>
@@ -26799,7 +26821,7 @@
         <v>119.7999999999998</v>
       </c>
       <c r="K515" t="n">
-        <v>56.09756097560966</v>
+        <v>49.01960784313717</v>
       </c>
       <c r="L515" t="n">
         <v>60.21000000000002</v>
@@ -26850,7 +26872,7 @@
         <v>121.1999999999998</v>
       </c>
       <c r="K516" t="n">
-        <v>36.17021276595735</v>
+        <v>20.63492063492055</v>
       </c>
       <c r="L516" t="n">
         <v>60.32000000000001</v>
@@ -26901,7 +26923,7 @@
         <v>122.4999999999998</v>
       </c>
       <c r="K517" t="n">
-        <v>42.30769230769216</v>
+        <v>34.21052631578939</v>
       </c>
       <c r="L517" t="n">
         <v>60.58000000000001</v>
@@ -26952,7 +26974,7 @@
         <v>122.7999999999998</v>
       </c>
       <c r="K518" t="n">
-        <v>43.92523364485965</v>
+        <v>35.06493506493493</v>
       </c>
       <c r="L518" t="n">
         <v>60.87</v>
@@ -27003,7 +27025,7 @@
         <v>123.5999999999998</v>
       </c>
       <c r="K519" t="n">
-        <v>50.4424778761061</v>
+        <v>62.16216216216214</v>
       </c>
       <c r="L519" t="n">
         <v>61.22000000000001</v>
@@ -27054,7 +27076,7 @@
         <v>124.9999999999998</v>
       </c>
       <c r="K520" t="n">
-        <v>31.14754098360645</v>
+        <v>21.12676056338022</v>
       </c>
       <c r="L520" t="n">
         <v>61.54</v>
@@ -27105,7 +27127,7 @@
         <v>125.2999999999998</v>
       </c>
       <c r="K521" t="n">
-        <v>29.03225806451609</v>
+        <v>12.67605633802813</v>
       </c>
       <c r="L521" t="n">
         <v>61.66</v>
@@ -27156,7 +27178,7 @@
         <v>126.1999999999998</v>
       </c>
       <c r="K522" t="n">
-        <v>19.69696969696968</v>
+        <v>0</v>
       </c>
       <c r="L522" t="n">
         <v>61.66</v>
@@ -27207,7 +27229,7 @@
         <v>126.7999999999998</v>
       </c>
       <c r="K523" t="n">
-        <v>21.4814814814815</v>
+        <v>-2.56410256410251</v>
       </c>
       <c r="L523" t="n">
         <v>61.72000000000001</v>
@@ -27258,7 +27280,7 @@
         <v>126.7999999999998</v>
       </c>
       <c r="K524" t="n">
-        <v>20.89552238805972</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L524" t="n">
         <v>61.70000000000001</v>
@@ -27309,7 +27331,7 @@
         <v>127.1999999999998</v>
       </c>
       <c r="K525" t="n">
-        <v>16.78832116788317</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>61.56</v>
@@ -27360,7 +27382,7 @@
         <v>127.1999999999998</v>
       </c>
       <c r="K526" t="n">
-        <v>8.799999999999944</v>
+        <v>-27.65957446808526</v>
       </c>
       <c r="L526" t="n">
         <v>61.56</v>
@@ -27411,7 +27433,7 @@
         <v>127.2999999999998</v>
       </c>
       <c r="K527" t="n">
-        <v>11.29032258064514</v>
+        <v>-33.33333333333344</v>
       </c>
       <c r="L527" t="n">
         <v>61.44</v>
@@ -27462,7 +27484,7 @@
         <v>127.4999999999998</v>
       </c>
       <c r="K528" t="n">
-        <v>12.6984126984127</v>
+        <v>-53.846153846154</v>
       </c>
       <c r="L528" t="n">
         <v>61.31</v>
@@ -27513,7 +27535,7 @@
         <v>127.6999999999998</v>
       </c>
       <c r="K529" t="n">
-        <v>12.69841269841264</v>
+        <v>-18.51851851851859</v>
       </c>
       <c r="L529" t="n">
         <v>61.11999999999999</v>
@@ -27564,7 +27586,7 @@
         <v>127.7999999999998</v>
       </c>
       <c r="K530" t="n">
-        <v>22.4137931034483</v>
+        <v>-11.99999999999996</v>
       </c>
       <c r="L530" t="n">
         <v>61.06</v>
@@ -27615,7 +27637,7 @@
         <v>128.0999999999998</v>
       </c>
       <c r="K531" t="n">
-        <v>5.882352941176475</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L531" t="n">
         <v>61</v>
@@ -27666,7 +27688,7 @@
         <v>128.5999999999998</v>
       </c>
       <c r="K532" t="n">
-        <v>-1.923076923076949</v>
+        <v>-44.4444444444444</v>
       </c>
       <c r="L532" t="n">
         <v>60.98</v>
@@ -27717,7 +27739,7 @@
         <v>129.1999999999998</v>
       </c>
       <c r="K533" t="n">
-        <v>3.636363636363624</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L533" t="n">
         <v>60.95999999999999</v>
@@ -27768,7 +27790,7 @@
         <v>129.1999999999998</v>
       </c>
       <c r="K534" t="n">
-        <v>-3.921568627450965</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L534" t="n">
         <v>60.93999999999998</v>
@@ -27819,7 +27841,7 @@
         <v>129.6999999999998</v>
       </c>
       <c r="K535" t="n">
-        <v>-17.17171717171719</v>
+        <v>-11.99999999999989</v>
       </c>
       <c r="L535" t="n">
         <v>60.90999999999999</v>
@@ -27870,7 +27892,7 @@
         <v>129.7999999999998</v>
       </c>
       <c r="K536" t="n">
-        <v>-4.651162790697661</v>
+        <v>-20</v>
       </c>
       <c r="L536" t="n">
         <v>60.86999999999999</v>
@@ -27921,7 +27943,7 @@
         <v>130.1999999999998</v>
       </c>
       <c r="K537" t="n">
-        <v>-27.27272727272733</v>
+        <v>-40.74074074074075</v>
       </c>
       <c r="L537" t="n">
         <v>60.77999999999999</v>
@@ -27972,7 +27994,7 @@
         <v>130.5999999999998</v>
       </c>
       <c r="K538" t="n">
-        <v>-35.89743589743588</v>
+        <v>-58.62068965517216</v>
       </c>
       <c r="L538" t="n">
         <v>60.63</v>
@@ -28023,7 +28045,7 @@
         <v>130.8999999999998</v>
       </c>
       <c r="K539" t="n">
-        <v>-45.20547945205496</v>
+        <v>-41.93548387096796</v>
       </c>
       <c r="L539" t="n">
         <v>60.48999999999999</v>
@@ -28074,7 +28096,7 @@
         <v>131.0999999999998</v>
       </c>
       <c r="K540" t="n">
-        <v>-34.42622950819682</v>
+        <v>-40.00000000000023</v>
       </c>
       <c r="L540" t="n">
         <v>60.34</v>
@@ -28125,7 +28147,7 @@
         <v>131.1999999999998</v>
       </c>
       <c r="K541" t="n">
-        <v>-28.81355932203413</v>
+        <v>-23.07692307692343</v>
       </c>
       <c r="L541" t="n">
         <v>60.23</v>
@@ -28176,7 +28198,7 @@
         <v>131.2999999999998</v>
       </c>
       <c r="K542" t="n">
-        <v>-13.72549019607858</v>
+        <v>-52.3809523809533</v>
       </c>
       <c r="L542" t="n">
         <v>60.17999999999999</v>
@@ -28227,7 +28249,7 @@
         <v>131.5999999999998</v>
       </c>
       <c r="K543" t="n">
-        <v>-33.33333333333348</v>
+        <v>-58.33333333333383</v>
       </c>
       <c r="L543" t="n">
         <v>60.04</v>
@@ -28278,7 +28300,7 @@
         <v>131.6999999999998</v>
       </c>
       <c r="K544" t="n">
-        <v>-34.69387755102063</v>
+        <v>-50.00000000000071</v>
       </c>
       <c r="L544" t="n">
         <v>59.89</v>
@@ -28329,7 +28351,7 @@
         <v>131.8999999999998</v>
       </c>
       <c r="K545" t="n">
-        <v>-23.40425531914887</v>
+        <v>-33.33333333333322</v>
       </c>
       <c r="L545" t="n">
         <v>59.81</v>
@@ -28380,7 +28402,7 @@
         <v>132.7999999999998</v>
       </c>
       <c r="K546" t="n">
-        <v>-3.571428571428499</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L546" t="n">
         <v>59.83000000000001</v>
@@ -28431,7 +28453,7 @@
         <v>132.8999999999998</v>
       </c>
       <c r="K547" t="n">
-        <v>-3.571428571428499</v>
+        <v>47.82608695652215</v>
       </c>
       <c r="L547" t="n">
         <v>59.90000000000001</v>
@@ -28482,7 +28504,7 @@
         <v>133.5999999999998</v>
       </c>
       <c r="K548" t="n">
-        <v>4.918032786885215</v>
+        <v>55.55555555555579</v>
       </c>
       <c r="L548" t="n">
         <v>60.08000000000001</v>
@@ -28533,7 +28555,7 @@
         <v>133.8999999999998</v>
       </c>
       <c r="K549" t="n">
-        <v>6.45161290322591</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L549" t="n">
         <v>60.26000000000001</v>
@@ -28584,7 +28606,7 @@
         <v>134.2999999999998</v>
       </c>
       <c r="K550" t="n">
-        <v>13.84615384615383</v>
+        <v>74.19354838709637</v>
       </c>
       <c r="L550" t="n">
         <v>60.50000000000001</v>
@@ -28635,7 +28657,7 @@
         <v>134.3999999999998</v>
       </c>
       <c r="K551" t="n">
-        <v>20.63492063492076</v>
+        <v>74.19354838709637</v>
       </c>
       <c r="L551" t="n">
         <v>60.74000000000002</v>
@@ -28686,7 +28708,7 @@
         <v>135.1999999999998</v>
       </c>
       <c r="K552" t="n">
-        <v>39.39393939393945</v>
+        <v>94.4444444444438</v>
       </c>
       <c r="L552" t="n">
         <v>61.05000000000003</v>
@@ -28737,7 +28759,7 @@
         <v>136.2999999999998</v>
       </c>
       <c r="K553" t="n">
-        <v>43.66197183098587</v>
+        <v>99.99999999999937</v>
       </c>
       <c r="L553" t="n">
         <v>61.50000000000002</v>
@@ -28788,7 +28810,7 @@
         <v>136.3999999999998</v>
       </c>
       <c r="K554" t="n">
-        <v>41.66666666666674</v>
+        <v>95.5555555555555</v>
       </c>
       <c r="L554" t="n">
         <v>61.95000000000002</v>
@@ -28839,7 +28861,7 @@
         <v>137.3999999999998</v>
       </c>
       <c r="K555" t="n">
-        <v>32.46753246753251</v>
+        <v>52.17391304347829</v>
       </c>
       <c r="L555" t="n">
         <v>62.28000000000002</v>
@@ -28890,7 +28912,7 @@
         <v>137.9999999999998</v>
       </c>
       <c r="K556" t="n">
-        <v>24.39024390243906</v>
+        <v>33.33333333333329</v>
       </c>
       <c r="L556" t="n">
         <v>62.46000000000002</v>
@@ -28941,7 +28963,7 @@
         <v>138.1999999999998</v>
       </c>
       <c r="K557" t="n">
-        <v>32.50000000000001</v>
+        <v>26.08695652173906</v>
       </c>
       <c r="L557" t="n">
         <v>62.65000000000001</v>
@@ -28992,7 +29014,7 @@
         <v>138.2999999999998</v>
       </c>
       <c r="K558" t="n">
-        <v>40.25974025974034</v>
+        <v>22.7272727272727</v>
       </c>
       <c r="L558" t="n">
         <v>62.78000000000002</v>
@@ -29043,7 +29065,7 @@
         <v>138.6999999999998</v>
       </c>
       <c r="K559" t="n">
-        <v>41.025641025641</v>
+        <v>22.7272727272727</v>
       </c>
       <c r="L559" t="n">
         <v>62.92000000000002</v>
@@ -29094,7 +29116,7 @@
         <v>138.9999999999998</v>
       </c>
       <c r="K560" t="n">
-        <v>46.83544303797443</v>
+        <v>26.08695652173891</v>
       </c>
       <c r="L560" t="n">
         <v>63.05000000000001</v>
@@ -29145,7 +29167,7 @@
         <v>139.3999999999998</v>
       </c>
       <c r="K561" t="n">
-        <v>39.02439024390226</v>
+        <v>0</v>
       </c>
       <c r="L561" t="n">
         <v>63.13000000000001</v>
@@ -29196,7 +29218,7 @@
         <v>139.7999999999998</v>
       </c>
       <c r="K562" t="n">
-        <v>31.76470588235276</v>
+        <v>-42.85714285714231</v>
       </c>
       <c r="L562" t="n">
         <v>63.09000000000001</v>
@@ -29247,7 +29269,7 @@
         <v>139.9999999999998</v>
       </c>
       <c r="K563" t="n">
-        <v>33.33333333333317</v>
+        <v>-44.4444444444442</v>
       </c>
       <c r="L563" t="n">
         <v>62.92</v>
@@ -29298,7 +29320,7 @@
         <v>140.1999999999998</v>
       </c>
       <c r="K564" t="n">
-        <v>36.47058823529401</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L564" t="n">
         <v>62.78000000000001</v>
@@ -29349,7 +29371,7 @@
         <v>140.3999999999998</v>
       </c>
       <c r="K565" t="n">
-        <v>31.76470588235289</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>62.72000000000001</v>
@@ -29400,7 +29422,7 @@
         <v>140.8999999999998</v>
       </c>
       <c r="K566" t="n">
-        <v>28.39506172839505</v>
+        <v>11.11111111111105</v>
       </c>
       <c r="L566" t="n">
         <v>62.77</v>
@@ -29451,7 +29473,7 @@
         <v>141.6999999999998</v>
       </c>
       <c r="K567" t="n">
-        <v>34.09090909090905</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L567" t="n">
         <v>62.88000000000001</v>
@@ -29502,7 +29524,7 @@
         <v>142.0999999999998</v>
       </c>
       <c r="K568" t="n">
-        <v>22.3529411764705</v>
+        <v>5.882352941176335</v>
       </c>
       <c r="L568" t="n">
         <v>62.94</v>
@@ -29553,7 +29575,7 @@
         <v>142.1999999999998</v>
       </c>
       <c r="K569" t="n">
-        <v>20.48192771084329</v>
+        <v>0</v>
       </c>
       <c r="L569" t="n">
         <v>62.96999999999999</v>
@@ -29604,7 +29626,7 @@
         <v>143.3999999999998</v>
       </c>
       <c r="K570" t="n">
-        <v>27.47252747252741</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L570" t="n">
         <v>63.09</v>
@@ -29655,7 +29677,7 @@
         <v>144.2999999999998</v>
       </c>
       <c r="K571" t="n">
-        <v>15.15151515151519</v>
+        <v>24.44444444444478</v>
       </c>
       <c r="L571" t="n">
         <v>63.16</v>
@@ -29706,7 +29728,7 @@
         <v>144.5999999999998</v>
       </c>
       <c r="K572" t="n">
-        <v>10.63829787234045</v>
+        <v>34.78260869565246</v>
       </c>
       <c r="L572" t="n">
         <v>63.3</v>
@@ -29757,7 +29779,7 @@
         <v>144.9999999999998</v>
       </c>
       <c r="K573" t="n">
-        <v>-5.747126436781535</v>
+        <v>20.83333333333341</v>
       </c>
       <c r="L573" t="n">
         <v>63.42</v>
@@ -29808,7 +29830,7 @@
         <v>145.3999999999998</v>
       </c>
       <c r="K574" t="n">
-        <v>0</v>
+        <v>32.00000000000003</v>
       </c>
       <c r="L574" t="n">
         <v>63.56</v>
@@ -29859,7 +29881,7 @@
         <v>145.7999999999998</v>
       </c>
       <c r="K575" t="n">
-        <v>7.142857142857155</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L575" t="n">
         <v>63.68000000000001</v>
@@ -29910,7 +29932,7 @@
         <v>146.2999999999998</v>
       </c>
       <c r="K576" t="n">
-        <v>8.433734939759059</v>
+        <v>-13.04347826086961</v>
       </c>
       <c r="L576" t="n">
         <v>63.70000000000001</v>
@@ -29961,7 +29983,7 @@
         <v>146.9999999999998</v>
       </c>
       <c r="K577" t="n">
-        <v>-2.272727272727302</v>
+        <v>-18.36734693877546</v>
       </c>
       <c r="L577" t="n">
         <v>63.57000000000001</v>
@@ -30012,7 +30034,7 @@
         <v>147.3999999999998</v>
       </c>
       <c r="K578" t="n">
-        <v>-7.692307692307704</v>
+        <v>-26.92307692307681</v>
       </c>
       <c r="L578" t="n">
         <v>63.44000000000001</v>
@@ -30063,7 +30085,7 @@
         <v>147.4999999999998</v>
       </c>
       <c r="K579" t="n">
-        <v>-11.36363636363635</v>
+        <v>-60.97560975609705</v>
       </c>
       <c r="L579" t="n">
         <v>63.31000000000002</v>
@@ -30114,7 +30136,7 @@
         <v>147.5999999999998</v>
       </c>
       <c r="K580" t="n">
-        <v>-16.27906976744186</v>
+        <v>-51.51515151515098</v>
       </c>
       <c r="L580" t="n">
         <v>63.05000000000001</v>
@@ -30165,7 +30187,7 @@
         <v>147.6999999999998</v>
       </c>
       <c r="K581" t="n">
-        <v>-13.25301204819282</v>
+        <v>-67.74193548387052</v>
       </c>
       <c r="L581" t="n">
         <v>62.87</v>
@@ -30216,7 +30238,7 @@
         <v>148.3999999999998</v>
       </c>
       <c r="K582" t="n">
-        <v>0</v>
+        <v>-29.41176470588231</v>
       </c>
       <c r="L582" t="n">
         <v>62.73</v>
@@ -30267,7 +30289,7 @@
         <v>148.3999999999998</v>
       </c>
       <c r="K583" t="n">
-        <v>2.380952380952421</v>
+        <v>-46.66666666666661</v>
       </c>
       <c r="L583" t="n">
         <v>62.63000000000001</v>
@@ -30318,7 +30340,7 @@
         <v>148.6999999999998</v>
       </c>
       <c r="K584" t="n">
-        <v>-3.529411764705932</v>
+        <v>-44.82758620689661</v>
       </c>
       <c r="L584" t="n">
         <v>62.46</v>
@@ -30369,7 +30391,7 @@
         <v>148.7999999999998</v>
       </c>
       <c r="K585" t="n">
-        <v>0</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L585" t="n">
         <v>62.34</v>
@@ -30420,7 +30442,7 @@
         <v>148.8999999999998</v>
       </c>
       <c r="K586" t="n">
-        <v>-7.500000000000018</v>
+        <v>-5.26315789473698</v>
       </c>
       <c r="L586" t="n">
         <v>62.25999999999999</v>
@@ -30471,7 +30493,7 @@
         <v>149.0999999999998</v>
       </c>
       <c r="K587" t="n">
-        <v>-21.62162162162171</v>
+        <v>5.882352941176692</v>
       </c>
       <c r="L587" t="n">
         <v>62.23</v>
@@ -30522,7 +30544,7 @@
         <v>149.2999999999998</v>
       </c>
       <c r="K588" t="n">
-        <v>-19.44444444444453</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L588" t="n">
         <v>62.21999999999999</v>
@@ -30573,7 +30595,7 @@
         <v>149.4999999999998</v>
       </c>
       <c r="K589" t="n">
-        <v>-23.2876712328768</v>
+        <v>-15.7894736842108</v>
       </c>
       <c r="L589" t="n">
         <v>62.17999999999999</v>
@@ -30624,7 +30646,7 @@
         <v>149.5999999999998</v>
       </c>
       <c r="K590" t="n">
-        <v>-48.38709677419374</v>
+        <v>-15.7894736842108</v>
       </c>
       <c r="L590" t="n">
         <v>62.14</v>
@@ -30675,7 +30697,7 @@
         <v>149.6999999999998</v>
       </c>
       <c r="K591" t="n">
-        <v>-37.03703703703719</v>
+        <v>-69.23076923077154</v>
       </c>
       <c r="L591" t="n">
         <v>62.12</v>
@@ -30726,7 +30748,7 @@
         <v>149.9999999999998</v>
       </c>
       <c r="K592" t="n">
-        <v>-37.03703703703719</v>
+        <v>-37.50000000000089</v>
       </c>
       <c r="L592" t="n">
         <v>62.06</v>
@@ -30777,7 +30799,7 @@
         <v>149.9999999999998</v>
       </c>
       <c r="K593" t="n">
-        <v>-32.00000000000021</v>
+        <v>-23.07692307692367</v>
       </c>
       <c r="L593" t="n">
         <v>62</v>
@@ -30828,7 +30850,7 @@
         <v>150.0999999999998</v>
       </c>
       <c r="K594" t="n">
-        <v>-40.42553191489393</v>
+        <v>-23.07692307692367</v>
       </c>
       <c r="L594" t="n">
         <v>61.98</v>
@@ -30879,7 +30901,7 @@
         <v>150.5999999999998</v>
       </c>
       <c r="K595" t="n">
-        <v>-41.66666666666706</v>
+        <v>-41.17647058823601</v>
       </c>
       <c r="L595" t="n">
         <v>61.90000000000001</v>
@@ -30930,7 +30952,7 @@
         <v>150.5999999999998</v>
       </c>
       <c r="K596" t="n">
-        <v>-34.88372093023293</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L596" t="n">
         <v>61.83000000000002</v>
@@ -30981,7 +31003,7 @@
         <v>151.2999999999998</v>
       </c>
       <c r="K597" t="n">
-        <v>-34.88372093023293</v>
+        <v>-50</v>
       </c>
       <c r="L597" t="n">
         <v>61.71000000000002</v>
@@ -31032,7 +31054,7 @@
         <v>151.8999999999998</v>
       </c>
       <c r="K598" t="n">
-        <v>-11.11111111111125</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L598" t="n">
         <v>61.67000000000002</v>
@@ -31083,7 +31105,7 @@
         <v>152.2999999999998</v>
       </c>
       <c r="K599" t="n">
-        <v>-20.83333333333353</v>
+        <v>-18.5185185185184</v>
       </c>
       <c r="L599" t="n">
         <v>61.61000000000001</v>
@@ -31134,7 +31156,7 @@
         <v>152.2999999999998</v>
       </c>
       <c r="K600" t="n">
-        <v>-19.1489361702129</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L600" t="n">
         <v>61.56000000000002</v>
@@ -31185,7 +31207,7 @@
         <v>152.3999999999998</v>
       </c>
       <c r="K601" t="n">
-        <v>-14.89361702127663</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L601" t="n">
         <v>61.51000000000001</v>
@@ -31236,7 +31258,7 @@
         <v>152.5999999999998</v>
       </c>
       <c r="K602" t="n">
-        <v>-38.09523809523823</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L602" t="n">
         <v>61.41000000000001</v>
@@ -31287,7 +31309,7 @@
         <v>152.7999999999998</v>
       </c>
       <c r="K603" t="n">
-        <v>-31.81818181818195</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L603" t="n">
         <v>61.33000000000002</v>
@@ -31338,7 +31360,7 @@
         <v>152.9999999999998</v>
       </c>
       <c r="K604" t="n">
-        <v>-20.93023255813972</v>
+        <v>-8.333333333333432</v>
       </c>
       <c r="L604" t="n">
         <v>61.26000000000001</v>
@@ -31389,7 +31411,7 @@
         <v>153.0999999999998</v>
       </c>
       <c r="K605" t="n">
-        <v>-20.93023255813972</v>
+        <v>-4.000000000000057</v>
       </c>
       <c r="L605" t="n">
         <v>61.25000000000001</v>
@@ -31440,7 +31462,7 @@
         <v>153.1999999999998</v>
       </c>
       <c r="K606" t="n">
-        <v>-16.27906976744193</v>
+        <v>36.84210526315849</v>
       </c>
       <c r="L606" t="n">
         <v>61.25000000000001</v>
@@ -31491,7 +31513,7 @@
         <v>153.1999999999998</v>
       </c>
       <c r="K607" t="n">
-        <v>-12.19512195121961</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L607" t="n">
         <v>61.32000000000001</v>
@@ -31542,7 +31564,7 @@
         <v>153.4999999999998</v>
       </c>
       <c r="K608" t="n">
-        <v>0</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L608" t="n">
         <v>61.36000000000001</v>
@@ -31593,7 +31615,7 @@
         <v>153.7999999999998</v>
       </c>
       <c r="K609" t="n">
-        <v>-2.325581395348864</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L609" t="n">
         <v>61.41000000000001</v>
@@ -31644,7 +31666,7 @@
         <v>153.7999999999998</v>
       </c>
       <c r="K610" t="n">
-        <v>0</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L610" t="n">
         <v>61.46000000000002</v>
@@ -31695,7 +31717,7 @@
         <v>153.8999999999998</v>
       </c>
       <c r="K611" t="n">
-        <v>0</v>
+        <v>53.84615384615478</v>
       </c>
       <c r="L611" t="n">
         <v>61.51000000000001</v>
@@ -31746,7 +31768,7 @@
         <v>153.9999999999998</v>
       </c>
       <c r="K612" t="n">
-        <v>-9.999999999999964</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L612" t="n">
         <v>61.57000000000001</v>
@@ -31797,7 +31819,7 @@
         <v>153.9999999999998</v>
       </c>
       <c r="K613" t="n">
-        <v>-9.999999999999964</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L613" t="n">
         <v>61.61000000000001</v>
@@ -31848,7 +31870,7 @@
         <v>154.0999999999998</v>
       </c>
       <c r="K614" t="n">
-        <v>-9.999999999999964</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L614" t="n">
         <v>61.64000000000002</v>
@@ -31899,7 +31921,7 @@
         <v>154.0999999999998</v>
       </c>
       <c r="K615" t="n">
-        <v>2.857142857142898</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L615" t="n">
         <v>61.66000000000003</v>
@@ -31950,7 +31972,7 @@
         <v>154.3999999999997</v>
       </c>
       <c r="K616" t="n">
-        <v>10.5263157894737</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L616" t="n">
         <v>61.70000000000002</v>
@@ -32001,7 +32023,7 @@
         <v>154.7999999999998</v>
       </c>
       <c r="K617" t="n">
-        <v>20.00000000000024</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L617" t="n">
         <v>61.70000000000002</v>
@@ -32052,7 +32074,7 @@
         <v>154.7999999999998</v>
       </c>
       <c r="K618" t="n">
-        <v>3.448275862069042</v>
+        <v>0</v>
       </c>
       <c r="L618" t="n">
         <v>61.67000000000003</v>
@@ -32103,7 +32125,7 @@
         <v>155.0999999999998</v>
       </c>
       <c r="K619" t="n">
-        <v>7.142857142857034</v>
+        <v>-23.07692307692371</v>
       </c>
       <c r="L619" t="n">
         <v>61.64000000000002</v>
@@ -32154,7 +32176,7 @@
         <v>155.6999999999998</v>
       </c>
       <c r="K620" t="n">
-        <v>23.52941176470596</v>
+        <v>11.11111111111098</v>
       </c>
       <c r="L620" t="n">
         <v>61.67000000000002</v>
@@ -32205,7 +32227,7 @@
         <v>155.6999999999998</v>
       </c>
       <c r="K621" t="n">
-        <v>21.21212121212119</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L621" t="n">
         <v>61.69000000000001</v>
@@ -32256,7 +32278,7 @@
         <v>156.6999999999998</v>
       </c>
       <c r="K622" t="n">
-        <v>-2.439024390243957</v>
+        <v>-25.92592592592614</v>
       </c>
       <c r="L622" t="n">
         <v>61.62</v>
@@ -32307,7 +32329,7 @@
         <v>156.6999999999998</v>
       </c>
       <c r="K623" t="n">
-        <v>-7.692307692307847</v>
+        <v>-30.769230769231</v>
       </c>
       <c r="L623" t="n">
         <v>61.55</v>
@@ -32358,7 +32380,7 @@
         <v>156.7999999999998</v>
       </c>
       <c r="K624" t="n">
-        <v>-15.78947368421063</v>
+        <v>-33.33333333333368</v>
       </c>
       <c r="L624" t="n">
         <v>61.45999999999999</v>
@@ -32409,7 +32431,7 @@
         <v>156.7999999999998</v>
       </c>
       <c r="K625" t="n">
-        <v>-18.91891891891905</v>
+        <v>-50</v>
       </c>
       <c r="L625" t="n">
         <v>61.36999999999998</v>
@@ -32460,7 +32482,7 @@
         <v>156.7999999999998</v>
       </c>
       <c r="K626" t="n">
-        <v>-22.22222222222238</v>
+        <v>-40.00000000000021</v>
       </c>
       <c r="L626" t="n">
         <v>61.24999999999998</v>
@@ -32511,7 +32533,7 @@
         <v>157.2999999999998</v>
       </c>
       <c r="K627" t="n">
-        <v>-7.317073170731822</v>
+        <v>-12.00000000000017</v>
       </c>
       <c r="L627" t="n">
         <v>61.21999999999997</v>
@@ -32562,7 +32584,7 @@
         <v>157.7999999999998</v>
       </c>
       <c r="K628" t="n">
-        <v>-25.58139534883734</v>
+        <v>-18.51851851851859</v>
       </c>
       <c r="L628" t="n">
         <v>61.13999999999997</v>
@@ -32613,7 +32635,7 @@
         <v>157.7999999999998</v>
       </c>
       <c r="K629" t="n">
-        <v>-20.00000000000025</v>
+        <v>-52.38095238095259</v>
       </c>
       <c r="L629" t="n">
         <v>61.08999999999996</v>
@@ -32664,7 +32686,7 @@
         <v>157.7999999999998</v>
       </c>
       <c r="K630" t="n">
-        <v>-20.00000000000025</v>
+        <v>-52.38095238095259</v>
       </c>
       <c r="L630" t="n">
         <v>60.97999999999996</v>
@@ -32715,7 +32737,7 @@
         <v>157.7999999999998</v>
       </c>
       <c r="K631" t="n">
-        <v>-23.07692307692336</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L631" t="n">
         <v>60.86999999999996</v>
@@ -32766,7 +32788,7 @@
         <v>157.8999999999997</v>
       </c>
       <c r="K632" t="n">
-        <v>-23.07692307692318</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L632" t="n">
         <v>60.84999999999997</v>
@@ -32817,7 +32839,7 @@
         <v>157.8999999999997</v>
       </c>
       <c r="K633" t="n">
-        <v>-23.07692307692318</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L633" t="n">
         <v>60.82999999999997</v>
@@ -32868,7 +32890,7 @@
         <v>158.2999999999998</v>
       </c>
       <c r="K634" t="n">
-        <v>-33.33333333333356</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L634" t="n">
         <v>60.77999999999997</v>
@@ -32919,7 +32941,7 @@
         <v>158.2999999999998</v>
       </c>
       <c r="K635" t="n">
-        <v>-33.33333333333356</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L635" t="n">
         <v>60.72999999999998</v>
@@ -32970,7 +32992,7 @@
         <v>158.4999999999997</v>
       </c>
       <c r="K636" t="n">
-        <v>-46.34146341463418</v>
+        <v>-100.0000000000006</v>
       </c>
       <c r="L636" t="n">
         <v>60.65999999999998</v>
@@ -33021,7 +33043,7 @@
         <v>158.5999999999997</v>
       </c>
       <c r="K637" t="n">
-        <v>-36.84210526315802</v>
+        <v>-75.00000000000088</v>
       </c>
       <c r="L637" t="n">
         <v>60.54999999999999</v>
@@ -33072,7 +33094,7 @@
         <v>158.6999999999997</v>
       </c>
       <c r="K638" t="n">
-        <v>-38.46153846153869</v>
+        <v>-77.77777777777926</v>
       </c>
       <c r="L638" t="n">
         <v>60.48</v>
@@ -33123,7 +33145,7 @@
         <v>158.6999999999997</v>
       </c>
       <c r="K639" t="n">
-        <v>-33.33333333333353</v>
+        <v>-77.77777777777926</v>
       </c>
       <c r="L639" t="n">
         <v>60.41</v>
@@ -33174,7 +33196,7 @@
         <v>158.8999999999997</v>
       </c>
       <c r="K640" t="n">
-        <v>-62.50000000000022</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L640" t="n">
         <v>60.32000000000001</v>
@@ -33225,7 +33247,7 @@
         <v>158.8999999999997</v>
       </c>
       <c r="K641" t="n">
-        <v>-62.50000000000022</v>
+        <v>-80.00000000000043</v>
       </c>
       <c r="L641" t="n">
         <v>60.23</v>
@@ -33276,7 +33298,7 @@
         <v>159.0999999999997</v>
       </c>
       <c r="K642" t="n">
-        <v>-33.33333333333353</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L642" t="n">
         <v>60.17</v>
@@ -33327,7 +33349,7 @@
         <v>159.2999999999997</v>
       </c>
       <c r="K643" t="n">
-        <v>-23.07692307692343</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>60.13</v>
@@ -33378,7 +33400,7 @@
         <v>159.3999999999997</v>
       </c>
       <c r="K644" t="n">
-        <v>-23.07692307692316</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L644" t="n">
         <v>60.12</v>
@@ -33429,7 +33451,7 @@
         <v>159.9999999999997</v>
       </c>
       <c r="K645" t="n">
-        <v>0</v>
+        <v>46.66666666666727</v>
       </c>
       <c r="L645" t="n">
         <v>60.17</v>
@@ -33480,7 +33502,7 @@
         <v>160.2999999999997</v>
       </c>
       <c r="K646" t="n">
-        <v>-8.571428571428561</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L646" t="n">
         <v>60.21</v>
@@ -33531,7 +33553,7 @@
         <v>160.6999999999997</v>
       </c>
       <c r="K647" t="n">
-        <v>-11.76470588235298</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L647" t="n">
         <v>60.27999999999999</v>
@@ -33582,7 +33604,7 @@
         <v>160.6999999999997</v>
       </c>
       <c r="K648" t="n">
-        <v>3.448275862069042</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L648" t="n">
         <v>60.35999999999999</v>
@@ -33633,7 +33655,7 @@
         <v>160.7999999999997</v>
       </c>
       <c r="K649" t="n">
-        <v>6.666666666666825</v>
+        <v>57.89473684210603</v>
       </c>
       <c r="L649" t="n">
         <v>60.44999999999999</v>
@@ -33684,7 +33706,7 @@
         <v>160.9999999999997</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>42.85714285714349</v>
       </c>
       <c r="L650" t="n">
         <v>60.53999999999998</v>
@@ -33735,7 +33757,7 @@
         <v>161.2999999999997</v>
       </c>
       <c r="K651" t="n">
-        <v>8.571428571428763</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L651" t="n">
         <v>60.65999999999999</v>
@@ -33786,7 +33808,7 @@
         <v>161.4999999999997</v>
       </c>
       <c r="K652" t="n">
-        <v>5.55555555555549</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L652" t="n">
         <v>60.73999999999999</v>
@@ -33837,7 +33859,7 @@
         <v>161.4999999999997</v>
       </c>
       <c r="K653" t="n">
-        <v>5.55555555555549</v>
+        <v>33.33333333333322</v>
       </c>
       <c r="L653" t="n">
         <v>60.79999999999999</v>
@@ -33888,7 +33910,7 @@
         <v>161.5999999999997</v>
       </c>
       <c r="K654" t="n">
-        <v>15.15151515151536</v>
+        <v>0</v>
       </c>
       <c r="L654" t="n">
         <v>60.85999999999998</v>
@@ -33939,7 +33961,7 @@
         <v>161.6999999999997</v>
       </c>
       <c r="K655" t="n">
-        <v>17.64705882352972</v>
+        <v>28.57142857142894</v>
       </c>
       <c r="L655" t="n">
         <v>60.86999999999998</v>
@@ -33990,7 +34012,7 @@
         <v>161.7999999999997</v>
       </c>
       <c r="K656" t="n">
-        <v>21.21212121212138</v>
+        <v>-9.090909090909502</v>
       </c>
       <c r="L656" t="n">
         <v>60.89999999999998</v>
@@ -34041,7 +34063,7 @@
         <v>161.9999999999997</v>
       </c>
       <c r="K657" t="n">
-        <v>11.76470588235308</v>
+        <v>-23.07692307692367</v>
       </c>
       <c r="L657" t="n">
         <v>60.86999999999998</v>
@@ -34092,7 +34114,7 @@
         <v>162.0999999999997</v>
       </c>
       <c r="K658" t="n">
-        <v>17.64705882352972</v>
+        <v>-23.07692307692367</v>
       </c>
       <c r="L658" t="n">
         <v>60.84999999999999</v>
@@ -34143,7 +34165,7 @@
         <v>162.1999999999997</v>
       </c>
       <c r="K659" t="n">
-        <v>14.28571428571452</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L659" t="n">
         <v>60.80999999999999</v>
@@ -34194,7 +34216,7 @@
         <v>162.2999999999997</v>
       </c>
       <c r="K660" t="n">
-        <v>17.64705882352986</v>
+        <v>-60.00000000000355</v>
       </c>
       <c r="L660" t="n">
         <v>60.77999999999999</v>
@@ -34245,7 +34267,7 @@
         <v>162.5999999999997</v>
       </c>
       <c r="K661" t="n">
-        <v>8.108108108108372</v>
+        <v>-63.63636363636522</v>
       </c>
       <c r="L661" t="n">
         <v>60.69</v>
@@ -34296,7 +34318,7 @@
         <v>162.6999999999997</v>
       </c>
       <c r="K662" t="n">
-        <v>5.555555555555534</v>
+        <v>-50.00000000000178</v>
       </c>
       <c r="L662" t="n">
         <v>60.63</v>
@@ -34347,7 +34369,7 @@
         <v>163.1999999999997</v>
       </c>
       <c r="K663" t="n">
-        <v>12.82051282051299</v>
+        <v>0</v>
       </c>
       <c r="L663" t="n">
         <v>60.61999999999999</v>
@@ -34398,7 +34420,7 @@
         <v>163.4999999999997</v>
       </c>
       <c r="K664" t="n">
-        <v>21.95121951219527</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L664" t="n">
         <v>60.65</v>
@@ -34449,7 +34471,7 @@
         <v>164.0999999999997</v>
       </c>
       <c r="K665" t="n">
-        <v>-7.317073170731699</v>
+        <v>-13.04347826086954</v>
       </c>
       <c r="L665" t="n">
         <v>60.61</v>
@@ -34500,7 +34522,7 @@
         <v>164.9999999999997</v>
       </c>
       <c r="K666" t="n">
-        <v>19.1489361702129</v>
+        <v>26.66666666666657</v>
       </c>
       <c r="L666" t="n">
         <v>60.67</v>
@@ -34551,7 +34573,7 @@
         <v>165.7999999999997</v>
       </c>
       <c r="K667" t="n">
-        <v>-5.882352941176487</v>
+        <v>-2.702702702702749</v>
       </c>
       <c r="L667" t="n">
         <v>60.67</v>
@@ -34602,7 +34624,7 @@
         <v>166.3999999999997</v>
       </c>
       <c r="K668" t="n">
-        <v>5.26315789473698</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L668" t="n">
         <v>60.72000000000001</v>
@@ -34653,7 +34675,7 @@
         <v>166.8999999999997</v>
       </c>
       <c r="K669" t="n">
-        <v>-4.91803278688525</v>
+        <v>4.347826086956589</v>
       </c>
       <c r="L669" t="n">
         <v>60.73</v>
@@ -34704,7 +34726,7 @@
         <v>166.8999999999997</v>
       </c>
       <c r="K670" t="n">
-        <v>-1.694915254237207</v>
+        <v>11.62790697674423</v>
       </c>
       <c r="L670" t="n">
         <v>60.75000000000001</v>
@@ -34755,7 +34777,7 @@
         <v>167.3999999999997</v>
       </c>
       <c r="K671" t="n">
-        <v>1.639344262295122</v>
+        <v>19.14893617021293</v>
       </c>
       <c r="L671" t="n">
         <v>60.85000000000001</v>
@@ -34806,7 +34828,7 @@
         <v>167.5999999999997</v>
       </c>
       <c r="K672" t="n">
-        <v>1.639344262295114</v>
+        <v>4.545454545454604</v>
       </c>
       <c r="L672" t="n">
         <v>60.92000000000002</v>
@@ -34857,7 +34879,7 @@
         <v>168.0999999999997</v>
       </c>
       <c r="K673" t="n">
-        <v>9.090909090909159</v>
+        <v>8.695652173913023</v>
       </c>
       <c r="L673" t="n">
         <v>60.99000000000002</v>
@@ -34908,7 +34930,7 @@
         <v>168.3999999999997</v>
       </c>
       <c r="K674" t="n">
-        <v>14.70588235294121</v>
+        <v>30.23255813953474</v>
       </c>
       <c r="L674" t="n">
         <v>61.06000000000002</v>
@@ -34959,7 +34981,7 @@
         <v>168.5999999999997</v>
       </c>
       <c r="K675" t="n">
-        <v>15.94202898550732</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L675" t="n">
         <v>61.21000000000002</v>
@@ -35010,7 +35032,7 @@
         <v>169.0999999999997</v>
       </c>
       <c r="K676" t="n">
-        <v>23.2876712328768</v>
+        <v>57.57575757575734</v>
       </c>
       <c r="L676" t="n">
         <v>61.32000000000001</v>
@@ -35061,7 +35083,7 @@
         <v>169.5999999999997</v>
       </c>
       <c r="K677" t="n">
-        <v>31.57894736842105</v>
+        <v>56.24999999999961</v>
       </c>
       <c r="L677" t="n">
         <v>61.56000000000002</v>
@@ -35112,7 +35134,7 @@
         <v>170.0999999999997</v>
       </c>
       <c r="K678" t="n">
-        <v>34.99999999999996</v>
+        <v>87.49999999999945</v>
       </c>
       <c r="L678" t="n">
         <v>61.79000000000001</v>
@@ -35163,7 +35185,7 @@
         <v>171.0999999999997</v>
       </c>
       <c r="K679" t="n">
-        <v>21.34831460674155</v>
+        <v>42.85714285714262</v>
       </c>
       <c r="L679" t="n">
         <v>61.97000000000001</v>
@@ -35214,7 +35236,7 @@
         <v>171.5999999999997</v>
       </c>
       <c r="K680" t="n">
-        <v>26.88172043010749</v>
+        <v>42.85714285714262</v>
       </c>
       <c r="L680" t="n">
         <v>62.2</v>
@@ -35265,7 +35287,7 @@
         <v>172.0999999999997</v>
       </c>
       <c r="K681" t="n">
-        <v>24.21052631578944</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L681" t="n">
         <v>62.33</v>
@@ -35316,7 +35338,7 @@
         <v>172.4999999999997</v>
       </c>
       <c r="K682" t="n">
-        <v>18.36734693877553</v>
+        <v>13.63636363636365</v>
       </c>
       <c r="L682" t="n">
         <v>62.44</v>
@@ -35367,7 +35389,7 @@
         <v>172.5999999999997</v>
       </c>
       <c r="K683" t="n">
-        <v>14.89361702127665</v>
+        <v>9.523809523809684</v>
       </c>
       <c r="L683" t="n">
         <v>62.51000000000001</v>
@@ -35418,7 +35440,7 @@
         <v>172.7999999999997</v>
       </c>
       <c r="K684" t="n">
-        <v>9.677419354838712</v>
+        <v>0</v>
       </c>
       <c r="L684" t="n">
         <v>62.53000000000001</v>
@@ -35469,7 +35491,7 @@
         <v>172.9999999999997</v>
       </c>
       <c r="K685" t="n">
-        <v>14.60674157303371</v>
+        <v>-17.94871794871813</v>
       </c>
       <c r="L685" t="n">
         <v>62.51000000000001</v>
@@ -35520,7 +35542,7 @@
         <v>172.9999999999997</v>
       </c>
       <c r="K686" t="n">
-        <v>5</v>
+        <v>-35.29411764705914</v>
       </c>
       <c r="L686" t="n">
         <v>62.44</v>
@@ -35571,7 +35593,7 @@
         <v>173.0999999999997</v>
       </c>
       <c r="K687" t="n">
-        <v>15.06849315068499</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L687" t="n">
         <v>62.31</v>
@@ -35622,7 +35644,7 @@
         <v>173.2999999999996</v>
       </c>
       <c r="K688" t="n">
-        <v>10.14492753623186</v>
+        <v>-27.27272727272783</v>
       </c>
       <c r="L688" t="n">
         <v>62.15</v>
@@ -35673,7 +35695,7 @@
         <v>173.2999999999996</v>
       </c>
       <c r="K689" t="n">
-        <v>18.75</v>
+        <v>-64.70588235294278</v>
       </c>
       <c r="L689" t="n">
         <v>62.09</v>
@@ -35724,7 +35746,7 @@
         <v>173.4999999999996</v>
       </c>
       <c r="K690" t="n">
-        <v>15.15151515151523</v>
+        <v>-57.14285714285903</v>
       </c>
       <c r="L690" t="n">
         <v>61.96</v>
@@ -35775,7 +35797,7 @@
         <v>174.0999999999996</v>
       </c>
       <c r="K691" t="n">
-        <v>16.41791044776121</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L691" t="n">
         <v>61.94</v>
@@ -35826,7 +35848,7 @@
         <v>174.4999999999996</v>
       </c>
       <c r="K692" t="n">
-        <v>13.04347826086964</v>
+        <v>-15.78947368421117</v>
       </c>
       <c r="L692" t="n">
         <v>61.91999999999999</v>
@@ -35877,7 +35899,7 @@
         <v>175.0999999999996</v>
       </c>
       <c r="K693" t="n">
-        <v>14.2857142857144</v>
+        <v>21.73913043478304</v>
       </c>
       <c r="L693" t="n">
         <v>61.94999999999999</v>
@@ -35928,7 +35950,7 @@
         <v>175.1999999999996</v>
       </c>
       <c r="K694" t="n">
-        <v>11.76470588235313</v>
+        <v>36.36363636363721</v>
       </c>
       <c r="L694" t="n">
         <v>62.00999999999999</v>
@@ -35979,7 +36001,7 @@
         <v>175.2999999999996</v>
       </c>
       <c r="K695" t="n">
-        <v>7.462686567164255</v>
+        <v>30.43478260869638</v>
       </c>
       <c r="L695" t="n">
         <v>62.08</v>
@@ -36030,7 +36052,7 @@
         <v>175.4999999999996</v>
       </c>
       <c r="K696" t="n">
-        <v>3.125000000000083</v>
+        <v>41.66666666666756</v>
       </c>
       <c r="L696" t="n">
         <v>62.17</v>
@@ -36081,7 +36103,7 @@
         <v>175.5999999999996</v>
       </c>
       <c r="K697" t="n">
-        <v>-6.666666666666737</v>
+        <v>30.43478260869638</v>
       </c>
       <c r="L697" t="n">
         <v>62.26000000000001</v>
@@ -36132,7 +36154,7 @@
         <v>175.7999999999996</v>
       </c>
       <c r="K698" t="n">
-        <v>-19.29824561403534</v>
+        <v>20.00000000000023</v>
       </c>
       <c r="L698" t="n">
         <v>62.31</v>
@@ -36183,7 +36205,7 @@
         <v>176.2999999999996</v>
       </c>
       <c r="K699" t="n">
-        <v>7.692307692307766</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L699" t="n">
         <v>62.41</v>
@@ -36234,7 +36256,7 @@
         <v>176.3999999999996</v>
       </c>
       <c r="K700" t="n">
-        <v>0</v>
+        <v>30.434782608696</v>
       </c>
       <c r="L700" t="n">
         <v>62.54</v>
@@ -36285,7 +36307,7 @@
         <v>176.8999999999996</v>
       </c>
       <c r="K701" t="n">
-        <v>20.83333333333365</v>
+        <v>66.66666666666737</v>
       </c>
       <c r="L701" t="n">
         <v>62.66</v>
@@ -36336,7 +36358,7 @@
         <v>177.2999999999996</v>
       </c>
       <c r="K702" t="n">
-        <v>37.50000000000052</v>
+        <v>63.6363636363639</v>
       </c>
       <c r="L702" t="n">
         <v>62.86</v>
@@ -36387,7 +36409,7 @@
         <v>177.2999999999996</v>
       </c>
       <c r="K703" t="n">
-        <v>36.17021276595788</v>
+        <v>61.90476190476194</v>
       </c>
       <c r="L703" t="n">
         <v>63</v>
@@ -36438,7 +36460,7 @@
         <v>177.8999999999996</v>
       </c>
       <c r="K704" t="n">
-        <v>25.49019607843163</v>
+        <v>30.76923076923073</v>
       </c>
       <c r="L704" t="n">
         <v>63.06999999999999</v>
@@ -36489,7 +36511,7 @@
         <v>177.9999999999996</v>
       </c>
       <c r="K705" t="n">
-        <v>28.00000000000043</v>
+        <v>20</v>
       </c>
       <c r="L705" t="n">
         <v>63.14</v>
@@ -36540,7 +36562,7 @@
         <v>177.9999999999996</v>
       </c>
       <c r="K706" t="n">
-        <v>28.00000000000043</v>
+        <v>25</v>
       </c>
       <c r="L706" t="n">
         <v>63.19</v>
@@ -36591,7 +36613,7 @@
         <v>178.1999999999996</v>
       </c>
       <c r="K707" t="n">
-        <v>33.33333333333366</v>
+        <v>41.66666666666706</v>
       </c>
       <c r="L707" t="n">
         <v>63.27</v>
@@ -36642,7 +36664,7 @@
         <v>178.2999999999996</v>
       </c>
       <c r="K708" t="n">
-        <v>32.0000000000004</v>
+        <v>30.0000000000005</v>
       </c>
       <c r="L708" t="n">
         <v>63.38</v>
@@ -36693,7 +36715,7 @@
         <v>178.7999999999996</v>
       </c>
       <c r="K709" t="n">
-        <v>38.1818181818186</v>
+        <v>41.66666666666706</v>
       </c>
       <c r="L709" t="n">
         <v>63.48999999999999</v>
@@ -36744,7 +36766,7 @@
         <v>179.2999999999996</v>
       </c>
       <c r="K710" t="n">
-        <v>48.27586206896585</v>
+        <v>41.66666666666706</v>
       </c>
       <c r="L710" t="n">
         <v>63.64</v>
@@ -36795,7 +36817,7 @@
         <v>179.6999999999996</v>
       </c>
       <c r="K711" t="n">
-        <v>46.42857142857186</v>
+        <v>41.66666666666735</v>
       </c>
       <c r="L711" t="n">
         <v>63.77999999999999</v>
@@ -36846,7 +36868,7 @@
         <v>181.1999999999996</v>
       </c>
       <c r="K712" t="n">
-        <v>22.38805970149267</v>
+        <v>-12.82051282051289</v>
       </c>
       <c r="L712" t="n">
         <v>63.73</v>
@@ -36897,7 +36919,7 @@
         <v>181.9999999999996</v>
       </c>
       <c r="K713" t="n">
-        <v>24.63768115942041</v>
+        <v>21.95121951219529</v>
       </c>
       <c r="L713" t="n">
         <v>63.76000000000001</v>
@@ -36948,7 +36970,7 @@
         <v>182.3999999999996</v>
       </c>
       <c r="K714" t="n">
-        <v>27.77777777777784</v>
+        <v>31.81818181818179</v>
       </c>
       <c r="L714" t="n">
         <v>63.89000000000001</v>
@@ -36999,7 +37021,7 @@
         <v>182.7999999999996</v>
       </c>
       <c r="K715" t="n">
-        <v>22.66666666666688</v>
+        <v>20.83333333333353</v>
       </c>
       <c r="L715" t="n">
         <v>63.99000000000001</v>
@@ -37050,7 +37072,7 @@
         <v>183.2999999999996</v>
       </c>
       <c r="K716" t="n">
-        <v>25.64102564102579</v>
+        <v>25.49019607843163</v>
       </c>
       <c r="L716" t="n">
         <v>64.14000000000001</v>
@@ -37101,7 +37123,7 @@
         <v>183.4999999999995</v>
       </c>
       <c r="K717" t="n">
-        <v>24.05063291139254</v>
+        <v>19.23076923076938</v>
       </c>
       <c r="L717" t="n">
         <v>64.25000000000001</v>
@@ -37152,7 +37174,7 @@
         <v>184.1999999999995</v>
       </c>
       <c r="K718" t="n">
-        <v>33.3333333333337</v>
+        <v>22.22222222222248</v>
       </c>
       <c r="L718" t="n">
         <v>64.42000000000002</v>
@@ -37203,7 +37225,7 @@
         <v>184.7999999999996</v>
       </c>
       <c r="K719" t="n">
-        <v>20.00000000000009</v>
+        <v>1.818181818181724</v>
       </c>
       <c r="L719" t="n">
         <v>64.48000000000002</v>
@@ -37254,7 +37276,7 @@
         <v>184.8999999999996</v>
       </c>
       <c r="K720" t="n">
-        <v>17.64705882352953</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L720" t="n">
         <v>64.48000000000002</v>
@@ -37305,7 +37327,7 @@
         <v>185.1999999999995</v>
       </c>
       <c r="K721" t="n">
-        <v>15.66265060240974</v>
+        <v>35.00000000000046</v>
       </c>
       <c r="L721" t="n">
         <v>64.47000000000001</v>
@@ -37356,7 +37378,7 @@
         <v>185.4999999999995</v>
       </c>
       <c r="K722" t="n">
-        <v>14.63414634146348</v>
+        <v>25.71428571428589</v>
       </c>
       <c r="L722" t="n">
         <v>64.64000000000001</v>
@@ -37407,7 +37429,7 @@
         <v>185.8999999999995</v>
       </c>
       <c r="K723" t="n">
-        <v>9.302325581395497</v>
+        <v>2.857142857143147</v>
       </c>
       <c r="L723" t="n">
         <v>64.69000000000003</v>
@@ -37458,7 +37480,7 @@
         <v>185.9999999999995</v>
       </c>
       <c r="K724" t="n">
-        <v>18.51851851851873</v>
+        <v>18.75000000000006</v>
       </c>
       <c r="L724" t="n">
         <v>64.71000000000001</v>
@@ -37509,7 +37531,7 @@
         <v>185.9999999999995</v>
       </c>
       <c r="K725" t="n">
-        <v>20.00000000000014</v>
+        <v>3.703703703703548</v>
       </c>
       <c r="L725" t="n">
         <v>64.77000000000001</v>
@@ -37560,7 +37582,7 @@
         <v>186.5999999999995</v>
       </c>
       <c r="K726" t="n">
-        <v>25.58139534883751</v>
+        <v>29.03225806451663</v>
       </c>
       <c r="L726" t="n">
         <v>64.84</v>
@@ -37611,7 +37633,7 @@
         <v>186.9999999999995</v>
       </c>
       <c r="K727" t="n">
-        <v>27.27272727272758</v>
+        <v>21.42857142857157</v>
       </c>
       <c r="L727" t="n">
         <v>64.97</v>
@@ -37662,7 +37684,7 @@
         <v>187.2999999999995</v>
       </c>
       <c r="K728" t="n">
-        <v>28.8888888888891</v>
+        <v>60.00000000000136</v>
       </c>
       <c r="L728" t="n">
         <v>65.05999999999999</v>
@@ -37713,7 +37735,7 @@
         <v>187.8999999999995</v>
       </c>
       <c r="K729" t="n">
-        <v>29.6703296703299</v>
+        <v>73.33333333333412</v>
       </c>
       <c r="L729" t="n">
         <v>65.27</v>
@@ -37764,7 +37786,7 @@
         <v>188.2999999999995</v>
       </c>
       <c r="K730" t="n">
-        <v>20.0000000000001</v>
+        <v>48.38709677419364</v>
       </c>
       <c r="L730" t="n">
         <v>65.44999999999999</v>
@@ -37815,7 +37837,7 @@
         <v>188.5999999999995</v>
       </c>
       <c r="K731" t="n">
-        <v>12.3595505617978</v>
+        <v>29.03225806451663</v>
       </c>
       <c r="L731" t="n">
         <v>65.56999999999999</v>
@@ -37866,7 +37888,7 @@
         <v>188.9999999999995</v>
       </c>
       <c r="K732" t="n">
-        <v>38.46153846153892</v>
+        <v>54.83870967741955</v>
       </c>
       <c r="L732" t="n">
         <v>65.69999999999999</v>
@@ -37917,7 +37939,7 @@
         <v>189.5999999999995</v>
       </c>
       <c r="K733" t="n">
-        <v>21.05263157894754</v>
+        <v>27.77777777777782</v>
       </c>
       <c r="L733" t="n">
         <v>65.80999999999997</v>
@@ -37968,7 +37990,7 @@
         <v>189.6999999999995</v>
       </c>
       <c r="K734" t="n">
-        <v>15.0684931506852</v>
+        <v>24.32432432432455</v>
       </c>
       <c r="L734" t="n">
         <v>65.89999999999999</v>
@@ -38019,7 +38041,7 @@
         <v>189.7999999999995</v>
       </c>
       <c r="K735" t="n">
-        <v>22.85714285714296</v>
+        <v>12.49999999999978</v>
       </c>
       <c r="L735" t="n">
         <v>65.99999999999999</v>
@@ -38070,7 +38092,7 @@
         <v>189.9999999999995</v>
       </c>
       <c r="K736" t="n">
-        <v>13.43283582089553</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L736" t="n">
         <v>66.02</v>
@@ -38121,7 +38143,7 @@
         <v>190.0999999999995</v>
       </c>
       <c r="K737" t="n">
-        <v>15.1515151515153</v>
+        <v>-21.42857142857136</v>
       </c>
       <c r="L737" t="n">
         <v>65.98999999999999</v>
@@ -38172,7 +38194,7 @@
         <v>190.3999999999995</v>
       </c>
       <c r="K738" t="n">
-        <v>0</v>
+        <v>-60.00000000000136</v>
       </c>
       <c r="L738" t="n">
         <v>65.90000000000001</v>
@@ -38223,7 +38245,7 @@
         <v>190.3999999999995</v>
       </c>
       <c r="K739" t="n">
-        <v>10.71428571428604</v>
+        <v>-52.38095238095367</v>
       </c>
       <c r="L739" t="n">
         <v>65.75</v>
@@ -38274,7 +38296,7 @@
         <v>191.2999999999995</v>
       </c>
       <c r="K740" t="n">
-        <v>-3.125000000000083</v>
+        <v>-62.962962962964</v>
       </c>
       <c r="L740" t="n">
         <v>65.55</v>
@@ -38325,7 +38347,7 @@
         <v>191.5999999999995</v>
       </c>
       <c r="K741" t="n">
-        <v>-3.125000000000083</v>
+        <v>-69.23076923077134</v>
       </c>
       <c r="L741" t="n">
         <v>65.41</v>
@@ -38376,7 +38398,7 @@
         <v>191.7999999999994</v>
       </c>
       <c r="K742" t="n">
-        <v>-4.761904761904794</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L742" t="n">
         <v>65.25</v>
@@ -38427,7 +38449,7 @@
         <v>191.8999999999994</v>
       </c>
       <c r="K743" t="n">
-        <v>0</v>
+        <v>-45.45454545454686</v>
       </c>
       <c r="L743" t="n">
         <v>65.14000000000001</v>
@@ -38478,7 +38500,7 @@
         <v>192.3999999999994</v>
       </c>
       <c r="K744" t="n">
-        <v>6.250000000000167</v>
+        <v>-23.07692307692341</v>
       </c>
       <c r="L744" t="n">
         <v>65.09</v>
@@ -38529,7 +38551,7 @@
         <v>193.1999999999994</v>
       </c>
       <c r="K745" t="n">
-        <v>-5.555555555555512</v>
+        <v>-37.50000000000044</v>
       </c>
       <c r="L745" t="n">
         <v>64.95000000000002</v>
@@ -38580,7 +38602,7 @@
         <v>194.0999999999994</v>
       </c>
       <c r="K746" t="n">
-        <v>-1.333333333333467</v>
+        <v>-5.000000000000178</v>
       </c>
       <c r="L746" t="n">
         <v>64.92</v>
@@ -38631,7 +38653,7 @@
         <v>194.1999999999994</v>
       </c>
       <c r="K747" t="n">
-        <v>-5.55555555555549</v>
+        <v>5.26315789473698</v>
       </c>
       <c r="L747" t="n">
         <v>64.91</v>
@@ -38682,7 +38704,7 @@
         <v>194.3999999999994</v>
       </c>
       <c r="K748" t="n">
-        <v>-7.042253521126851</v>
+        <v>9.999999999999929</v>
       </c>
       <c r="L748" t="n">
         <v>64.95</v>
@@ -38733,7 +38755,7 @@
         <v>194.9999999999994</v>
       </c>
       <c r="K749" t="n">
-        <v>-23.94366197183143</v>
+        <v>18.91891891891935</v>
       </c>
       <c r="L749" t="n">
         <v>64.92999999999999</v>
@@ -38784,7 +38806,7 @@
         <v>195.3999999999994</v>
       </c>
       <c r="K750" t="n">
-        <v>-23.94366197183143</v>
+        <v>0</v>
       </c>
       <c r="L750" t="n">
         <v>64.96000000000001</v>
@@ -38835,7 +38857,7 @@
         <v>195.7999999999994</v>
       </c>
       <c r="K751" t="n">
-        <v>-25.00000000000039</v>
+        <v>-15.00000000000007</v>
       </c>
       <c r="L751" t="n">
         <v>64.92</v>
@@ -38886,7 +38908,7 @@
         <v>196.6999999999994</v>
       </c>
       <c r="K752" t="n">
-        <v>-16.88311688311737</v>
+        <v>8.333333333333284</v>
       </c>
       <c r="L752" t="n">
         <v>64.95000000000002</v>
@@ -38937,7 +38959,7 @@
         <v>196.8999999999994</v>
       </c>
       <c r="K753" t="n">
-        <v>-12.32876712328782</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L753" t="n">
         <v>64.97</v>
@@ -38988,7 +39010,7 @@
         <v>197.0999999999993</v>
       </c>
       <c r="K754" t="n">
-        <v>-13.51351351351381</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L754" t="n">
         <v>64.92</v>
@@ -39039,7 +39061,7 @@
         <v>197.1999999999994</v>
       </c>
       <c r="K755" t="n">
-        <v>-16.21621621621655</v>
+        <v>-22.58064516129066</v>
       </c>
       <c r="L755" t="n">
         <v>64.94000000000001</v>
@@ -39090,7 +39112,7 @@
         <v>197.1999999999994</v>
       </c>
       <c r="K756" t="n">
-        <v>-13.88888888888913</v>
+        <v>-26.66666666666755</v>
       </c>
       <c r="L756" t="n">
         <v>64.87000000000002</v>
@@ -39141,7 +39163,7 @@
         <v>197.1999999999994</v>
       </c>
       <c r="K757" t="n">
-        <v>-12.67605633802846</v>
+        <v>-35.71428571428629</v>
       </c>
       <c r="L757" t="n">
         <v>64.79000000000002</v>
@@ -39192,7 +39214,7 @@
         <v>197.1999999999994</v>
       </c>
       <c r="K758" t="n">
-        <v>-8.823529411764964</v>
+        <v>-18.18181818181877</v>
       </c>
       <c r="L758" t="n">
         <v>64.69000000000003</v>
@@ -39243,7 +39265,7 @@
         <v>197.4999999999994</v>
       </c>
       <c r="K759" t="n">
-        <v>-12.67605633802841</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L759" t="n">
         <v>64.62000000000002</v>
@@ -39294,7 +39316,7 @@
         <v>197.7999999999994</v>
       </c>
       <c r="K760" t="n">
-        <v>4.615384615384633</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L760" t="n">
         <v>64.62000000000002</v>
@@ -39345,7 +39367,7 @@
         <v>197.9999999999994</v>
       </c>
       <c r="K761" t="n">
-        <v>-3.124999999999861</v>
+        <v>-53.8461538461525</v>
       </c>
       <c r="L761" t="n">
         <v>64.64000000000001</v>
@@ -39396,7 +39418,7 @@
         <v>198.0999999999994</v>
       </c>
       <c r="K762" t="n">
-        <v>-4.761904761904773</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L762" t="n">
         <v>64.58000000000001</v>
@@ -39447,7 +39469,7 @@
         <v>198.8999999999994</v>
       </c>
       <c r="K763" t="n">
-        <v>8.571428571428594</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L763" t="n">
         <v>64.62</v>
@@ -39498,7 +39520,7 @@
         <v>199.0999999999993</v>
       </c>
       <c r="K764" t="n">
-        <v>-1.492537313432985</v>
+        <v>26.31578947368453</v>
       </c>
       <c r="L764" t="n">
         <v>64.66</v>
@@ -39549,7 +39571,7 @@
         <v>200.0999999999993</v>
       </c>
       <c r="K765" t="n">
-        <v>24.63768115942041</v>
+        <v>51.72413793103489</v>
       </c>
       <c r="L765" t="n">
         <v>64.81</v>
@@ -39600,7 +39622,7 @@
         <v>200.2999999999993</v>
       </c>
       <c r="K766" t="n">
-        <v>9.677419354838953</v>
+        <v>41.93548387096857</v>
       </c>
       <c r="L766" t="n">
         <v>64.94</v>
@@ -39651,7 +39673,7 @@
         <v>200.6999999999993</v>
       </c>
       <c r="K767" t="n">
-        <v>13.84615384615396</v>
+        <v>48.57142857142944</v>
       </c>
       <c r="L767" t="n">
         <v>65.10999999999999</v>
@@ -39702,7 +39724,7 @@
         <v>201.0999999999993</v>
       </c>
       <c r="K768" t="n">
-        <v>4.47761194029876</v>
+        <v>44.4444444444458</v>
       </c>
       <c r="L768" t="n">
         <v>65.23999999999998</v>
@@ -39753,7 +39775,7 @@
         <v>201.3999999999993</v>
       </c>
       <c r="K769" t="n">
-        <v>18.75000000000036</v>
+        <v>44.4444444444458</v>
       </c>
       <c r="L769" t="n">
         <v>65.42999999999999</v>
@@ -39804,7 +39826,7 @@
         <v>201.5999999999993</v>
       </c>
       <c r="K770" t="n">
-        <v>22.58064516129087</v>
+        <v>44.44444444444541</v>
       </c>
       <c r="L770" t="n">
         <v>65.56999999999999</v>
@@ -39855,7 +39877,7 @@
         <v>202.0999999999993</v>
       </c>
       <c r="K771" t="n">
-        <v>20.63492063492092</v>
+        <v>25.00000000000053</v>
       </c>
       <c r="L771" t="n">
         <v>65.67999999999999</v>
@@ -39906,7 +39928,7 @@
         <v>202.2999999999993</v>
       </c>
       <c r="K772" t="n">
-        <v>3.57142857142868</v>
+        <v>0</v>
       </c>
       <c r="L772" t="n">
         <v>65.75999999999999</v>
@@ -39957,7 +39979,7 @@
         <v>202.2999999999993</v>
       </c>
       <c r="K773" t="n">
-        <v>7.407407407407359</v>
+        <v>6.250000000000222</v>
       </c>
       <c r="L773" t="n">
         <v>65.75999999999999</v>
@@ -40008,7 +40030,7 @@
         <v>203.0999999999993</v>
       </c>
       <c r="K774" t="n">
-        <v>23.33333333333341</v>
+        <v>0</v>
       </c>
       <c r="L774" t="n">
         <v>65.85999999999999</v>
@@ -40059,7 +40081,7 @@
         <v>203.5999999999993</v>
       </c>
       <c r="K775" t="n">
-        <v>15.62500000000019</v>
+        <v>-9.090909090909561</v>
       </c>
       <c r="L775" t="n">
         <v>65.80999999999999</v>
@@ -40110,7 +40132,7 @@
         <v>204.0999999999993</v>
       </c>
       <c r="K776" t="n">
-        <v>21.73913043478286</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L776" t="n">
         <v>65.83</v>
@@ -40161,7 +40183,7 @@
         <v>204.1999999999993</v>
       </c>
       <c r="K777" t="n">
-        <v>20.00000000000033</v>
+        <v>3.225806451612725</v>
       </c>
       <c r="L777" t="n">
         <v>65.8</v>
@@ -40212,7 +40234,7 @@
         <v>204.3999999999993</v>
       </c>
       <c r="K778" t="n">
-        <v>16.66666666666686</v>
+        <v>-13.33333333333352</v>
       </c>
       <c r="L778" t="n">
         <v>65.78999999999999</v>
@@ -40263,7 +40285,7 @@
         <v>204.4999999999993</v>
       </c>
       <c r="K779" t="n">
-        <v>22.85714285714316</v>
+        <v>-3.448275862068729</v>
       </c>
       <c r="L779" t="n">
         <v>65.75999999999999</v>
@@ -40314,7 +40336,7 @@
         <v>204.7999999999993</v>
       </c>
       <c r="K780" t="n">
-        <v>14.2857142857144</v>
+        <v>3.703703703703431</v>
       </c>
       <c r="L780" t="n">
         <v>65.72</v>
@@ -40365,7 +40387,7 @@
         <v>206.1999999999993</v>
       </c>
       <c r="K781" t="n">
-        <v>31.70731707317082</v>
+        <v>43.58974358974297</v>
       </c>
       <c r="L781" t="n">
         <v>65.86999999999999</v>
@@ -40416,7 +40438,7 @@
         <v>207.5999999999993</v>
       </c>
       <c r="K782" t="n">
-        <v>41.05263157894755</v>
+        <v>58.49056603773526</v>
       </c>
       <c r="L782" t="n">
         <v>66.17999999999999</v>
@@ -40467,7 +40489,7 @@
         <v>207.6999999999994</v>
       </c>
       <c r="K783" t="n">
-        <v>34.09090909090905</v>
+        <v>47.82608695652097</v>
       </c>
       <c r="L783" t="n">
         <v>66.47999999999999</v>
@@ -40518,7 +40540,7 @@
         <v>207.6999999999994</v>
       </c>
       <c r="K784" t="n">
-        <v>37.20930232558133</v>
+        <v>65.85365853658416</v>
       </c>
       <c r="L784" t="n">
         <v>66.69999999999999</v>
@@ -40569,7 +40591,7 @@
         <v>208.9999999999994</v>
       </c>
       <c r="K785" t="n">
-        <v>39.32584269662907</v>
+        <v>71.42857142857009</v>
       </c>
       <c r="L785" t="n">
         <v>67.09999999999999</v>
@@ -40620,7 +40642,7 @@
         <v>209.6999999999994</v>
       </c>
       <c r="K786" t="n">
-        <v>31.91489361702116</v>
+        <v>52.72727272727201</v>
       </c>
       <c r="L786" t="n">
         <v>67.37999999999998</v>
@@ -40671,7 +40693,7 @@
         <v>212.6999999999994</v>
       </c>
       <c r="K787" t="n">
-        <v>46.66666666666652</v>
+        <v>73.49397590361396</v>
       </c>
       <c r="L787" t="n">
         <v>67.96999999999998</v>
@@ -40722,7 +40744,7 @@
         <v>213.4999999999994</v>
       </c>
       <c r="K788" t="n">
-        <v>41.93548387096735</v>
+        <v>57.77777777777728</v>
       </c>
       <c r="L788" t="n">
         <v>68.49999999999999</v>
@@ -40773,7 +40795,7 @@
         <v>214.0999999999994</v>
       </c>
       <c r="K789" t="n">
-        <v>33.85826771653521</v>
+        <v>52.68817204301058</v>
       </c>
       <c r="L789" t="n">
         <v>68.95999999999999</v>
@@ -40824,7 +40846,7 @@
         <v>214.2999999999994</v>
       </c>
       <c r="K790" t="n">
-        <v>33.85826771653514</v>
+        <v>40.74074074074045</v>
       </c>
       <c r="L790" t="n">
         <v>69.42999999999998</v>
@@ -40875,7 +40897,7 @@
         <v>214.7999999999994</v>
       </c>
       <c r="K791" t="n">
-        <v>33.85826771653514</v>
+        <v>19.4444444444442</v>
       </c>
       <c r="L791" t="n">
         <v>69.70999999999998</v>
@@ -40926,7 +40948,7 @@
         <v>216.0999999999994</v>
       </c>
       <c r="K792" t="n">
-        <v>23.18840579710126</v>
+        <v>2.380952380952405</v>
       </c>
       <c r="L792" t="n">
         <v>69.71999999999998</v>
@@ -40977,7 +40999,7 @@
         <v>216.3999999999994</v>
       </c>
       <c r="K793" t="n">
-        <v>20.56737588652467</v>
+        <v>-1.14942528735625</v>
       </c>
       <c r="L793" t="n">
         <v>69.70999999999999</v>
@@ -41028,7 +41050,7 @@
         <v>216.5999999999994</v>
       </c>
       <c r="K794" t="n">
-        <v>14.074074074074</v>
+        <v>-21.05263157894723</v>
       </c>
       <c r="L794" t="n">
         <v>69.67999999999999</v>
@@ -41079,7 +41101,7 @@
         <v>217.1999999999994</v>
       </c>
       <c r="K795" t="n">
-        <v>22.05882352941159</v>
+        <v>-4.000000000000136</v>
       </c>
       <c r="L795" t="n">
         <v>69.58</v>
@@ -41130,7 +41152,7 @@
         <v>218.4999999999994</v>
       </c>
       <c r="K796" t="n">
-        <v>26.38888888888875</v>
+        <v>-34.48275862068942</v>
       </c>
       <c r="L796" t="n">
         <v>69.67999999999999</v>
@@ -41181,7 +41203,7 @@
         <v>218.7999999999994</v>
       </c>
       <c r="K797" t="n">
-        <v>24.65753424657507</v>
+        <v>-28.30188679245262</v>
       </c>
       <c r="L797" t="n">
         <v>69.45</v>
@@ -41232,7 +41254,7 @@
         <v>218.9999999999994</v>
       </c>
       <c r="K798" t="n">
-        <v>27.39726027397235</v>
+        <v>-14.28571428571416</v>
       </c>
       <c r="L798" t="n">
         <v>69.31999999999999</v>
@@ -41283,7 +41305,7 @@
         <v>219.3999999999994</v>
       </c>
       <c r="K799" t="n">
-        <v>28.85906040268431</v>
+        <v>-1.960784313725359</v>
       </c>
       <c r="L799" t="n">
         <v>69.28999999999999</v>
@@ -41334,7 +41356,7 @@
         <v>220.1999999999994</v>
       </c>
       <c r="K800" t="n">
-        <v>24.6753246753246</v>
+        <v>-7.407407407407203</v>
       </c>
       <c r="L800" t="n">
         <v>69.2</v>
@@ -41385,7 +41407,7 @@
         <v>220.6999999999994</v>
       </c>
       <c r="K801" t="n">
-        <v>19.99999999999992</v>
+        <v>30.43478260869563</v>
       </c>
       <c r="L801" t="n">
         <v>69.21000000000001</v>
@@ -41436,7 +41458,7 @@
         <v>222.0999999999994</v>
       </c>
       <c r="K802" t="n">
-        <v>19.99999999999986</v>
+        <v>54.38596491228071</v>
       </c>
       <c r="L802" t="n">
         <v>69.48999999999999</v>
@@ -41487,7 +41509,7 @@
         <v>222.8999999999994</v>
       </c>
       <c r="K803" t="n">
-        <v>14.47368421052629</v>
+        <v>39.68253968253961</v>
       </c>
       <c r="L803" t="n">
         <v>69.72</v>
@@ -41538,7 +41560,7 @@
         <v>223.3999999999994</v>
       </c>
       <c r="K804" t="n">
-        <v>10.82802547770699</v>
+        <v>22.58064516129035</v>
       </c>
       <c r="L804" t="n">
         <v>69.91999999999999</v>
@@ -41589,7 +41611,7 @@
         <v>223.3999999999994</v>
       </c>
       <c r="K805" t="n">
-        <v>2.777777777777811</v>
+        <v>2.040816326530494</v>
       </c>
       <c r="L805" t="n">
         <v>70.05999999999999</v>
@@ -41640,7 +41662,7 @@
         <v>224.7999999999994</v>
       </c>
       <c r="K806" t="n">
-        <v>-1.986754966887486</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L806" t="n">
         <v>69.92999999999999</v>
@@ -41691,7 +41713,7 @@
         <v>225.3999999999994</v>
       </c>
       <c r="K807" t="n">
-        <v>-21.25984251968498</v>
+        <v>-9.374999999999945</v>
       </c>
       <c r="L807" t="n">
         <v>69.89</v>
@@ -41742,7 +41764,7 @@
         <v>226.2999999999994</v>
       </c>
       <c r="K808" t="n">
-        <v>-7.812499999999993</v>
+        <v>-1.449275362318975</v>
       </c>
       <c r="L808" t="n">
         <v>69.92</v>
@@ -41793,7 +41815,7 @@
         <v>226.2999999999994</v>
       </c>
       <c r="K809" t="n">
-        <v>-3.278688524590206</v>
+        <v>11.47540983606545</v>
       </c>
       <c r="L809" t="n">
         <v>69.91</v>
@@ -41844,7 +41866,7 @@
         <v>226.7999999999994</v>
       </c>
       <c r="K810" t="n">
-        <v>-5.600000000000023</v>
+        <v>-4.918032786885459</v>
       </c>
       <c r="L810" t="n">
         <v>69.93000000000001</v>
@@ -41895,7 +41917,7 @@
         <v>227.6999999999994</v>
       </c>
       <c r="K811" t="n">
-        <v>5.426356589147306</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L811" t="n">
         <v>69.99000000000001</v>
@@ -41946,7 +41968,7 @@
         <v>228.0999999999994</v>
       </c>
       <c r="K812" t="n">
-        <v>20.00000000000005</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L812" t="n">
         <v>69.95000000000002</v>
@@ -41997,7 +42019,7 @@
         <v>228.1999999999994</v>
       </c>
       <c r="K813" t="n">
-        <v>22.03389830508468</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L813" t="n">
         <v>69.98</v>
@@ -42048,7 +42070,7 @@
         <v>229.1999999999994</v>
       </c>
       <c r="K814" t="n">
-        <v>14.28571428571424</v>
+        <v>-3.448275862069008</v>
       </c>
       <c r="L814" t="n">
         <v>69.96000000000001</v>
@@ -42099,7 +42121,7 @@
         <v>229.6999999999994</v>
       </c>
       <c r="K815" t="n">
-        <v>5.600000000000009</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L815" t="n">
         <v>69.89</v>
@@ -42150,7 +42172,7 @@
         <v>230.4999999999994</v>
       </c>
       <c r="K816" t="n">
-        <v>-11.66666666666669</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L816" t="n">
         <v>69.88</v>
@@ -42201,7 +42223,7 @@
         <v>230.9999999999994</v>
       </c>
       <c r="K817" t="n">
-        <v>-13.11475409836059</v>
+        <v>-44.68085106382924</v>
       </c>
       <c r="L817" t="n">
         <v>69.75999999999999</v>
@@ -42252,7 +42274,7 @@
         <v>231.1999999999994</v>
       </c>
       <c r="K818" t="n">
-        <v>-13.11475409836062</v>
+        <v>-38.77551020408119</v>
       </c>
       <c r="L818" t="n">
         <v>69.56999999999999</v>
@@ -42303,7 +42325,7 @@
         <v>231.9999999999994</v>
       </c>
       <c r="K819" t="n">
-        <v>-9.52380952380955</v>
+        <v>-11.53846153846133</v>
       </c>
       <c r="L819" t="n">
         <v>69.45999999999999</v>
@@ -42354,7 +42376,7 @@
         <v>232.9999999999994</v>
       </c>
       <c r="K820" t="n">
-        <v>-10.93750000000004</v>
+        <v>-47.16981132075436</v>
       </c>
       <c r="L820" t="n">
         <v>69.29999999999998</v>
@@ -42405,7 +42427,7 @@
         <v>233.8999999999994</v>
       </c>
       <c r="K821" t="n">
-        <v>-21.21212121212127</v>
+        <v>-65.51724137931009</v>
       </c>
       <c r="L821" t="n">
         <v>68.95999999999999</v>
@@ -42456,7 +42478,7 @@
         <v>233.9999999999994</v>
       </c>
       <c r="K822" t="n">
-        <v>-34.4537815126049</v>
+        <v>-62.06896551724116</v>
       </c>
       <c r="L822" t="n">
         <v>68.59</v>
@@ -42507,7 +42529,7 @@
         <v>234.3999999999994</v>
       </c>
       <c r="K823" t="n">
-        <v>-32.17391304347821</v>
+        <v>-57.6923076923075</v>
       </c>
       <c r="L823" t="n">
         <v>68.19</v>
@@ -42558,7 +42580,7 @@
         <v>234.4999999999994</v>
       </c>
       <c r="K824" t="n">
-        <v>-29.72972972972964</v>
+        <v>-54.16666666666642</v>
       </c>
       <c r="L824" t="n">
         <v>67.88000000000001</v>
@@ -42609,7 +42631,7 @@
         <v>234.8999999999994</v>
       </c>
       <c r="K825" t="n">
-        <v>-25.21739130434787</v>
+        <v>-31.81818181818211</v>
       </c>
       <c r="L825" t="n">
         <v>67.66000000000001</v>
@@ -42660,7 +42682,7 @@
         <v>235.3999999999994</v>
       </c>
       <c r="K826" t="n">
-        <v>-9.433962264150948</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L826" t="n">
         <v>67.57000000000002</v>
@@ -42711,7 +42733,7 @@
         <v>235.8999999999994</v>
       </c>
       <c r="K827" t="n">
-        <v>-20.00000000000008</v>
+        <v>-23.40425531914918</v>
       </c>
       <c r="L827" t="n">
         <v>67.48000000000002</v>
@@ -42762,7 +42784,7 @@
         <v>236.0999999999994</v>
       </c>
       <c r="K828" t="n">
-        <v>-28.57142857142851</v>
+        <v>-41.46341463414676</v>
       </c>
       <c r="L828" t="n">
         <v>67.39000000000001</v>
@@ -42813,7 +42835,7 @@
         <v>236.6999999999994</v>
       </c>
       <c r="K829" t="n">
-        <v>-32.69230769230759</v>
+        <v>-35.13513513513544</v>
       </c>
       <c r="L829" t="n">
         <v>67.16000000000001</v>
@@ -42864,7 +42886,7 @@
         <v>237.1999999999994</v>
       </c>
       <c r="K830" t="n">
-        <v>-23.07692307692298</v>
+        <v>3.03030303030333</v>
       </c>
       <c r="L830" t="n">
         <v>67.08000000000001</v>
@@ -42915,7 +42937,7 @@
         <v>237.3999999999994</v>
       </c>
       <c r="K831" t="n">
-        <v>-36.08247422680406</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L831" t="n">
         <v>67.07000000000002</v>
@@ -42966,7 +42988,7 @@
         <v>238.1999999999994</v>
       </c>
       <c r="K832" t="n">
-        <v>-30.69306930693071</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L832" t="n">
         <v>67.13000000000001</v>
@@ -43017,7 +43039,7 @@
         <v>238.8999999999994</v>
       </c>
       <c r="K833" t="n">
-        <v>-21.49532710280373</v>
+        <v>40.90909090909106</v>
       </c>
       <c r="L833" t="n">
         <v>67.30000000000001</v>
@@ -43068,7 +43090,7 @@
         <v>239.1999999999994</v>
       </c>
       <c r="K834" t="n">
-        <v>-15.99999999999994</v>
+        <v>25.58139534883734</v>
       </c>
       <c r="L834" t="n">
         <v>67.45000000000002</v>
@@ -43119,7 +43141,7 @@
         <v>239.7999999999994</v>
       </c>
       <c r="K835" t="n">
-        <v>-4.950495049504953</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L835" t="n">
         <v>67.62</v>
@@ -43170,7 +43192,7 @@
         <v>240.0999999999994</v>
       </c>
       <c r="K836" t="n">
-        <v>0</v>
+        <v>33.33333333333356</v>
       </c>
       <c r="L836" t="n">
         <v>67.71000000000001</v>
@@ -43221,7 +43243,7 @@
         <v>240.0999999999994</v>
       </c>
       <c r="K837" t="n">
-        <v>5.494505494505515</v>
+        <v>30.00000000000007</v>
       </c>
       <c r="L837" t="n">
         <v>67.84999999999999</v>
@@ -43272,7 +43294,7 @@
         <v>240.2999999999994</v>
       </c>
       <c r="K838" t="n">
-        <v>1.098901098901041</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L838" t="n">
         <v>67.95</v>
@@ -43323,7 +43345,7 @@
         <v>240.5999999999994</v>
       </c>
       <c r="K839" t="n">
-        <v>-11.62790697674423</v>
+        <v>23.52941176470576</v>
       </c>
       <c r="L839" t="n">
         <v>68.08</v>
@@ -43374,7 +43396,7 @@
         <v>240.5999999999994</v>
       </c>
       <c r="K840" t="n">
-        <v>0</v>
+        <v>31.25000000000011</v>
       </c>
       <c r="L840" t="n">
         <v>68.16</v>
@@ -43425,7 +43447,7 @@
         <v>240.6999999999994</v>
       </c>
       <c r="K841" t="n">
-        <v>11.76470588235319</v>
+        <v>4.000000000000386</v>
       </c>
       <c r="L841" t="n">
         <v>68.24999999999999</v>
@@ -43476,7 +43498,7 @@
         <v>240.6999999999994</v>
       </c>
       <c r="K842" t="n">
-        <v>10.44776119402996</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L842" t="n">
         <v>68.25999999999999</v>
@@ -43527,7 +43549,7 @@
         <v>240.6999999999994</v>
       </c>
       <c r="K843" t="n">
-        <v>17.46031746031772</v>
+        <v>-20.00000000000019</v>
       </c>
       <c r="L843" t="n">
         <v>68.19999999999999</v>
@@ -43578,7 +43600,7 @@
         <v>241.2999999999994</v>
       </c>
       <c r="K844" t="n">
-        <v>8.823529411764682</v>
+        <v>-100.0000000000019</v>
       </c>
       <c r="L844" t="n">
         <v>68.10999999999999</v>
@@ -43629,7 +43651,7 @@
         <v>241.5999999999994</v>
       </c>
       <c r="K845" t="n">
-        <v>-1.492537313432754</v>
+        <v>-100</v>
       </c>
       <c r="L845" t="n">
         <v>67.92999999999998</v>
@@ -43680,7 +43702,7 @@
         <v>242.4999999999994</v>
       </c>
       <c r="K846" t="n">
-        <v>-21.1267605633803</v>
+        <v>-100</v>
       </c>
       <c r="L846" t="n">
         <v>67.68999999999998</v>
@@ -43731,7 +43753,7 @@
         <v>243.0999999999994</v>
       </c>
       <c r="K847" t="n">
-        <v>-5.555555555555445</v>
+        <v>-57.14285714285671</v>
       </c>
       <c r="L847" t="n">
         <v>67.50999999999999</v>
@@ -43782,7 +43804,7 @@
         <v>243.4999999999994</v>
       </c>
       <c r="K848" t="n">
-        <v>-2.702702702702749</v>
+        <v>-31.03448275862113</v>
       </c>
       <c r="L848" t="n">
         <v>67.39</v>
@@ -43833,7 +43855,7 @@
         <v>244.5999999999994</v>
       </c>
       <c r="K849" t="n">
-        <v>18.98734177215189</v>
+        <v>5.000000000000071</v>
       </c>
       <c r="L849" t="n">
         <v>67.41</v>
@@ -43884,7 +43906,7 @@
         <v>244.5999999999994</v>
       </c>
       <c r="K850" t="n">
-        <v>13.5135135135135</v>
+        <v>7.692307692307608</v>
       </c>
       <c r="L850" t="n">
         <v>67.43000000000001</v>
@@ -43935,7 +43957,7 @@
         <v>245.1999999999994</v>
       </c>
       <c r="K851" t="n">
-        <v>7.692307692307608</v>
+        <v>-6.666666666666877</v>
       </c>
       <c r="L851" t="n">
         <v>67.40000000000001</v>
@@ -43986,7 +44008,7 @@
         <v>245.5999999999994</v>
       </c>
       <c r="K852" t="n">
-        <v>2.702702702702739</v>
+        <v>2.040816326530482</v>
       </c>
       <c r="L852" t="n">
         <v>67.41000000000001</v>
@@ -44037,7 +44059,7 @@
         <v>245.9999999999994</v>
       </c>
       <c r="K853" t="n">
-        <v>-12.67605633802821</v>
+        <v>6.382978723404133</v>
       </c>
       <c r="L853" t="n">
         <v>67.38000000000002</v>
@@ -44088,7 +44110,7 @@
         <v>246.2999999999994</v>
       </c>
       <c r="K854" t="n">
-        <v>-4.225352112676003</v>
+        <v>19.1489361702127</v>
       </c>
       <c r="L854" t="n">
         <v>67.44000000000003</v>
@@ -44139,7 +44161,7 @@
         <v>246.6999999999994</v>
       </c>
       <c r="K855" t="n">
-        <v>-18.84057971014479</v>
+        <v>33.33333333333311</v>
       </c>
       <c r="L855" t="n">
         <v>67.49000000000002</v>
@@ -44190,7 +44212,7 @@
         <v>246.7999999999994</v>
       </c>
       <c r="K856" t="n">
-        <v>-13.43283582089552</v>
+        <v>24.3243243243238</v>
       </c>
       <c r="L856" t="n">
         <v>67.64000000000001</v>
@@ -44241,7 +44263,7 @@
         <v>246.8999999999995</v>
       </c>
       <c r="K857" t="n">
-        <v>-11.76470588235278</v>
+        <v>17.64705882352919</v>
       </c>
       <c r="L857" t="n">
         <v>67.74000000000002</v>
@@ -44292,7 +44314,7 @@
         <v>247.0999999999995</v>
       </c>
       <c r="K858" t="n">
-        <v>-5.882352941176286</v>
+        <v>-11.99999999999961</v>
       </c>
       <c r="L858" t="n">
         <v>67.82000000000002</v>
@@ -44343,7 +44365,7 @@
         <v>247.0999999999995</v>
       </c>
       <c r="K859" t="n">
-        <v>-1.538461538461438</v>
+        <v>-11.99999999999961</v>
       </c>
       <c r="L859" t="n">
         <v>67.79000000000001</v>
@@ -44394,7 +44416,7 @@
         <v>247.1999999999995</v>
       </c>
       <c r="K860" t="n">
-        <v>-3.030303030303037</v>
+        <v>9.999999999999858</v>
       </c>
       <c r="L860" t="n">
         <v>67.75</v>
@@ -44445,7 +44467,7 @@
         <v>247.4999999999995</v>
       </c>
       <c r="K861" t="n">
-        <v>-5.88235294117647</v>
+        <v>-26.31578947368334</v>
       </c>
       <c r="L861" t="n">
         <v>67.73999999999999</v>
@@ -44496,7 +44518,7 @@
         <v>247.8999999999995</v>
       </c>
       <c r="K862" t="n">
-        <v>-11.11111111111111</v>
+        <v>-26.31578947368334</v>
       </c>
       <c r="L862" t="n">
         <v>67.65000000000001</v>
@@ -44547,7 +44569,7 @@
         <v>247.9999999999995</v>
       </c>
       <c r="K863" t="n">
-        <v>-12.32876712328759</v>
+        <v>-52.94117647058716</v>
       </c>
       <c r="L863" t="n">
         <v>67.59</v>
@@ -44598,7 +44620,7 @@
         <v>248.0999999999995</v>
       </c>
       <c r="K864" t="n">
-        <v>-2.941176470588235</v>
+        <v>-28.57142857142828</v>
       </c>
       <c r="L864" t="n">
         <v>67.51000000000001</v>
@@ -44649,7 +44671,7 @@
         <v>248.1999999999995</v>
       </c>
       <c r="K865" t="n">
-        <v>3.030303030303037</v>
+        <v>-28.57142857142727</v>
       </c>
       <c r="L865" t="n">
         <v>67.48</v>
@@ -44700,7 +44722,7 @@
         <v>248.4999999999995</v>
       </c>
       <c r="K866" t="n">
-        <v>23.3333333333331</v>
+        <v>-12.5</v>
       </c>
       <c r="L866" t="n">
         <v>67.47</v>
@@ -44751,7 +44773,7 @@
         <v>248.7999999999995</v>
       </c>
       <c r="K867" t="n">
-        <v>8.771929824561246</v>
+        <v>-41.17647058823436</v>
       </c>
       <c r="L867" t="n">
         <v>67.42</v>
@@ -44802,7 +44824,7 @@
         <v>249.6999999999995</v>
       </c>
       <c r="K868" t="n">
-        <v>-12.9032258064513</v>
+        <v>-61.53846153846065</v>
       </c>
       <c r="L868" t="n">
         <v>67.26000000000001</v>
@@ -44853,7 +44875,7 @@
         <v>249.9999999999995</v>
       </c>
       <c r="K869" t="n">
-        <v>-40.74074074074011</v>
+        <v>-64.28571428571392</v>
       </c>
       <c r="L869" t="n">
         <v>67.07000000000001</v>
@@ -44904,7 +44926,7 @@
         <v>250.0999999999995</v>
       </c>
       <c r="K870" t="n">
-        <v>-41.81818181818112</v>
+        <v>-61.53846153846145</v>
       </c>
       <c r="L870" t="n">
         <v>66.88000000000001</v>
@@ -44955,7 +44977,7 @@
         <v>250.3999999999995</v>
       </c>
       <c r="K871" t="n">
-        <v>-38.46153846153791</v>
+        <v>-60</v>
       </c>
       <c r="L871" t="n">
         <v>66.69000000000001</v>
@@ -45006,7 +45028,7 @@
         <v>250.7999999999995</v>
       </c>
       <c r="K872" t="n">
-        <v>-53.84615384615302</v>
+        <v>-64.28571428571392</v>
       </c>
       <c r="L872" t="n">
         <v>66.50000000000001</v>
@@ -45057,7 +45079,7 @@
         <v>251.2999999999995</v>
       </c>
       <c r="K873" t="n">
-        <v>-35.84905660377296</v>
+        <v>-43.7499999999995</v>
       </c>
       <c r="L873" t="n">
         <v>66.37000000000002</v>
@@ -45108,7 +45130,7 @@
         <v>251.5999999999995</v>
       </c>
       <c r="K874" t="n">
-        <v>-47.16981132075411</v>
+        <v>-52.94117647058763</v>
       </c>
       <c r="L874" t="n">
         <v>66.20000000000002</v>
@@ -45159,7 +45181,7 @@
         <v>251.8999999999995</v>
       </c>
       <c r="K875" t="n">
-        <v>-46.15384615384561</v>
+        <v>-70.58823529411711</v>
       </c>
       <c r="L875" t="n">
         <v>65.99000000000001</v>
@@ -45210,7 +45232,7 @@
         <v>252.2999999999995</v>
       </c>
       <c r="K876" t="n">
-        <v>-38.18181818181748</v>
+        <v>-48.57142857142826</v>
       </c>
       <c r="L876" t="n">
         <v>65.79000000000001</v>
@@ -45261,7 +45283,7 @@
         <v>252.5999999999995</v>
       </c>
       <c r="K877" t="n">
-        <v>-33.33333333333317</v>
+        <v>-17.24137931034479</v>
       </c>
       <c r="L877" t="n">
         <v>65.65000000000001</v>
@@ -45312,7 +45334,7 @@
         <v>252.7999999999995</v>
       </c>
       <c r="K878" t="n">
-        <v>-40.35087719298233</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L878" t="n">
         <v>65.58000000000001</v>
@@ -45363,7 +45385,7 @@
         <v>252.7999999999995</v>
       </c>
       <c r="K879" t="n">
-        <v>-40.35087719298233</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L879" t="n">
         <v>65.54000000000001</v>
@@ -45414,7 +45436,7 @@
         <v>252.8999999999995</v>
       </c>
       <c r="K880" t="n">
-        <v>-40.35087719298229</v>
+        <v>-3.999999999999773</v>
       </c>
       <c r="L880" t="n">
         <v>65.50000000000001</v>
@@ -45465,7 +45487,7 @@
         <v>253.1999999999995</v>
       </c>
       <c r="K881" t="n">
-        <v>-40.35087719298249</v>
+        <v>0</v>
       </c>
       <c r="L881" t="n">
         <v>65.46000000000001</v>
@@ -45516,7 +45538,7 @@
         <v>253.4999999999995</v>
       </c>
       <c r="K882" t="n">
-        <v>-39.28571428571412</v>
+        <v>-36.36363636363642</v>
       </c>
       <c r="L882" t="n">
         <v>65.43000000000001</v>
@@ -45567,7 +45589,7 @@
         <v>253.6999999999995</v>
       </c>
       <c r="K883" t="n">
-        <v>-40.35087719298249</v>
+        <v>-33.33333333333401</v>
       </c>
       <c r="L883" t="n">
         <v>65.33000000000001</v>
@@ -45618,7 +45640,7 @@
         <v>253.8999999999995</v>
       </c>
       <c r="K884" t="n">
-        <v>-44.82758620689658</v>
+        <v>-30.00000000000057</v>
       </c>
       <c r="L884" t="n">
         <v>65.24000000000001</v>
@@ -45669,7 +45691,7 @@
         <v>254.0999999999995</v>
       </c>
       <c r="K885" t="n">
-        <v>-42.37288135593237</v>
+        <v>-44.44444444444611</v>
       </c>
       <c r="L885" t="n">
         <v>65.20000000000002</v>
@@ -45720,7 +45742,7 @@
         <v>254.1999999999994</v>
       </c>
       <c r="K886" t="n">
-        <v>-47.36842105263196</v>
+        <v>-62.50000000000244</v>
       </c>
       <c r="L886" t="n">
         <v>65.13000000000001</v>
@@ -45771,7 +45793,7 @@
         <v>254.5999999999995</v>
       </c>
       <c r="K887" t="n">
-        <v>-34.48275862068992</v>
+        <v>-22.22222222222231</v>
       </c>
       <c r="L887" t="n">
         <v>65.07000000000002</v>
@@ -45822,7 +45844,7 @@
         <v>254.6999999999994</v>
       </c>
       <c r="K888" t="n">
-        <v>-20.00000000000023</v>
+        <v>-15.7894736842108</v>
       </c>
       <c r="L888" t="n">
         <v>65.04000000000001</v>
@@ -45873,7 +45895,7 @@
         <v>254.8999999999995</v>
       </c>
       <c r="K889" t="n">
-        <v>-18.36734693877571</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L889" t="n">
         <v>64.99000000000001</v>
@@ -45924,7 +45946,7 @@
         <v>254.8999999999995</v>
       </c>
       <c r="K890" t="n">
-        <v>-16.66666666666696</v>
+        <v>-5.882352941177012</v>
       </c>
       <c r="L890" t="n">
         <v>64.95000000000002</v>
@@ -45975,7 +45997,7 @@
         <v>254.8999999999995</v>
       </c>
       <c r="K891" t="n">
-        <v>-11.11111111111118</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L891" t="n">
         <v>64.94000000000001</v>
@@ -46026,7 +46048,7 @@
         <v>255.0999999999995</v>
       </c>
       <c r="K892" t="n">
-        <v>-6.97674418604652</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L892" t="n">
         <v>64.94000000000001</v>
@@ -46077,7 +46099,7 @@
         <v>255.1999999999994</v>
       </c>
       <c r="K893" t="n">
-        <v>-17.94871794871826</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L893" t="n">
         <v>64.97</v>
@@ -46128,7 +46150,7 @@
         <v>255.1999999999994</v>
       </c>
       <c r="K894" t="n">
-        <v>-11.11111111111146</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L894" t="n">
         <v>65.02000000000001</v>
@@ -46179,7 +46201,7 @@
         <v>255.8999999999995</v>
       </c>
       <c r="K895" t="n">
-        <v>15.00000000000043</v>
+        <v>52.94117647058803</v>
       </c>
       <c r="L895" t="n">
         <v>65.12</v>
@@ -46230,7 +46252,7 @@
         <v>256.1999999999995</v>
       </c>
       <c r="K896" t="n">
-        <v>12.82051282051299</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L896" t="n">
         <v>65.24000000000001</v>
@@ -46281,7 +46303,7 @@
         <v>256.8999999999995</v>
       </c>
       <c r="K897" t="n">
-        <v>-11.62790697674431</v>
+        <v>0</v>
       </c>
       <c r="L897" t="n">
         <v>65.25</v>
@@ -46332,7 +46354,7 @@
         <v>257.3999999999995</v>
       </c>
       <c r="K898" t="n">
-        <v>4.347826086956616</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L898" t="n">
         <v>65.3</v>
@@ -46383,7 +46405,7 @@
         <v>257.5999999999995</v>
       </c>
       <c r="K899" t="n">
-        <v>8.333333333333531</v>
+        <v>33.33333333333368</v>
       </c>
       <c r="L899" t="n">
         <v>65.39</v>
@@ -46434,7 +46456,7 @@
         <v>257.6999999999995</v>
       </c>
       <c r="K900" t="n">
-        <v>8.333333333333481</v>
+        <v>28.57142857142886</v>
       </c>
       <c r="L900" t="n">
         <v>65.47</v>
@@ -46485,7 +46507,7 @@
         <v>257.8999999999995</v>
       </c>
       <c r="K901" t="n">
-        <v>10.63829787234045</v>
+        <v>28.57142857142835</v>
       </c>
       <c r="L901" t="n">
         <v>65.53</v>
@@ -46536,7 +46558,7 @@
         <v>257.8999999999995</v>
       </c>
       <c r="K902" t="n">
-        <v>18.18181818181821</v>
+        <v>25.92592592592587</v>
       </c>
       <c r="L902" t="n">
         <v>65.61</v>
@@ -46587,7 +46609,7 @@
         <v>258.1999999999995</v>
       </c>
       <c r="K903" t="n">
-        <v>15.55555555555562</v>
+        <v>13.3333333333334</v>
       </c>
       <c r="L903" t="n">
         <v>65.65000000000001</v>
@@ -46638,7 +46660,7 @@
         <v>258.2999999999995</v>
       </c>
       <c r="K904" t="n">
-        <v>22.72727272727255</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L904" t="n">
         <v>65.7</v>
@@ -46689,7 +46711,7 @@
         <v>259.0999999999995</v>
       </c>
       <c r="K905" t="n">
-        <v>31.99999999999952</v>
+        <v>10.34482758620668</v>
       </c>
       <c r="L905" t="n">
         <v>65.75999999999999</v>
@@ -46740,7 +46762,7 @@
         <v>259.1999999999995</v>
       </c>
       <c r="K906" t="n">
-        <v>31.99999999999962</v>
+        <v>47.82608695652069</v>
       </c>
       <c r="L906" t="n">
         <v>65.79999999999998</v>
@@ -46791,7 +46813,7 @@
         <v>259.3999999999995</v>
       </c>
       <c r="K907" t="n">
-        <v>29.16666666666607</v>
+        <v>39.99999999999872</v>
       </c>
       <c r="L907" t="n">
         <v>65.92999999999999</v>
@@ -46842,7 +46864,7 @@
         <v>259.7999999999995</v>
       </c>
       <c r="K908" t="n">
-        <v>33.33333333333305</v>
+        <v>45.45454545454452</v>
       </c>
       <c r="L908" t="n">
         <v>66.05</v>
@@ -46893,7 +46915,7 @@
         <v>260.4999999999995</v>
       </c>
       <c r="K909" t="n">
-        <v>46.42857142857139</v>
+        <v>64.28571428571392</v>
       </c>
       <c r="L909" t="n">
         <v>66.22</v>
@@ -46944,7 +46966,7 @@
         <v>260.5999999999995</v>
       </c>
       <c r="K910" t="n">
-        <v>43.85964912280667</v>
+        <v>70.37037037036887</v>
       </c>
       <c r="L910" t="n">
         <v>66.39000000000001</v>
@@ -46995,7 +47017,7 @@
         <v>261.1999999999995</v>
       </c>
       <c r="K911" t="n">
-        <v>49.20634920634881</v>
+        <v>75.75757575757419</v>
       </c>
       <c r="L911" t="n">
         <v>66.64000000000001</v>
@@ -47046,7 +47068,7 @@
         <v>262.2999999999996</v>
       </c>
       <c r="K912" t="n">
-        <v>30.55555555555496</v>
+        <v>41.46341463414526</v>
       </c>
       <c r="L912" t="n">
         <v>66.78</v>
@@ -47097,7 +47119,7 @@
         <v>262.5999999999996</v>
       </c>
       <c r="K913" t="n">
-        <v>32.43243243243199</v>
+        <v>44.18604651162734</v>
       </c>
       <c r="L913" t="n">
         <v>66.98</v>
@@ -47148,7 +47170,7 @@
         <v>262.6999999999996</v>
       </c>
       <c r="K914" t="n">
-        <v>30.66666666666605</v>
+        <v>27.77777777777716</v>
       </c>
       <c r="L914" t="n">
         <v>67.16</v>
@@ -47199,7 +47221,7 @@
         <v>262.8999999999996</v>
       </c>
       <c r="K915" t="n">
-        <v>19.99999999999956</v>
+        <v>18.91891891891838</v>
       </c>
       <c r="L915" t="n">
         <v>67.24000000000001</v>
@@ -47250,7 +47272,7 @@
         <v>262.9999999999995</v>
       </c>
       <c r="K916" t="n">
-        <v>14.70588235294103</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L916" t="n">
         <v>67.30000000000001</v>
@@ -47301,7 +47323,7 @@
         <v>262.9999999999995</v>
       </c>
       <c r="K917" t="n">
-        <v>27.86885245901608</v>
+        <v>0</v>
       </c>
       <c r="L917" t="n">
         <v>67.34</v>
@@ -47352,7 +47374,7 @@
         <v>263.3999999999995</v>
       </c>
       <c r="K918" t="n">
-        <v>13.33333333333316</v>
+        <v>-37.93103448275847</v>
       </c>
       <c r="L918" t="n">
         <v>67.30000000000001</v>
@@ -47403,7 +47425,7 @@
         <v>263.4999999999995</v>
       </c>
       <c r="K919" t="n">
-        <v>8.47457627118631</v>
+        <v>-37.93103448275798</v>
       </c>
       <c r="L919" t="n">
         <v>67.18000000000001</v>
@@ -47454,7 +47476,7 @@
         <v>263.6999999999995</v>
       </c>
       <c r="K920" t="n">
-        <v>6.666666666666461</v>
+        <v>-76.00000000000023</v>
       </c>
       <c r="L920" t="n">
         <v>67.05</v>
@@ -47505,7 +47527,7 @@
         <v>264.0999999999996</v>
       </c>
       <c r="K921" t="n">
-        <v>16.12903225806425</v>
+        <v>-22.22222222222161</v>
       </c>
       <c r="L921" t="n">
         <v>66.90000000000001</v>
@@ -47556,7 +47578,7 @@
         <v>264.5999999999996</v>
       </c>
       <c r="K922" t="n">
-        <v>7.462686567164065</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L922" t="n">
         <v>66.81</v>
@@ -47607,7 +47629,7 @@
         <v>264.6999999999996</v>
       </c>
       <c r="K923" t="n">
-        <v>13.84615384615347</v>
+        <v>-50</v>
       </c>
       <c r="L923" t="n">
         <v>66.7</v>
@@ -47658,7 +47680,7 @@
         <v>264.9999999999996</v>
       </c>
       <c r="K924" t="n">
-        <v>16.41791044776086</v>
+        <v>-23.80952380952355</v>
       </c>
       <c r="L924" t="n">
         <v>66.63000000000001</v>
@@ -47709,7 +47731,7 @@
         <v>265.5999999999996</v>
       </c>
       <c r="K925" t="n">
-        <v>-4.615384615384531</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L925" t="n">
         <v>66.52000000000001</v>
@@ -47760,7 +47782,7 @@
         <v>265.6999999999996</v>
       </c>
       <c r="K926" t="n">
-        <v>-4.61538461538475</v>
+        <v>-33.33333333333298</v>
       </c>
       <c r="L926" t="n">
         <v>66.43000000000001</v>
@@ -47811,7 +47833,7 @@
         <v>265.9999999999996</v>
       </c>
       <c r="K927" t="n">
-        <v>-12.12121212121193</v>
+        <v>-30.76923076922971</v>
       </c>
       <c r="L927" t="n">
         <v>66.31</v>
@@ -47862,7 +47884,7 @@
         <v>266.0999999999996</v>
       </c>
       <c r="K928" t="n">
-        <v>-17.46031746031703</v>
+        <v>-23.07692307692215</v>
       </c>
       <c r="L928" t="n">
         <v>66.23999999999999</v>
@@ -47913,7 +47935,7 @@
         <v>266.5999999999996</v>
       </c>
       <c r="K929" t="n">
-        <v>-37.704918032786</v>
+        <v>-31.03448275861943</v>
       </c>
       <c r="L929" t="n">
         <v>66.13</v>
@@ -47964,7 +47986,7 @@
         <v>267.0999999999996</v>
       </c>
       <c r="K930" t="n">
-        <v>-26.15384615384552</v>
+        <v>-26.66666666666607</v>
       </c>
       <c r="L930" t="n">
         <v>66.09</v>
@@ -48015,7 +48037,7 @@
         <v>267.2999999999996</v>
       </c>
       <c r="K931" t="n">
-        <v>-34.42622950819641</v>
+        <v>-3.703703703703957</v>
       </c>
       <c r="L931" t="n">
         <v>66.03</v>
@@ -48066,7 +48088,7 @@
         <v>267.4999999999996</v>
       </c>
       <c r="K932" t="n">
-        <v>-23.07692307692266</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L932" t="n">
         <v>65.99999999999999</v>
@@ -48117,7 +48139,7 @@
         <v>267.4999999999996</v>
       </c>
       <c r="K933" t="n">
-        <v>-30.61224489795897</v>
+        <v>-27.99999999999955</v>
       </c>
       <c r="L933" t="n">
         <v>65.95999999999999</v>
@@ -48168,7 +48190,7 @@
         <v>268.0999999999996</v>
       </c>
       <c r="K934" t="n">
-        <v>-14.81481481481483</v>
+        <v>20</v>
       </c>
       <c r="L934" t="n">
         <v>65.94999999999999</v>
@@ -48219,7 +48241,7 @@
         <v>268.1999999999996</v>
       </c>
       <c r="K935" t="n">
-        <v>-13.20754716981108</v>
+        <v>12.00000000000045</v>
       </c>
       <c r="L935" t="n">
         <v>65.98999999999998</v>
@@ -48270,7 +48292,7 @@
         <v>268.2999999999996</v>
       </c>
       <c r="K936" t="n">
-        <v>-13.2075471698112</v>
+        <v>21.7391304347825</v>
       </c>
       <c r="L936" t="n">
         <v>66.00999999999998</v>
@@ -48321,7 +48343,7 @@
         <v>268.6999999999996</v>
       </c>
       <c r="K937" t="n">
-        <v>-19.29824561403483</v>
+        <v>0</v>
       </c>
       <c r="L937" t="n">
         <v>66.01999999999998</v>
@@ -48372,7 +48394,7 @@
         <v>268.8999999999996</v>
       </c>
       <c r="K938" t="n">
-        <v>-16.36363636363604</v>
+        <v>13.0434782608697</v>
       </c>
       <c r="L938" t="n">
         <v>65.99999999999999</v>
@@ -48423,7 +48445,7 @@
         <v>270.2999999999996</v>
       </c>
       <c r="K939" t="n">
-        <v>8.823529411764607</v>
+        <v>37.50000000000044</v>
       </c>
       <c r="L939" t="n">
         <v>66.16999999999999</v>
@@ -48474,7 +48496,7 @@
         <v>271.6999999999995</v>
       </c>
       <c r="K940" t="n">
-        <v>-7.499999999999929</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L940" t="n">
         <v>66.15000000000001</v>
@@ -48525,7 +48547,7 @@
         <v>271.9999999999995</v>
       </c>
       <c r="K941" t="n">
-        <v>-8.860759493670948</v>
+        <v>2.222222222222124</v>
       </c>
       <c r="L941" t="n">
         <v>66.14</v>
@@ -48576,7 +48598,7 @@
         <v>272.4999999999995</v>
       </c>
       <c r="K942" t="n">
-        <v>-8.860759493670948</v>
+        <v>-8.000000000000204</v>
       </c>
       <c r="L942" t="n">
         <v>66.09999999999999</v>
@@ -48627,7 +48649,7 @@
         <v>272.6999999999995</v>
       </c>
       <c r="K943" t="n">
-        <v>-12.50000000000009</v>
+        <v>-26.08695652173938</v>
       </c>
       <c r="L943" t="n">
         <v>66.03999999999999</v>
@@ -48678,7 +48700,7 @@
         <v>273.3999999999995</v>
       </c>
       <c r="K944" t="n">
-        <v>-7.142857142857142</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L944" t="n">
         <v>65.98999999999999</v>
@@ -48729,7 +48751,7 @@
         <v>273.3999999999995</v>
       </c>
       <c r="K945" t="n">
-        <v>0</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L945" t="n">
         <v>65.95</v>
@@ -48780,7 +48802,7 @@
         <v>274.0999999999995</v>
       </c>
       <c r="K946" t="n">
-        <v>-9.523809523809581</v>
+        <v>-11.11111111111143</v>
       </c>
       <c r="L946" t="n">
         <v>65.84999999999999</v>
@@ -48831,7 +48853,7 @@
         <v>274.1999999999995</v>
       </c>
       <c r="K947" t="n">
-        <v>-7.31707317073175</v>
+        <v>-9.433962264151125</v>
       </c>
       <c r="L947" t="n">
         <v>65.78</v>
@@ -48882,7 +48904,7 @@
         <v>274.8999999999995</v>
       </c>
       <c r="K948" t="n">
-        <v>0</v>
+        <v>-26.0869565217394</v>
       </c>
       <c r="L948" t="n">
         <v>65.8</v>
@@ -48933,7 +48955,7 @@
         <v>274.9999999999994</v>
       </c>
       <c r="K949" t="n">
-        <v>7.14285714285724</v>
+        <v>9.090909090909287</v>
       </c>
       <c r="L949" t="n">
         <v>65.69</v>
@@ -48984,7 +49006,7 @@
         <v>275.1999999999994</v>
       </c>
       <c r="K950" t="n">
-        <v>-1.234567901234704</v>
+        <v>-6.250000000000333</v>
       </c>
       <c r="L950" t="n">
         <v>65.69999999999999</v>
@@ -49035,7 +49057,7 @@
         <v>275.3999999999994</v>
       </c>
       <c r="K951" t="n">
-        <v>-1.234567901234529</v>
+        <v>17.24137931034564</v>
       </c>
       <c r="L951" t="n">
         <v>65.69999999999999</v>

--- a/BackTest/2019-11-01 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-01 BackTest LAMB.xlsx
@@ -766,14 +766,20 @@
         <v>56.00166666666664</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>55</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -801,14 +807,20 @@
         <v>56.0183333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>55.3</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -836,14 +848,20 @@
         <v>56.04666666666664</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>55.8</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -871,14 +889,20 @@
         <v>56.06499999999997</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>55.9</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,14 +930,20 @@
         <v>56.07999999999997</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>55.9</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -941,14 +971,20 @@
         <v>56.09999999999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>56</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -976,14 +1012,20 @@
         <v>56.11499999999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>56.4</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1018,7 +1060,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,7 +1099,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1088,7 +1138,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1123,7 +1177,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,7 +1216,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1193,7 +1255,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1294,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1333,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1372,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1333,7 +1411,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1368,7 +1450,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1403,7 +1489,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1438,7 +1528,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1473,7 +1567,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1606,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1543,7 +1645,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1578,7 +1684,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1613,7 +1723,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1648,7 +1762,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1683,7 +1801,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1718,7 +1840,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1753,7 +1879,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1788,7 +1918,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1823,7 +1957,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1858,7 +1996,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1893,7 +2035,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1928,7 +2074,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1963,7 +2113,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1998,7 +2152,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2033,7 +2191,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2068,7 +2230,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2103,7 +2269,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2308,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2173,7 +2347,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2208,7 +2386,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2243,7 +2425,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2464,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2503,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2348,7 +2542,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2383,7 +2581,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2411,18 +2613,18 @@
         <v>55.6083333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="K58" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2456,12 +2658,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>55.4</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2497,12 +2697,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>55.4</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2532,18 +2730,18 @@
         <v>55.5583333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K61" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2571,20 +2769,16 @@
         <v>55.55666666666664</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>54.9</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2614,20 +2808,16 @@
         <v>55.54666666666663</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="K63" t="n">
-        <v>54.9</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2664,7 +2854,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2893,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2734,7 +2932,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2762,18 +2964,16 @@
         <v>55.47166666666664</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>54.4</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2803,14 +3003,12 @@
         <v>55.47666666666664</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>54.4</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2844,14 +3042,12 @@
         <v>55.4883333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>55.2</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -2885,14 +3081,12 @@
         <v>55.47666666666664</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>55.3</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -2926,14 +3120,12 @@
         <v>55.45833333333329</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>54.9</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -2967,14 +3159,12 @@
         <v>55.45666666666662</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>54.9</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3008,14 +3198,12 @@
         <v>55.45666666666662</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>55.8</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3049,14 +3237,12 @@
         <v>55.44666666666662</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>55.3</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3480,14 +3666,12 @@
         <v>55.25166666666664</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3521,14 +3705,12 @@
         <v>55.23166666666664</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3562,14 +3744,12 @@
         <v>55.2033333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3603,14 +3783,12 @@
         <v>55.1783333333333</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>54</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3644,14 +3822,12 @@
         <v>55.15666666666664</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>53.6</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3685,14 +3861,12 @@
         <v>55.12166666666664</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3726,14 +3900,12 @@
         <v>55.0783333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>54.1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3767,14 +3939,12 @@
         <v>55.03166666666664</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>54</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3808,14 +3978,12 @@
         <v>54.98833333333331</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3849,14 +4017,12 @@
         <v>54.95499999999997</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>54</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3890,14 +4056,12 @@
         <v>54.92166666666664</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3931,14 +4095,12 @@
         <v>54.88333333333331</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3972,14 +4134,12 @@
         <v>54.84833333333331</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -4013,14 +4173,12 @@
         <v>54.80833333333332</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4054,14 +4212,12 @@
         <v>54.76333333333332</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>53.4</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4095,14 +4251,12 @@
         <v>54.72166666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>53.2</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4136,14 +4290,12 @@
         <v>54.69166666666666</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>53.2</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4177,14 +4329,12 @@
         <v>54.63999999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>53</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4218,14 +4368,12 @@
         <v>54.60333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>53.4</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4259,14 +4407,12 @@
         <v>54.55833333333332</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>53.2</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4300,14 +4446,12 @@
         <v>54.52666666666666</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>52.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4341,14 +4485,12 @@
         <v>54.50333333333332</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4382,14 +4524,12 @@
         <v>54.47499999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>53.4</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4423,14 +4563,12 @@
         <v>54.44666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>53.3</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4464,14 +4602,12 @@
         <v>54.42666666666666</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>53.6</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4505,14 +4641,12 @@
         <v>54.39999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4546,14 +4680,12 @@
         <v>54.38333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>54</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4587,14 +4719,12 @@
         <v>54.36999999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4628,14 +4758,12 @@
         <v>54.36666666666666</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>54.1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4669,14 +4797,12 @@
         <v>54.36333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4710,14 +4836,12 @@
         <v>54.35166666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -4751,14 +4875,12 @@
         <v>54.34</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -4792,14 +4914,12 @@
         <v>54.31833333333334</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4833,14 +4953,12 @@
         <v>54.295</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4874,14 +4992,12 @@
         <v>54.28833333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4915,14 +5031,12 @@
         <v>54.27333333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -4956,14 +5070,12 @@
         <v>54.25666666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -4997,14 +5109,12 @@
         <v>54.23666666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -5038,14 +5148,12 @@
         <v>54.23000000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -5079,14 +5187,12 @@
         <v>54.23666666666668</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -5120,14 +5226,12 @@
         <v>54.24500000000001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -5161,14 +5265,12 @@
         <v>54.24166666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>54.7</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -5202,14 +5304,12 @@
         <v>54.25000000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>54.7</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -5243,14 +5343,12 @@
         <v>54.24000000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5284,14 +5382,12 @@
         <v>54.22666666666668</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5325,14 +5421,12 @@
         <v>54.23666666666668</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5366,14 +5460,12 @@
         <v>54.24333333333335</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5407,14 +5499,12 @@
         <v>54.22500000000002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5448,14 +5538,12 @@
         <v>54.19833333333335</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5489,14 +5577,12 @@
         <v>54.17500000000002</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5530,14 +5616,12 @@
         <v>54.15166666666668</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5571,14 +5655,12 @@
         <v>54.13333333333335</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5612,14 +5694,12 @@
         <v>54.11333333333335</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -5653,14 +5733,12 @@
         <v>54.10333333333335</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>53.9</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5694,14 +5772,12 @@
         <v>54.08666666666669</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>54</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5735,14 +5811,12 @@
         <v>54.06666666666669</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>53.8</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5776,14 +5850,12 @@
         <v>54.05666666666669</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>54</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5817,14 +5889,12 @@
         <v>54.0466666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>54.2</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5858,14 +5928,12 @@
         <v>54.05500000000003</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>54.3</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5899,14 +5967,12 @@
         <v>54.04833333333336</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>54.4</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5940,14 +6006,12 @@
         <v>54.05166666666669</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5981,14 +6045,12 @@
         <v>54.05666666666669</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>54.6</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -6022,14 +6084,12 @@
         <v>54.06333333333336</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>54.5</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -6063,14 +6123,12 @@
         <v>54.08000000000003</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -6104,14 +6162,12 @@
         <v>54.08333333333336</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>55</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -6145,14 +6201,12 @@
         <v>54.09833333333336</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>55</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -6186,14 +6240,12 @@
         <v>54.12000000000003</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>55.3</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -6227,14 +6279,12 @@
         <v>54.15000000000003</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>55.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -6268,14 +6318,12 @@
         <v>54.16833333333336</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>55.8</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -6309,14 +6357,12 @@
         <v>54.2066666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>55.4</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6350,14 +6396,12 @@
         <v>54.2466666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>55.9</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6391,14 +6435,12 @@
         <v>54.29000000000003</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -10410,12 +10452,14 @@
         <v>56.24999999999997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>55.4</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
@@ -10488,12 +10532,14 @@
         <v>56.2683333333333</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>55.7</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
@@ -10527,12 +10573,14 @@
         <v>56.25999999999996</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>55.7</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
@@ -10566,12 +10614,14 @@
         <v>56.24666666666663</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>55.3</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
@@ -10605,12 +10655,14 @@
         <v>56.23666666666663</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>55.1</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
@@ -10644,12 +10696,14 @@
         <v>56.21999999999996</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>55.3</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
@@ -10683,12 +10737,14 @@
         <v>56.20166666666663</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>55.1</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
@@ -10722,12 +10778,14 @@
         <v>56.1883333333333</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>55</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
@@ -10761,12 +10819,14 @@
         <v>56.17499999999997</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>55.3</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
@@ -10800,12 +10860,14 @@
         <v>56.1583333333333</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>55.3</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
@@ -10839,12 +10901,14 @@
         <v>56.13166666666664</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>55.1</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -10878,12 +10942,14 @@
         <v>56.11333333333331</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
@@ -10917,12 +10983,14 @@
         <v>56.0833333333333</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
@@ -10956,12 +11024,14 @@
         <v>56.04999999999997</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>54.7</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
@@ -11190,12 +11260,14 @@
         <v>55.80999999999997</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>54.4</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
@@ -11276,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
@@ -20362,18 +20434,16 @@
         <v>0</v>
       </c>
       <c r="I514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M514" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -20405,11 +20475,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -20440,15 +20506,11 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -20479,15 +20541,11 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -20518,15 +20576,11 @@
         <v>0</v>
       </c>
       <c r="I518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -20561,11 +20615,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20596,16 +20646,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
+      <c r="M520" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -20633,7 +20681,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
@@ -20668,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
@@ -21823,7 +21871,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
@@ -21858,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
@@ -27353,7 +27401,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
@@ -27598,7 +27646,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
@@ -28018,7 +28066,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
@@ -30048,7 +30096,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
@@ -30083,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
